--- a/file/personal/roleImportant/角色要事记录表_2025.xlsx
+++ b/file/personal/roleImportant/角色要事记录表_2025.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="85">
   <si>
     <t>角色</t>
   </si>
@@ -317,6 +317,13 @@
   </si>
   <si>
     <t>第三周</t>
+  </si>
+  <si>
+    <t>完成-官方考试制度研究:重点是要求、限制条件、范围等信息
+考点范围研究:历年考点变化
+岗位信息研究:能报哪些?历年岗位变化趋势?
+学习现状复盘梳理
+制定后续学习计划:如何做到激励性的学习?</t>
   </si>
   <si>
     <t>第四周</t>
@@ -3276,7 +3283,7 @@
     <mergeCell ref="A24:A25"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D14 D15 D16 D29 D2:D5 D6:D13 D17:D23 D24:D26 D27:D28 D30:D31">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D31">
       <formula1>"未进行,进行中,已暂停,已完成"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3298,7 +3305,7 @@
     <sheetView showGridLines="0" tabSelected="1" zoomScale="139" zoomScaleNormal="139" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="B12" sqref="B12"/>
+      <selection pane="topRight" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.64423076923077" defaultRowHeight="13" customHeight="1" outlineLevelCol="5"/>
@@ -3350,15 +3357,15 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" ht="37" customHeight="1" spans="1:4">
+    <row r="5" ht="92" customHeight="1" spans="1:4">
       <c r="A5" s="9" t="s">
         <v>81</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="D5" s="12"/>
     </row>
@@ -3382,7 +3389,7 @@
     </row>
     <row r="8" ht="13.65" customHeight="1" spans="1:4">
       <c r="A8" s="9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="11" t="s">
@@ -3410,7 +3417,7 @@
     </row>
     <row r="11" ht="13.65" customHeight="1" spans="1:4">
       <c r="A11" s="9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B11" s="10"/>
       <c r="C11" s="11" t="s">
@@ -3445,7 +3452,7 @@
     <mergeCell ref="A11:A13"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C10 C11:C13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C13">
       <formula1>"未进行,进行中,已暂停,已完成"</formula1>
     </dataValidation>
   </dataValidations>

--- a/file/personal/roleImportant/角色要事记录表_2025.xlsx
+++ b/file/personal/roleImportant/角色要事记录表_2025.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23320" windowHeight="12720" activeTab="2"/>
+    <workbookView windowWidth="23320" windowHeight="12700" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="角色目录" sheetId="2" r:id="rId1"/>
@@ -320,7 +320,7 @@
   </si>
   <si>
     <t>完成-官方考试制度研究:重点是要求、限制条件、范围等信息
-考点范围研究:历年考点变化
+完成-考点范围研究:历年考点变化
 岗位信息研究:能报哪些?历年岗位变化趋势?
 学习现状复盘梳理
 制定后续学习计划:如何做到激励性的学习?</t>
@@ -3305,7 +3305,7 @@
     <sheetView showGridLines="0" tabSelected="1" zoomScale="139" zoomScaleNormal="139" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="B11" sqref="B11"/>
+      <selection pane="topRight" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.64423076923077" defaultRowHeight="13" customHeight="1" outlineLevelCol="5"/>

--- a/file/personal/roleImportant/角色要事记录表_2025.xlsx
+++ b/file/personal/roleImportant/角色要事记录表_2025.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="88">
   <si>
     <t xml:space="preserve">角色</t>
   </si>
@@ -323,6 +323,9 @@
   </si>
   <si>
     <t xml:space="preserve">第四周</t>
+  </si>
+  <si>
+    <t xml:space="preserve">购买专业书籍</t>
   </si>
   <si>
     <t xml:space="preserve">制定后续学习计划:如何做到激励性的学习?</t>
@@ -841,12 +844,12 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1723,12 +1726,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="139" zoomScaleNormal="139" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="0" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B10" activeCellId="0" sqref="B10"/>
+      <selection pane="topRight" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.359375" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1804,49 +1807,51 @@
       <c r="F6" s="12"/>
     </row>
     <row r="7" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="36"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="38" t="s">
+      <c r="A7" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="B7" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" s="39" t="s">
         <v>30</v>
       </c>
       <c r="D7" s="26"/>
     </row>
-    <row r="8" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="36" t="s">
-        <v>84</v>
-      </c>
-      <c r="B8" s="39" t="s">
-        <v>85</v>
-      </c>
-      <c r="C8" s="38" t="s">
+    <row r="8" customFormat="false" ht="13.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="36"/>
+      <c r="B8" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="C8" s="39" t="s">
         <v>30</v>
       </c>
       <c r="D8" s="26"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
     </row>
     <row r="9" customFormat="false" ht="13.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="36"/>
-      <c r="B9" s="39"/>
-      <c r="C9" s="38" t="s">
+      <c r="B9" s="21"/>
+      <c r="C9" s="39" t="s">
         <v>30</v>
       </c>
       <c r="D9" s="26"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-    </row>
-    <row r="10" customFormat="false" ht="13.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="36"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="36" t="s">
+        <v>87</v>
+      </c>
       <c r="B10" s="21"/>
-      <c r="C10" s="38" t="s">
+      <c r="C10" s="39" t="s">
         <v>30</v>
       </c>
       <c r="D10" s="26"/>
     </row>
     <row r="11" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="36" t="s">
-        <v>86</v>
-      </c>
+      <c r="A11" s="36"/>
       <c r="B11" s="21"/>
-      <c r="C11" s="38" t="s">
+      <c r="C11" s="39" t="s">
         <v>30</v>
       </c>
       <c r="D11" s="26"/>
@@ -1854,31 +1859,24 @@
     <row r="12" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="36"/>
       <c r="B12" s="21"/>
-      <c r="C12" s="38" t="s">
+      <c r="C12" s="39" t="s">
         <v>30</v>
       </c>
       <c r="D12" s="26"/>
     </row>
-    <row r="13" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="36"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="26"/>
-    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B3:D3"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A10:A12"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C5:C13" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C5:C12" type="list">
       <formula1>"未进行,进行中,已暂停,已完成"</formula1>
       <formula2>0</formula2>
     </dataValidation>

--- a/file/personal/roleImportant/角色要事记录表_2025.xlsx
+++ b/file/personal/roleImportant/角色要事记录表_2025.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23320" windowHeight="13160" tabRatio="500" activeTab="2"/>
+    <workbookView windowWidth="23320" windowHeight="13160" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="角色目录" sheetId="1" r:id="rId1"/>
@@ -2738,10 +2738,10 @@
   </sheetPr>
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="139" zoomScaleNormal="139" topLeftCell="A5" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="139" zoomScaleNormal="139" topLeftCell="A10" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="B12" sqref="$A12:$XFD12"/>
+      <selection pane="topRight" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3557692307692" defaultRowHeight="16.8" outlineLevelCol="5"/>
@@ -2883,8 +2883,8 @@
       <c r="B12" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="C12" s="10" t="s">
-        <v>30</v>
+      <c r="C12" s="13" t="s">
+        <v>37</v>
       </c>
       <c r="D12" s="11"/>
     </row>
@@ -2893,8 +2893,8 @@
       <c r="B13" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="C13" s="10" t="s">
-        <v>30</v>
+      <c r="C13" s="13" t="s">
+        <v>37</v>
       </c>
       <c r="D13" s="11"/>
     </row>
@@ -2903,8 +2903,8 @@
       <c r="B14" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="C14" s="10" t="s">
-        <v>30</v>
+      <c r="C14" s="13" t="s">
+        <v>37</v>
       </c>
       <c r="D14" s="11"/>
     </row>
@@ -2919,7 +2919,7 @@
     <mergeCell ref="A12:A14"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C9 C10 C11 C5:C8 C12:C14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C12 C13 C14 C5:C11">
       <formula1>"未进行,进行中,已暂停,已完成"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2938,10 +2938,10 @@
   </sheetPr>
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="139" zoomScaleNormal="139" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="139" zoomScaleNormal="139" topLeftCell="A3" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="B21" sqref="B21"/>
+      <selection pane="topRight" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3557692307692" defaultRowHeight="16.8" outlineLevelCol="5"/>
@@ -3017,8 +3017,8 @@
       <c r="B7" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>30</v>
+      <c r="C7" s="13" t="s">
+        <v>37</v>
       </c>
       <c r="D7" s="11"/>
     </row>
@@ -3047,8 +3047,8 @@
       <c r="B10" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="C10" s="10" t="s">
-        <v>30</v>
+      <c r="C10" s="13" t="s">
+        <v>37</v>
       </c>
       <c r="D10" s="11"/>
     </row>
@@ -3150,7 +3150,7 @@
     <mergeCell ref="A16:A18"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C18">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7 C10 C5:C6 C8:C9 C11:C18">
       <formula1>"未进行,进行中,已暂停,已完成"</formula1>
     </dataValidation>
   </dataValidations>

--- a/file/personal/roleImportant/角色要事记录表_2025.xlsx
+++ b/file/personal/roleImportant/角色要事记录表_2025.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="108">
   <si>
     <t>角色</t>
   </si>
@@ -2919,7 +2919,7 @@
     <mergeCell ref="A12:A14"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C12 C13 C14 C5:C11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C14">
       <formula1>"未进行,进行中,已暂停,已完成"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2936,12 +2936,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="139" zoomScaleNormal="139" topLeftCell="A3" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="C10" sqref="C10"/>
+      <selection pane="topRight" activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3557692307692" defaultRowHeight="16.8" outlineLevelCol="5"/>
@@ -2997,8 +2997,8 @@
       <c r="B5" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>30</v>
+      <c r="C5" s="13" t="s">
+        <v>37</v>
       </c>
       <c r="D5" s="11"/>
     </row>
@@ -3007,8 +3007,8 @@
       <c r="B6" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>30</v>
+      <c r="C6" s="13" t="s">
+        <v>37</v>
       </c>
       <c r="D6" s="11"/>
     </row>
@@ -3022,40 +3022,46 @@
       </c>
       <c r="D7" s="11"/>
     </row>
-    <row r="8" ht="16" customHeight="1" spans="1:4">
-      <c r="A8" s="8"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="10" t="s">
-        <v>30</v>
+    <row r="8" ht="13.65" customHeight="1" spans="1:4">
+      <c r="A8" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>37</v>
       </c>
       <c r="D8" s="11"/>
     </row>
     <row r="9" ht="13.35" customHeight="1" spans="1:6">
-      <c r="A9" s="8"/>
-      <c r="B9" s="9"/>
+      <c r="A9" s="12"/>
+      <c r="B9" s="9" t="s">
+        <v>100</v>
+      </c>
       <c r="C9" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="9"/>
+      <c r="D9" s="11"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" ht="13.65" customHeight="1" spans="1:4">
-      <c r="A10" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>37</v>
+    <row r="10" ht="13.35" customHeight="1" spans="1:6">
+      <c r="A10" s="12"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="10" t="s">
+        <v>30</v>
       </c>
       <c r="D10" s="11"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
     </row>
     <row r="11" ht="13.35" customHeight="1" spans="1:6">
-      <c r="A11" s="12"/>
+      <c r="A11" s="8" t="s">
+        <v>81</v>
+      </c>
       <c r="B11" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>30</v>
@@ -3066,7 +3072,9 @@
     </row>
     <row r="12" ht="13.35" customHeight="1" spans="1:6">
       <c r="A12" s="12"/>
-      <c r="B12" s="9"/>
+      <c r="B12" s="9" t="s">
+        <v>102</v>
+      </c>
       <c r="C12" s="10" t="s">
         <v>30</v>
       </c>
@@ -3074,69 +3082,43 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" ht="13.35" customHeight="1" spans="1:6">
-      <c r="A13" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>101</v>
-      </c>
+    <row r="13" ht="13.35" customHeight="1" spans="1:4">
+      <c r="A13" s="12"/>
+      <c r="B13" s="9"/>
       <c r="C13" s="10" t="s">
         <v>30</v>
       </c>
       <c r="D13" s="11"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" ht="13.35" customHeight="1" spans="1:6">
-      <c r="A14" s="12"/>
+    </row>
+    <row r="14" ht="13.65" customHeight="1" spans="1:4">
+      <c r="A14" s="8" t="s">
+        <v>84</v>
+      </c>
       <c r="B14" s="9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>30</v>
       </c>
       <c r="D14" s="11"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" ht="13.35" customHeight="1" spans="1:4">
-      <c r="A15" s="12"/>
-      <c r="B15" s="9"/>
+    </row>
+    <row r="15" ht="13.65" customHeight="1" spans="1:4">
+      <c r="A15" s="8"/>
+      <c r="B15" s="9" t="s">
+        <v>104</v>
+      </c>
       <c r="C15" s="10" t="s">
         <v>30</v>
       </c>
       <c r="D15" s="11"/>
     </row>
     <row r="16" ht="13.65" customHeight="1" spans="1:4">
-      <c r="A16" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>103</v>
-      </c>
+      <c r="A16" s="8"/>
+      <c r="B16" s="9"/>
       <c r="C16" s="10" t="s">
         <v>30</v>
       </c>
       <c r="D16" s="11"/>
-    </row>
-    <row r="17" ht="13.65" customHeight="1" spans="1:4">
-      <c r="A17" s="8"/>
-      <c r="B17" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" s="11"/>
-    </row>
-    <row r="18" ht="13.65" customHeight="1" spans="1:4">
-      <c r="A18" s="8"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -3144,13 +3126,13 @@
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="A1:A3"/>
-    <mergeCell ref="A5:A9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A16"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7 C10 C5:C6 C8:C9 C11:C18">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C7 C8:C16">
       <formula1>"未进行,进行中,已暂停,已完成"</formula1>
     </dataValidation>
   </dataValidations>

--- a/file/personal/roleImportant/角色要事记录表_2025.xlsx
+++ b/file/personal/roleImportant/角色要事记录表_2025.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23320" windowHeight="13160" tabRatio="500" activeTab="3"/>
+    <workbookView windowWidth="23320" windowHeight="13160" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="角色目录" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="115">
   <si>
     <t>角色</t>
   </si>
@@ -394,13 +394,34 @@
     <t>言语理解与表达知识点整理-11/12</t>
   </si>
   <si>
-    <t>判断推理视频知识整理-34个</t>
-  </si>
-  <si>
-    <t>言语理解与表达知识点整理-13</t>
-  </si>
-  <si>
-    <t>判断推理视频知识整理-37个</t>
+    <t>常识题100+言语理解题50+推理判断题100</t>
+  </si>
+  <si>
+    <t>数量关系视频2+资料分析视频2+推理判断视频1</t>
+  </si>
+  <si>
+    <t>言语理解知识1+推理知识1</t>
+  </si>
+  <si>
+    <t>练字2</t>
+  </si>
+  <si>
+    <t>数量知识1+资料知识1+综应知识1</t>
+  </si>
+  <si>
+    <t>数量题25+资料题25+言语理解词语100</t>
+  </si>
+  <si>
+    <t>综应试卷1+练字2</t>
+  </si>
+  <si>
+    <t>常识25%+言语理解整理完成50%</t>
+  </si>
+  <si>
+    <t>常识25%+言语理解整理完成100%</t>
+  </si>
+  <si>
+    <t>常识25%</t>
   </si>
 </sst>
 </file>
@@ -1299,7 +1320,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1335,6 +1356,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2034,226 +2058,226 @@
   </cols>
   <sheetData>
     <row r="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
     </row>
     <row r="2" ht="14" customHeight="1" spans="1:5">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
     </row>
     <row r="3" ht="14" customHeight="1" spans="1:5">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="35"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
     </row>
     <row r="4" ht="14" customHeight="1" spans="1:5">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="35"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
     </row>
     <row r="5" ht="14" customHeight="1" spans="1:5">
-      <c r="A5" s="38"/>
-      <c r="B5" s="35"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
+      <c r="A5" s="39"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
     </row>
     <row r="6" ht="14" customHeight="1" spans="1:5">
-      <c r="A6" s="38"/>
-      <c r="B6" s="35"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
+      <c r="A6" s="39"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
     </row>
     <row r="7" ht="14" customHeight="1" spans="1:5">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="35"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
     </row>
     <row r="8" ht="14" customHeight="1" spans="1:5">
-      <c r="A8" s="38"/>
-      <c r="B8" s="35"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
+      <c r="A8" s="39"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
     </row>
     <row r="9" ht="14" customHeight="1" spans="1:5">
-      <c r="A9" s="38"/>
-      <c r="B9" s="35"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
+      <c r="A9" s="39"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
     </row>
     <row r="10" ht="14" customHeight="1" spans="1:5">
-      <c r="A10" s="38" t="s">
+      <c r="A10" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="35"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
     </row>
     <row r="11" ht="14" customHeight="1" spans="1:5">
-      <c r="A11" s="38" t="s">
+      <c r="A11" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="35"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
     </row>
     <row r="12" ht="14" customHeight="1" spans="1:5">
-      <c r="A12" s="38" t="s">
+      <c r="A12" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="35"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
     </row>
     <row r="13" ht="14" customHeight="1" spans="1:5">
-      <c r="A13" s="38" t="s">
+      <c r="A13" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="35"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
     </row>
     <row r="14" ht="14" customHeight="1" spans="1:5">
-      <c r="A14" s="38" t="s">
+      <c r="A14" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="35"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
     </row>
     <row r="15" ht="14" customHeight="1" spans="1:5">
-      <c r="A15" s="38" t="s">
+      <c r="A15" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="35"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
     </row>
     <row r="16" ht="14" customHeight="1" spans="1:5">
-      <c r="A16" s="38" t="s">
+      <c r="A16" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="35"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
     </row>
     <row r="17" ht="14" customHeight="1" spans="1:5">
-      <c r="A17" s="38" t="s">
+      <c r="A17" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="35"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
     </row>
     <row r="18" ht="14" customHeight="1" spans="1:5">
-      <c r="A18" s="38" t="s">
+      <c r="A18" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="35"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
     </row>
     <row r="19" ht="14" customHeight="1" spans="1:5">
-      <c r="A19" s="38" t="s">
+      <c r="A19" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="35"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
     </row>
     <row r="20" ht="14" customHeight="1" spans="1:5">
-      <c r="A20" s="38" t="s">
+      <c r="A20" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="35"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
     </row>
     <row r="21" ht="14" customHeight="1" spans="1:5">
-      <c r="A21" s="38" t="s">
+      <c r="A21" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="35"/>
-      <c r="C21" s="36"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="36"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
     </row>
     <row r="22" ht="14" customHeight="1" spans="1:5">
-      <c r="A22" s="38" t="s">
+      <c r="A22" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="35"/>
-      <c r="C22" s="36"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="36"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="37"/>
     </row>
     <row r="23" ht="14" customHeight="1" spans="1:5">
-      <c r="A23" s="37" t="s">
+      <c r="A23" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="35"/>
-      <c r="C23" s="36"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="36"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="37"/>
     </row>
     <row r="26" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A26" s="39" t="s">
+      <c r="A26" s="40" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="27" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A27" s="19" t="s">
+      <c r="A27" s="20" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="28" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A28" s="29" t="s">
+      <c r="A28" s="30" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="29" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A29" s="25" t="s">
+      <c r="A29" s="26" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="30" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A30" s="28" t="s">
+      <c r="A30" s="29" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2297,82 +2321,82 @@
   </cols>
   <sheetData>
     <row r="1" ht="13.55" customHeight="1" spans="1:4">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="17" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" ht="13.35" hidden="1" customHeight="1" spans="1:4">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="21" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="3" ht="13.35" hidden="1" customHeight="1" spans="1:4">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="19" t="s">
+      <c r="B3" s="23"/>
+      <c r="C3" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="21" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="4" ht="13.35" hidden="1" customHeight="1" spans="1:4">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="19" t="s">
+      <c r="B4" s="23"/>
+      <c r="C4" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="21" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="5" ht="13.35" hidden="1" customHeight="1" spans="1:4">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="21" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="6" ht="13" hidden="1" customHeight="1" spans="1:5">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="22" t="s">
         <v>35</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="24" t="s">
         <v>37</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -2380,212 +2404,212 @@
       </c>
     </row>
     <row r="7" ht="13" hidden="1" customHeight="1" spans="1:6">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="25" t="s">
         <v>39</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="24" t="s">
         <v>37</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
     <row r="8" ht="13" hidden="1" customHeight="1" spans="1:4">
-      <c r="A8" s="24"/>
+      <c r="A8" s="25"/>
       <c r="B8" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="D8" s="24" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="9" ht="13" hidden="1" customHeight="1" spans="1:4">
-      <c r="A9" s="24"/>
+      <c r="A9" s="25"/>
       <c r="B9" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="23" t="s">
+      <c r="D9" s="24" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="10" ht="13" hidden="1" customHeight="1" spans="1:4">
-      <c r="A10" s="24"/>
+      <c r="A10" s="25"/>
       <c r="B10" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="D10" s="24" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="11" ht="13" hidden="1" customHeight="1" spans="1:4">
-      <c r="A11" s="24"/>
-      <c r="B11" s="26" t="s">
+      <c r="A11" s="25"/>
+      <c r="B11" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="23" t="s">
+      <c r="D11" s="24" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="12" ht="13" hidden="1" customHeight="1" spans="1:4">
-      <c r="A12" s="24"/>
+      <c r="A12" s="25"/>
       <c r="B12" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="25" t="s">
+      <c r="C12" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="23" t="s">
+      <c r="D12" s="24" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="13" ht="13" customHeight="1" spans="1:4">
-      <c r="A13" s="24"/>
+      <c r="A13" s="25"/>
       <c r="B13" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="25" t="s">
+      <c r="C13" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="27" t="s">
+      <c r="D13" s="28" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="14" ht="13" customHeight="1" spans="1:4">
-      <c r="A14" s="24"/>
+      <c r="A14" s="25"/>
       <c r="B14" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="25" t="s">
+      <c r="C14" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="27" t="s">
+      <c r="D14" s="28" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="15" ht="13" customHeight="1" spans="1:4">
-      <c r="A15" s="24"/>
+      <c r="A15" s="25"/>
       <c r="B15" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C15" s="25" t="s">
+      <c r="C15" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="27" t="s">
+      <c r="D15" s="28" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="16" ht="13" customHeight="1" spans="1:4">
-      <c r="A16" s="24"/>
+      <c r="A16" s="25"/>
       <c r="B16" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="25" t="s">
+      <c r="C16" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="27" t="s">
+      <c r="D16" s="28" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="17" ht="13" customHeight="1" spans="1:4">
-      <c r="A17" s="24"/>
+      <c r="A17" s="25"/>
       <c r="B17" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="25" t="s">
+      <c r="C17" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="27" t="s">
+      <c r="D17" s="28" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="18" ht="13" customHeight="1" spans="1:4">
-      <c r="A18" s="24" t="s">
+      <c r="A18" s="25" t="s">
         <v>52</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C18" s="28" t="s">
+      <c r="C18" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="27" t="s">
+      <c r="D18" s="28" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="19" ht="13" customHeight="1" spans="1:4">
-      <c r="A19" s="24"/>
+      <c r="A19" s="25"/>
       <c r="B19" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="28" t="s">
+      <c r="C19" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="27" t="s">
+      <c r="D19" s="28" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="20" ht="13" customHeight="1" spans="1:4">
-      <c r="A20" s="24"/>
+      <c r="A20" s="25"/>
       <c r="B20" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C20" s="28" t="s">
+      <c r="C20" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="27" t="s">
+      <c r="D20" s="28" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="21" ht="13" customHeight="1" spans="1:4">
-      <c r="A21" s="24"/>
+      <c r="A21" s="25"/>
       <c r="B21" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="C21" s="28" t="s">
+      <c r="C21" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="27" t="s">
+      <c r="D21" s="28" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="22" ht="13" customHeight="1" spans="1:4">
-      <c r="A22" s="24"/>
+      <c r="A22" s="25"/>
       <c r="B22" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="C22" s="28" t="s">
+      <c r="C22" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="27" t="s">
+      <c r="D22" s="28" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="23" ht="13" customHeight="1" spans="1:4">
-      <c r="A23" s="24"/>
+      <c r="A23" s="25"/>
       <c r="B23" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="C23" s="28" t="s">
+      <c r="C23" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="D23" s="27" t="s">
+      <c r="D23" s="28" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2596,10 +2620,10 @@
       <c r="B24" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="C24" s="29" t="s">
+      <c r="C24" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="D24" s="30" t="s">
+      <c r="D24" s="31" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2608,24 +2632,24 @@
       <c r="B25" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="C25" s="29" t="s">
+      <c r="C25" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="D25" s="30" t="s">
+      <c r="D25" s="31" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="26" ht="13" hidden="1" customHeight="1" spans="1:4">
-      <c r="A26" s="31" t="s">
+      <c r="A26" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="B26" s="32" t="s">
+      <c r="B26" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="C26" s="25" t="s">
+      <c r="C26" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="D26" s="23" t="s">
+      <c r="D26" s="24" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2636,10 +2660,10 @@
       <c r="B27" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C27" s="19" t="s">
+      <c r="C27" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D27" s="33" t="s">
+      <c r="D27" s="34" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2650,10 +2674,10 @@
       <c r="B28" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C28" s="25" t="s">
+      <c r="C28" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="D28" s="33" t="s">
+      <c r="D28" s="34" t="s">
         <v>47</v>
       </c>
       <c r="E28" s="1" t="s">
@@ -2667,10 +2691,10 @@
       <c r="B29" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C29" s="19" t="s">
+      <c r="C29" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D29" s="33" t="s">
+      <c r="D29" s="34" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2681,10 +2705,10 @@
       <c r="B30" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="C30" s="25" t="s">
+      <c r="C30" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="D30" s="33" t="s">
+      <c r="D30" s="34" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2695,10 +2719,10 @@
       <c r="B31" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="C31" s="19" t="s">
+      <c r="C31" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D31" s="20" t="s">
+      <c r="D31" s="21" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2799,7 +2823,7 @@
       <c r="B5" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="14" t="s">
         <v>37</v>
       </c>
       <c r="D5" s="11"/>
@@ -2809,7 +2833,7 @@
       <c r="B6" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="14" t="s">
         <v>37</v>
       </c>
       <c r="D6" s="9"/>
@@ -2823,7 +2847,7 @@
       <c r="B7" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="14" t="s">
         <v>37</v>
       </c>
       <c r="D7" s="11"/>
@@ -2833,7 +2857,7 @@
       <c r="B8" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="14" t="s">
         <v>37</v>
       </c>
       <c r="D8" s="11"/>
@@ -2845,7 +2869,7 @@
       <c r="B9" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="14" t="s">
         <v>37</v>
       </c>
       <c r="D9" s="11"/>
@@ -2857,7 +2881,7 @@
       <c r="B10" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="14" t="s">
         <v>37</v>
       </c>
       <c r="D10" s="11"/>
@@ -2869,7 +2893,7 @@
       <c r="B11" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="14" t="s">
         <v>37</v>
       </c>
       <c r="D11" s="11"/>
@@ -2883,7 +2907,7 @@
       <c r="B12" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="14" t="s">
         <v>37</v>
       </c>
       <c r="D12" s="11"/>
@@ -2893,7 +2917,7 @@
       <c r="B13" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="14" t="s">
         <v>37</v>
       </c>
       <c r="D13" s="11"/>
@@ -2903,7 +2927,7 @@
       <c r="B14" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="14" t="s">
         <v>37</v>
       </c>
       <c r="D14" s="11"/>
@@ -2936,9 +2960,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="139" zoomScaleNormal="139" topLeftCell="A3" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="139" zoomScaleNormal="139" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
       <selection pane="topRight" activeCell="B17" sqref="B17"/>
@@ -2997,7 +3021,7 @@
       <c r="B5" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="14" t="s">
         <v>37</v>
       </c>
       <c r="D5" s="11"/>
@@ -3007,7 +3031,7 @@
       <c r="B6" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="14" t="s">
         <v>37</v>
       </c>
       <c r="D6" s="11"/>
@@ -3017,7 +3041,7 @@
       <c r="B7" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="14" t="s">
         <v>37</v>
       </c>
       <c r="D7" s="11"/>
@@ -3029,7 +3053,7 @@
       <c r="B8" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="14" t="s">
         <v>37</v>
       </c>
       <c r="D8" s="11"/>
@@ -3039,86 +3063,60 @@
       <c r="B9" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>30</v>
+      <c r="C9" s="14" t="s">
+        <v>37</v>
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
     <row r="10" ht="13.35" customHeight="1" spans="1:6">
-      <c r="A10" s="12"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="10" t="s">
-        <v>30</v>
+      <c r="A10" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>37</v>
       </c>
       <c r="D10" s="11"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
     <row r="11" ht="13.35" customHeight="1" spans="1:6">
-      <c r="A11" s="8" t="s">
-        <v>81</v>
-      </c>
+      <c r="A11" s="12"/>
       <c r="B11" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>30</v>
+        <v>102</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>37</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" ht="13.35" customHeight="1" spans="1:6">
-      <c r="A12" s="12"/>
+    <row r="12" ht="13.65" customHeight="1" spans="1:4">
+      <c r="A12" s="8" t="s">
+        <v>84</v>
+      </c>
       <c r="B12" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>30</v>
+        <v>103</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>37</v>
       </c>
       <c r="D12" s="11"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" ht="13.35" customHeight="1" spans="1:4">
-      <c r="A13" s="12"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="10" t="s">
-        <v>30</v>
+    </row>
+    <row r="13" ht="13.65" customHeight="1" spans="1:4">
+      <c r="A13" s="8"/>
+      <c r="B13" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>37</v>
       </c>
       <c r="D13" s="11"/>
-    </row>
-    <row r="14" ht="13.65" customHeight="1" spans="1:4">
-      <c r="A14" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="11"/>
-    </row>
-    <row r="15" ht="13.65" customHeight="1" spans="1:4">
-      <c r="A15" s="8"/>
-      <c r="B15" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="11"/>
-    </row>
-    <row r="16" ht="13.65" customHeight="1" spans="1:4">
-      <c r="A16" s="8"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -3127,12 +3125,12 @@
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C7 C8:C16">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C9 C10 C11 C12 C13 C5:C8">
       <formula1>"未进行,进行中,已暂停,已完成"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3149,12 +3147,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="139" zoomScaleNormal="139" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="139" zoomScaleNormal="139" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="B21" sqref="B21"/>
+      <selection pane="topRight" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3557692307692" defaultRowHeight="16.8" outlineLevelCol="5"/>
@@ -3227,7 +3225,9 @@
     </row>
     <row r="7" ht="16" customHeight="1" spans="1:4">
       <c r="A7" s="8"/>
-      <c r="B7" s="9"/>
+      <c r="B7" s="9" t="s">
+        <v>107</v>
+      </c>
       <c r="C7" s="10" t="s">
         <v>30</v>
       </c>
@@ -3235,69 +3235,73 @@
     </row>
     <row r="8" ht="16" customHeight="1" spans="1:4">
       <c r="A8" s="8"/>
-      <c r="B8" s="9"/>
+      <c r="B8" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="C8" s="10" t="s">
         <v>30</v>
       </c>
       <c r="D8" s="11"/>
     </row>
-    <row r="9" ht="13.35" customHeight="1" spans="1:6">
+    <row r="9" ht="16" customHeight="1" spans="1:4">
       <c r="A9" s="8"/>
-      <c r="B9" s="9"/>
+      <c r="B9" s="9" t="s">
+        <v>109</v>
+      </c>
       <c r="C9" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" ht="13.65" customHeight="1" spans="1:4">
-      <c r="A10" s="8" t="s">
-        <v>98</v>
-      </c>
+      <c r="D9" s="11"/>
+    </row>
+    <row r="10" ht="16" customHeight="1" spans="1:4">
+      <c r="A10" s="8"/>
       <c r="B10" s="9" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>30</v>
       </c>
       <c r="D10" s="11"/>
     </row>
-    <row r="11" ht="13.35" customHeight="1" spans="1:6">
-      <c r="A11" s="12"/>
-      <c r="B11" s="9"/>
+    <row r="11" ht="16" customHeight="1" spans="1:4">
+      <c r="A11" s="8"/>
+      <c r="B11" s="9" t="s">
+        <v>111</v>
+      </c>
       <c r="C11" s="10" t="s">
         <v>30</v>
       </c>
       <c r="D11" s="11"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
     </row>
     <row r="12" ht="13.35" customHeight="1" spans="1:6">
-      <c r="A12" s="12"/>
-      <c r="B12" s="9"/>
+      <c r="A12" s="8"/>
+      <c r="B12" s="9" t="s">
+        <v>112</v>
+      </c>
       <c r="C12" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="11"/>
+      <c r="D12" s="9"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" ht="13.35" customHeight="1" spans="1:6">
+    <row r="13" ht="13.65" customHeight="1" spans="1:4">
       <c r="A13" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="B13" s="9"/>
+        <v>98</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>105</v>
+      </c>
       <c r="C13" s="10" t="s">
         <v>30</v>
       </c>
       <c r="D13" s="11"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
     </row>
     <row r="14" ht="13.35" customHeight="1" spans="1:6">
       <c r="A14" s="12"/>
-      <c r="B14" s="9"/>
+      <c r="B14" s="9" t="s">
+        <v>106</v>
+      </c>
       <c r="C14" s="10" t="s">
         <v>30</v>
       </c>
@@ -3305,39 +3309,255 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" ht="13.35" customHeight="1" spans="1:4">
+    <row r="15" ht="13.35" customHeight="1" spans="1:6">
       <c r="A15" s="12"/>
-      <c r="B15" s="9"/>
+      <c r="B15" s="9" t="s">
+        <v>107</v>
+      </c>
       <c r="C15" s="10" t="s">
         <v>30</v>
       </c>
       <c r="D15" s="11"/>
-    </row>
-    <row r="16" ht="13.65" customHeight="1" spans="1:4">
-      <c r="A16" s="8" t="s">
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" ht="13.35" customHeight="1" spans="1:6">
+      <c r="A16" s="12"/>
+      <c r="B16" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="11"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" ht="13.35" customHeight="1" spans="1:6">
+      <c r="A17" s="12"/>
+      <c r="B17" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="11"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" ht="13.35" customHeight="1" spans="1:6">
+      <c r="A18" s="12"/>
+      <c r="B18" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="11"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" ht="13.35" customHeight="1" spans="1:6">
+      <c r="A19" s="12"/>
+      <c r="B19" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="11"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" ht="13.35" customHeight="1" spans="1:6">
+      <c r="A20" s="12"/>
+      <c r="B20" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="11"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" ht="13.35" customHeight="1" spans="1:6">
+      <c r="A21" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="11"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" ht="13.35" customHeight="1" spans="1:6">
+      <c r="A22" s="13"/>
+      <c r="B22" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="11"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" ht="13.35" customHeight="1" spans="1:6">
+      <c r="A23" s="13"/>
+      <c r="B23" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" s="11"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" ht="13.35" customHeight="1" spans="1:6">
+      <c r="A24" s="13"/>
+      <c r="B24" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="11"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" ht="13.35" customHeight="1" spans="1:6">
+      <c r="A25" s="13"/>
+      <c r="B25" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" s="11"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" ht="13.35" customHeight="1" spans="1:6">
+      <c r="A26" s="13"/>
+      <c r="B26" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" s="11"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" ht="13.35" customHeight="1" spans="1:6">
+      <c r="A27" s="12"/>
+      <c r="B27" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" s="11"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" ht="13.35" customHeight="1" spans="1:4">
+      <c r="A28" s="12"/>
+      <c r="B28" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" s="11"/>
+    </row>
+    <row r="29" ht="13.65" customHeight="1" spans="1:4">
+      <c r="A29" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" s="11"/>
-    </row>
-    <row r="17" ht="13.65" customHeight="1" spans="1:4">
-      <c r="A17" s="8"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" s="11"/>
-    </row>
-    <row r="18" ht="13.65" customHeight="1" spans="1:4">
-      <c r="A18" s="8"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" s="11"/>
+      <c r="B29" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29" s="11"/>
+    </row>
+    <row r="30" ht="13.65" customHeight="1" spans="1:4">
+      <c r="A30" s="8"/>
+      <c r="B30" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D30" s="11"/>
+    </row>
+    <row r="31" ht="13.65" customHeight="1" spans="1:4">
+      <c r="A31" s="8"/>
+      <c r="B31" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31" s="11"/>
+    </row>
+    <row r="32" ht="13.65" customHeight="1" spans="1:4">
+      <c r="A32" s="8"/>
+      <c r="B32" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D32" s="11"/>
+    </row>
+    <row r="33" ht="13.65" customHeight="1" spans="1:4">
+      <c r="A33" s="8"/>
+      <c r="B33" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D33" s="11"/>
+    </row>
+    <row r="34" ht="13.65" customHeight="1" spans="1:4">
+      <c r="A34" s="8"/>
+      <c r="B34" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D34" s="11"/>
+    </row>
+    <row r="35" ht="13.65" customHeight="1" spans="1:4">
+      <c r="A35" s="8"/>
+      <c r="B35" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D35" s="11"/>
+    </row>
+    <row r="36" ht="13.65" customHeight="1" spans="1:4">
+      <c r="A36" s="8"/>
+      <c r="B36" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D36" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -3345,13 +3565,13 @@
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="A1:A3"/>
-    <mergeCell ref="A5:A9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A5:A12"/>
+    <mergeCell ref="A13:A20"/>
+    <mergeCell ref="A21:A28"/>
+    <mergeCell ref="A29:A36"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C18">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C36 C6:C35">
       <formula1>"未进行,进行中,已暂停,已完成"</formula1>
     </dataValidation>
   </dataValidations>

--- a/file/personal/roleImportant/角色要事记录表_2025.xlsx
+++ b/file/personal/roleImportant/角色要事记录表_2025.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
@@ -16,25 +16,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">待办任务!$A$1:$D$32</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115">
   <si>
     <t>角色</t>
   </si>
@@ -427,12 +414,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -461,9 +448,18 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -474,9 +470,20 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -504,6 +511,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -521,29 +543,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
@@ -552,10 +551,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -568,7 +567,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -583,35 +582,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -692,13 +679,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -710,6 +751,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -722,157 +769,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1098,6 +1085,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1117,7 +1113,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1126,7 +1122,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1163,15 +1159,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1182,152 +1169,152 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1357,14 +1344,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -1447,270 +1431,56 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
     <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
     <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="17">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <border>
-        <top style="double">
-          <color theme="4"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <border>
-        <left style="thin">
-          <color theme="4"/>
-        </left>
-        <right style="thin">
-          <color theme="4"/>
-        </right>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
-        <horizontal style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-  </dxfs>
-  <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
-    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
-      <tableStyleElement type="wholeTable" dxfId="6"/>
-      <tableStyleElement type="headerRow" dxfId="5"/>
-      <tableStyleElement type="totalRow" dxfId="4"/>
-      <tableStyleElement type="firstColumn" dxfId="3"/>
-      <tableStyleElement type="lastColumn" dxfId="2"/>
-      <tableStyleElement type="firstRowStripe" dxfId="1"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
-    </tableStyle>
-    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
-      <tableStyleElement type="headerRow" dxfId="16"/>
-      <tableStyleElement type="totalRow" dxfId="15"/>
-      <tableStyleElement type="firstRowStripe" dxfId="14"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
-      <tableStyleElement type="pageFieldValues" dxfId="7"/>
-    </tableStyle>
-  </tableStyles>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -1779,11 +1549,6 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -2039,11 +1804,12 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:E30"/>
   <sheetViews>
@@ -2051,233 +1817,233 @@
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6" defaultRowHeight="16.8" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.64285714285714" defaultRowHeight="13.1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="14.4134615384615" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.4107142857143" style="1" customWidth="1"/>
     <col min="2" max="16384" width="6" style="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
     </row>
     <row r="2" ht="14" customHeight="1" spans="1:5">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
     </row>
     <row r="3" ht="14" customHeight="1" spans="1:5">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
     </row>
     <row r="4" ht="14" customHeight="1" spans="1:5">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
     </row>
     <row r="5" ht="14" customHeight="1" spans="1:5">
-      <c r="A5" s="39"/>
-      <c r="B5" s="36"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
+      <c r="A5" s="38"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
     </row>
     <row r="6" ht="14" customHeight="1" spans="1:5">
-      <c r="A6" s="39"/>
-      <c r="B6" s="36"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
+      <c r="A6" s="38"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
     </row>
     <row r="7" ht="14" customHeight="1" spans="1:5">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="36"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
     </row>
     <row r="8" ht="14" customHeight="1" spans="1:5">
-      <c r="A8" s="39"/>
-      <c r="B8" s="36"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
+      <c r="A8" s="38"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
     </row>
     <row r="9" ht="14" customHeight="1" spans="1:5">
-      <c r="A9" s="39"/>
-      <c r="B9" s="36"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
+      <c r="A9" s="38"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
     </row>
     <row r="10" ht="14" customHeight="1" spans="1:5">
-      <c r="A10" s="39" t="s">
+      <c r="A10" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="36"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
     </row>
     <row r="11" ht="14" customHeight="1" spans="1:5">
-      <c r="A11" s="39" t="s">
+      <c r="A11" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="36"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
     </row>
     <row r="12" ht="14" customHeight="1" spans="1:5">
-      <c r="A12" s="39" t="s">
+      <c r="A12" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="36"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
     </row>
     <row r="13" ht="14" customHeight="1" spans="1:5">
-      <c r="A13" s="39" t="s">
+      <c r="A13" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="36"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
     </row>
     <row r="14" ht="14" customHeight="1" spans="1:5">
-      <c r="A14" s="39" t="s">
+      <c r="A14" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="36"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
     </row>
     <row r="15" ht="14" customHeight="1" spans="1:5">
-      <c r="A15" s="39" t="s">
+      <c r="A15" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="36"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
     </row>
     <row r="16" ht="14" customHeight="1" spans="1:5">
-      <c r="A16" s="39" t="s">
+      <c r="A16" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="36"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
     </row>
     <row r="17" ht="14" customHeight="1" spans="1:5">
-      <c r="A17" s="39" t="s">
+      <c r="A17" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="36"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="37"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
     </row>
     <row r="18" ht="14" customHeight="1" spans="1:5">
-      <c r="A18" s="39" t="s">
+      <c r="A18" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="36"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="37"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
     </row>
     <row r="19" ht="14" customHeight="1" spans="1:5">
-      <c r="A19" s="39" t="s">
+      <c r="A19" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="36"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
     </row>
     <row r="20" ht="14" customHeight="1" spans="1:5">
-      <c r="A20" s="39" t="s">
+      <c r="A20" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="37"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
     </row>
     <row r="21" ht="14" customHeight="1" spans="1:5">
-      <c r="A21" s="39" t="s">
+      <c r="A21" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="36"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="37"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
     </row>
     <row r="22" ht="14" customHeight="1" spans="1:5">
-      <c r="A22" s="39" t="s">
+      <c r="A22" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="36"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="37"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
     </row>
     <row r="23" ht="14" customHeight="1" spans="1:5">
-      <c r="A23" s="38" t="s">
+      <c r="A23" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="36"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="37"/>
-      <c r="E23" s="37"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
     </row>
     <row r="26" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A26" s="40" t="s">
+      <c r="A26" s="39" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="27" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A27" s="20" t="s">
+      <c r="A27" s="19" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="28" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A28" s="30" t="s">
+      <c r="A28" s="29" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="29" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A29" s="26" t="s">
+      <c r="A29" s="25" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="30" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A30" s="29" t="s">
+      <c r="A30" s="28" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2286,7 +2052,7 @@
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="A7:A9"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.5"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.5"/>
   <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;P</oddFooter>
@@ -2295,7 +2061,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2309,94 +2075,94 @@
       <selection pane="bottomRight" activeCell="A18" sqref="A18:A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3557692307692" defaultRowHeight="16.8" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.64285714285714" defaultRowHeight="13.1" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="16.3557692307692" style="1"/>
-    <col min="2" max="2" width="99.1153846153846" style="2" customWidth="1"/>
-    <col min="3" max="3" width="14.0961538461538" style="2" customWidth="1"/>
-    <col min="4" max="4" width="16.3557692307692" style="1"/>
-    <col min="5" max="5" width="18.2692307692308" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.7788461538462" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="16.3557692307692" style="1"/>
+    <col min="1" max="1" width="16.3571428571429" style="1"/>
+    <col min="2" max="2" width="99.1160714285714" style="2" customWidth="1"/>
+    <col min="3" max="3" width="14.0982142857143" style="2" customWidth="1"/>
+    <col min="4" max="4" width="16.3571428571429" style="1"/>
+    <col min="5" max="5" width="18.2678571428571" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.7767857142857" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="16.3571428571429" style="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.55" customHeight="1" spans="1:4">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="16" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" ht="13.35" hidden="1" customHeight="1" spans="1:4">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="20" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="3" ht="13.35" hidden="1" customHeight="1" spans="1:4">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="20" t="s">
+      <c r="B3" s="22"/>
+      <c r="C3" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="20" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="4" ht="13.35" hidden="1" customHeight="1" spans="1:4">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="20" t="s">
+      <c r="B4" s="22"/>
+      <c r="C4" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="20" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="5" ht="13.35" hidden="1" customHeight="1" spans="1:4">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="20" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="6" ht="13" hidden="1" customHeight="1" spans="1:5">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="21" t="s">
         <v>35</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="23" t="s">
         <v>37</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -2404,212 +2170,212 @@
       </c>
     </row>
     <row r="7" ht="13" hidden="1" customHeight="1" spans="1:6">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="24" t="s">
         <v>39</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="23" t="s">
         <v>37</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
     <row r="8" ht="13" hidden="1" customHeight="1" spans="1:4">
-      <c r="A8" s="25"/>
+      <c r="A8" s="24"/>
       <c r="B8" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="23" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="9" ht="13" hidden="1" customHeight="1" spans="1:4">
-      <c r="A9" s="25"/>
+      <c r="A9" s="24"/>
       <c r="B9" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="D9" s="23" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="10" ht="13" hidden="1" customHeight="1" spans="1:4">
-      <c r="A10" s="25"/>
+      <c r="A10" s="24"/>
       <c r="B10" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="24" t="s">
+      <c r="D10" s="23" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="11" ht="13" hidden="1" customHeight="1" spans="1:4">
-      <c r="A11" s="25"/>
-      <c r="B11" s="27" t="s">
+      <c r="A11" s="24"/>
+      <c r="B11" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="24" t="s">
+      <c r="D11" s="23" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="12" ht="13" hidden="1" customHeight="1" spans="1:4">
-      <c r="A12" s="25"/>
+      <c r="A12" s="24"/>
       <c r="B12" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="26" t="s">
+      <c r="C12" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="24" t="s">
+      <c r="D12" s="23" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="13" ht="13" customHeight="1" spans="1:4">
-      <c r="A13" s="25"/>
+      <c r="A13" s="24"/>
       <c r="B13" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="C13" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="28" t="s">
+      <c r="D13" s="27" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="14" ht="13" customHeight="1" spans="1:4">
-      <c r="A14" s="25"/>
+      <c r="A14" s="24"/>
       <c r="B14" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="28" t="s">
+      <c r="D14" s="27" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="15" ht="13" customHeight="1" spans="1:4">
-      <c r="A15" s="25"/>
+      <c r="A15" s="24"/>
       <c r="B15" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="28" t="s">
+      <c r="D15" s="27" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="16" ht="13" customHeight="1" spans="1:4">
-      <c r="A16" s="25"/>
+      <c r="A16" s="24"/>
       <c r="B16" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="28" t="s">
+      <c r="D16" s="27" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="17" ht="13" customHeight="1" spans="1:4">
-      <c r="A17" s="25"/>
+      <c r="A17" s="24"/>
       <c r="B17" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="26" t="s">
+      <c r="C17" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="28" t="s">
+      <c r="D17" s="27" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="18" ht="13" customHeight="1" spans="1:4">
-      <c r="A18" s="25" t="s">
+      <c r="A18" s="24" t="s">
         <v>52</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C18" s="29" t="s">
+      <c r="C18" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="28" t="s">
+      <c r="D18" s="27" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="19" ht="13" customHeight="1" spans="1:4">
-      <c r="A19" s="25"/>
+      <c r="A19" s="24"/>
       <c r="B19" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="29" t="s">
+      <c r="C19" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="28" t="s">
+      <c r="D19" s="27" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="20" ht="13" customHeight="1" spans="1:4">
-      <c r="A20" s="25"/>
+      <c r="A20" s="24"/>
       <c r="B20" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C20" s="29" t="s">
+      <c r="C20" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="28" t="s">
+      <c r="D20" s="27" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="21" ht="13" customHeight="1" spans="1:4">
-      <c r="A21" s="25"/>
+      <c r="A21" s="24"/>
       <c r="B21" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="C21" s="29" t="s">
+      <c r="C21" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="28" t="s">
+      <c r="D21" s="27" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="22" ht="13" customHeight="1" spans="1:4">
-      <c r="A22" s="25"/>
+      <c r="A22" s="24"/>
       <c r="B22" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="C22" s="29" t="s">
+      <c r="C22" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="28" t="s">
+      <c r="D22" s="27" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="23" ht="13" customHeight="1" spans="1:4">
-      <c r="A23" s="25"/>
+      <c r="A23" s="24"/>
       <c r="B23" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="C23" s="29" t="s">
+      <c r="C23" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="D23" s="28" t="s">
+      <c r="D23" s="27" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2620,10 +2386,10 @@
       <c r="B24" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="C24" s="30" t="s">
+      <c r="C24" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="D24" s="31" t="s">
+      <c r="D24" s="30" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2632,24 +2398,24 @@
       <c r="B25" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="C25" s="30" t="s">
+      <c r="C25" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="D25" s="31" t="s">
+      <c r="D25" s="30" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="26" ht="13" hidden="1" customHeight="1" spans="1:4">
-      <c r="A26" s="32" t="s">
+      <c r="A26" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="B26" s="33" t="s">
+      <c r="B26" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="C26" s="26" t="s">
+      <c r="C26" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="D26" s="24" t="s">
+      <c r="D26" s="23" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2660,10 +2426,10 @@
       <c r="B27" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C27" s="20" t="s">
+      <c r="C27" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D27" s="34" t="s">
+      <c r="D27" s="33" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2674,10 +2440,10 @@
       <c r="B28" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C28" s="26" t="s">
+      <c r="C28" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="D28" s="34" t="s">
+      <c r="D28" s="33" t="s">
         <v>47</v>
       </c>
       <c r="E28" s="1" t="s">
@@ -2691,10 +2457,10 @@
       <c r="B29" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C29" s="20" t="s">
+      <c r="C29" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D29" s="34" t="s">
+      <c r="D29" s="33" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2705,10 +2471,10 @@
       <c r="B30" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="C30" s="26" t="s">
+      <c r="C30" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="D30" s="34" t="s">
+      <c r="D30" s="33" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2719,23 +2485,22 @@
       <c r="B31" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="C31" s="20" t="s">
+      <c r="C31" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D31" s="21" t="s">
+      <c r="D31" s="20" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="32" ht="13" hidden="1" customHeight="1"/>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:D32" etc:filterBottomFollowUsedRange="0">
+  <autoFilter ref="A1:D32">
     <filterColumn colId="2">
       <customFilters>
         <customFilter operator="equal" val="重要紧急"/>
         <customFilter operator="equal" val="重要不紧急"/>
       </customFilters>
     </filterColumn>
-    <extLst/>
   </autoFilter>
   <mergeCells count="3">
     <mergeCell ref="A7:A17"/>
@@ -2747,7 +2512,7 @@
       <formula1>"未进行,进行中,已暂停,已完成"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="1" right="1" top="1" bottom="1" header="0.511811023622047" footer="0.25"/>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.511805555555556" footer="0.25"/>
   <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;P</oddFooter>
@@ -2756,7 +2521,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2768,16 +2533,16 @@
       <selection pane="topRight" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3557692307692" defaultRowHeight="16.8" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.64285714285714" defaultRowHeight="13.1" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="16.3557692307692" style="1"/>
-    <col min="2" max="2" width="58.6826923076923" style="2" customWidth="1"/>
-    <col min="3" max="4" width="16.3557692307692" style="1"/>
-    <col min="5" max="5" width="19.8365384615385" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.4230769230769" style="1" customWidth="1"/>
-    <col min="7" max="7" width="19.1442307692308" style="1" customWidth="1"/>
-    <col min="8" max="16381" width="16.3557692307692" style="1"/>
-    <col min="16382" max="16384" width="9.64423076923077" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.3571428571429" style="1"/>
+    <col min="2" max="2" width="58.6785714285714" style="2" customWidth="1"/>
+    <col min="3" max="4" width="16.3571428571429" style="1"/>
+    <col min="5" max="5" width="19.8392857142857" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.4196428571429" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.1428571428571" style="1" customWidth="1"/>
+    <col min="8" max="16381" width="16.3571428571429" style="1"/>
+    <col min="16382" max="16384" width="9.64285714285714" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13" customHeight="1" spans="1:4">
@@ -2823,7 +2588,7 @@
       <c r="B5" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D5" s="11"/>
@@ -2833,7 +2598,7 @@
       <c r="B6" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D6" s="9"/>
@@ -2847,7 +2612,7 @@
       <c r="B7" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D7" s="11"/>
@@ -2857,7 +2622,7 @@
       <c r="B8" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D8" s="11"/>
@@ -2869,7 +2634,7 @@
       <c r="B9" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D9" s="11"/>
@@ -2881,7 +2646,7 @@
       <c r="B10" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D10" s="11"/>
@@ -2893,7 +2658,7 @@
       <c r="B11" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D11" s="11"/>
@@ -2907,7 +2672,7 @@
       <c r="B12" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D12" s="11"/>
@@ -2917,7 +2682,7 @@
       <c r="B13" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D13" s="11"/>
@@ -2927,7 +2692,7 @@
       <c r="B14" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D14" s="11"/>
@@ -2947,7 +2712,7 @@
       <formula1>"未进行,进行中,已暂停,已完成"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="1" right="1" top="1" bottom="1" header="0.511811023622047" footer="0.25"/>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.511805555555556" footer="0.25"/>
   <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;P</oddFooter>
@@ -2956,7 +2721,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2965,19 +2730,19 @@
     <sheetView showGridLines="0" zoomScale="139" zoomScaleNormal="139" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="B17" sqref="B17"/>
+      <selection pane="topRight" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3557692307692" defaultRowHeight="16.8" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.64285714285714" defaultRowHeight="13.1" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="16.3557692307692" style="1"/>
-    <col min="2" max="2" width="58.6826923076923" style="2" customWidth="1"/>
-    <col min="3" max="4" width="16.3557692307692" style="1"/>
-    <col min="5" max="5" width="19.8365384615385" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.4230769230769" style="1" customWidth="1"/>
-    <col min="7" max="7" width="19.1442307692308" style="1" customWidth="1"/>
-    <col min="8" max="16381" width="16.3557692307692" style="1"/>
-    <col min="16382" max="16384" width="9.64423076923077" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.3571428571429" style="1"/>
+    <col min="2" max="2" width="58.6785714285714" style="2" customWidth="1"/>
+    <col min="3" max="4" width="16.3571428571429" style="1"/>
+    <col min="5" max="5" width="19.8392857142857" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.4196428571429" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.1428571428571" style="1" customWidth="1"/>
+    <col min="8" max="16381" width="16.3571428571429" style="1"/>
+    <col min="16382" max="16384" width="9.64285714285714" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13" customHeight="1" spans="1:4">
@@ -3021,7 +2786,7 @@
       <c r="B5" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D5" s="11"/>
@@ -3031,7 +2796,7 @@
       <c r="B6" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D6" s="11"/>
@@ -3041,7 +2806,7 @@
       <c r="B7" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D7" s="11"/>
@@ -3053,17 +2818,17 @@
       <c r="B8" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D8" s="11"/>
     </row>
     <row r="9" ht="13.35" customHeight="1" spans="1:6">
-      <c r="A9" s="12"/>
+      <c r="A9" s="13"/>
       <c r="B9" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D9" s="11"/>
@@ -3077,7 +2842,7 @@
       <c r="B10" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D10" s="11"/>
@@ -3085,11 +2850,11 @@
       <c r="F10" s="2"/>
     </row>
     <row r="11" ht="13.35" customHeight="1" spans="1:6">
-      <c r="A11" s="12"/>
+      <c r="A11" s="13"/>
       <c r="B11" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D11" s="11"/>
@@ -3103,7 +2868,7 @@
       <c r="B12" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D12" s="11"/>
@@ -3113,7 +2878,7 @@
       <c r="B13" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D13" s="11"/>
@@ -3134,7 +2899,7 @@
       <formula1>"未进行,进行中,已暂停,已完成"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="1" right="1" top="1" bottom="1" header="0.511811023622047" footer="0.25"/>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.511805555555556" footer="0.25"/>
   <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;P</oddFooter>
@@ -3143,7 +2908,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -3152,19 +2917,19 @@
     <sheetView showGridLines="0" tabSelected="1" zoomScale="139" zoomScaleNormal="139" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="B16" sqref="B16"/>
+      <selection pane="topRight" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3557692307692" defaultRowHeight="16.8" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.64285714285714" defaultRowHeight="13.1" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="16.3557692307692" style="1"/>
-    <col min="2" max="2" width="58.6826923076923" style="2" customWidth="1"/>
-    <col min="3" max="4" width="16.3557692307692" style="1"/>
-    <col min="5" max="5" width="19.8365384615385" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.4230769230769" style="1" customWidth="1"/>
-    <col min="7" max="7" width="19.1442307692308" style="1" customWidth="1"/>
-    <col min="8" max="16381" width="16.3557692307692" style="1"/>
-    <col min="16382" max="16384" width="9.64423076923077" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.3571428571429" style="1"/>
+    <col min="2" max="2" width="58.6785714285714" style="2" customWidth="1"/>
+    <col min="3" max="4" width="16.3571428571429" style="1"/>
+    <col min="5" max="5" width="19.8392857142857" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.4196428571429" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.1428571428571" style="1" customWidth="1"/>
+    <col min="8" max="16381" width="16.3571428571429" style="1"/>
+    <col min="16382" max="16384" width="9.64285714285714" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13" customHeight="1" spans="1:4">
@@ -3228,8 +2993,8 @@
       <c r="B7" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>30</v>
+      <c r="C7" s="12" t="s">
+        <v>37</v>
       </c>
       <c r="D7" s="11"/>
     </row>
@@ -3298,7 +3063,7 @@
       <c r="D13" s="11"/>
     </row>
     <row r="14" ht="13.35" customHeight="1" spans="1:6">
-      <c r="A14" s="12"/>
+      <c r="A14" s="13"/>
       <c r="B14" s="9" t="s">
         <v>106</v>
       </c>
@@ -3310,7 +3075,7 @@
       <c r="F14" s="2"/>
     </row>
     <row r="15" ht="13.35" customHeight="1" spans="1:6">
-      <c r="A15" s="12"/>
+      <c r="A15" s="13"/>
       <c r="B15" s="9" t="s">
         <v>107</v>
       </c>
@@ -3322,7 +3087,7 @@
       <c r="F15" s="2"/>
     </row>
     <row r="16" ht="13.35" customHeight="1" spans="1:6">
-      <c r="A16" s="12"/>
+      <c r="A16" s="13"/>
       <c r="B16" s="9" t="s">
         <v>108</v>
       </c>
@@ -3334,7 +3099,7 @@
       <c r="F16" s="2"/>
     </row>
     <row r="17" ht="13.35" customHeight="1" spans="1:6">
-      <c r="A17" s="12"/>
+      <c r="A17" s="13"/>
       <c r="B17" s="9" t="s">
         <v>109</v>
       </c>
@@ -3346,7 +3111,7 @@
       <c r="F17" s="2"/>
     </row>
     <row r="18" ht="13.35" customHeight="1" spans="1:6">
-      <c r="A18" s="12"/>
+      <c r="A18" s="13"/>
       <c r="B18" s="9" t="s">
         <v>110</v>
       </c>
@@ -3358,7 +3123,7 @@
       <c r="F18" s="2"/>
     </row>
     <row r="19" ht="13.35" customHeight="1" spans="1:6">
-      <c r="A19" s="12"/>
+      <c r="A19" s="13"/>
       <c r="B19" s="9" t="s">
         <v>111</v>
       </c>
@@ -3370,7 +3135,7 @@
       <c r="F19" s="2"/>
     </row>
     <row r="20" ht="13.35" customHeight="1" spans="1:6">
-      <c r="A20" s="12"/>
+      <c r="A20" s="13"/>
       <c r="B20" s="9" t="s">
         <v>113</v>
       </c>
@@ -3456,7 +3221,7 @@
       <c r="F26" s="2"/>
     </row>
     <row r="27" ht="13.35" customHeight="1" spans="1:6">
-      <c r="A27" s="12"/>
+      <c r="A27" s="13"/>
       <c r="B27" s="9" t="s">
         <v>111</v>
       </c>
@@ -3468,7 +3233,7 @@
       <c r="F27" s="2"/>
     </row>
     <row r="28" ht="13.35" customHeight="1" spans="1:4">
-      <c r="A28" s="12"/>
+      <c r="A28" s="13"/>
       <c r="B28" s="9" t="s">
         <v>114</v>
       </c>
@@ -3570,12 +3335,15 @@
     <mergeCell ref="A21:A28"/>
     <mergeCell ref="A29:A36"/>
   </mergeCells>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C36 C6:C35">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7">
+      <formula1>"未进行,进行中,已暂停,已完成"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C36 C8:C35">
       <formula1>"未进行,进行中,已暂停,已完成"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="1" right="1" top="1" bottom="1" header="0.511811023622047" footer="0.25"/>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.511805555555556" footer="0.25"/>
   <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;P</oddFooter>

--- a/file/personal/roleImportant/角色要事记录表_2025.xlsx
+++ b/file/personal/roleImportant/角色要事记录表_2025.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23320" windowHeight="13160" tabRatio="500" activeTab="4"/>
+    <workbookView windowWidth="23320" windowHeight="13160" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="角色目录" sheetId="1" r:id="rId1"/>
@@ -12,16 +12,30 @@
     <sheet name="七月" sheetId="3" r:id="rId3"/>
     <sheet name="八月" sheetId="4" r:id="rId4"/>
     <sheet name="九月" sheetId="5" r:id="rId5"/>
+    <sheet name="十月" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">待办任务!$A$1:$D$32</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="129">
   <si>
     <t>角色</t>
   </si>
@@ -410,16 +424,58 @@
   <si>
     <t>常识25%</t>
   </si>
+  <si>
+    <t>ai考试知识点整理</t>
+  </si>
+  <si>
+    <t>ai考试知识点看一遍</t>
+  </si>
+  <si>
+    <t>数量题25+言语理解词语100</t>
+  </si>
+  <si>
+    <t>ai考试知识点看三遍</t>
+  </si>
+  <si>
+    <t>网盘资料消化吸收</t>
+  </si>
+  <si>
+    <t>选择部分技术题目做一下</t>
+  </si>
+  <si>
+    <t>常识题100+言语理解题100+推理判断题100</t>
+  </si>
+  <si>
+    <t>言语理解知识1+推理知识1+数量知识1</t>
+  </si>
+  <si>
+    <t>练字4</t>
+  </si>
+  <si>
+    <t>完成一套行测试卷</t>
+  </si>
+  <si>
+    <t>数量题50+言语理解词语100</t>
+  </si>
+  <si>
+    <t>常识题100+言语理解题50+推理判断题50</t>
+  </si>
+  <si>
+    <t>ai考试知识点看二遍</t>
+  </si>
+  <si>
+    <t>综应知识重新整理</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -448,18 +504,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -470,20 +517,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -511,21 +547,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -543,6 +564,29 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
@@ -551,10 +595,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -567,7 +611,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -582,29 +626,41 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="44">
+  <fills count="47">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -625,30 +681,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF77BC65"/>
+        <bgColor rgb="FF92D050"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.15"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FFD9D9D9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBDC0BF"/>
+        <bgColor rgb="FFAAAAAA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FFD8D8D8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFDCDCDC"/>
         <bgColor rgb="FFD9D9D9"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF77BC65"/>
-        <bgColor rgb="FF92D050"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFBDC0BF"/>
-        <bgColor rgb="FFAAAAAA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD9D9D9"/>
-        <bgColor rgb="FFD8D8D8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
         <bgColor rgb="FF77BC65"/>
       </patternFill>
@@ -679,168 +753,180 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -848,18 +934,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -939,6 +1013,19 @@
       </left>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -1028,19 +1115,6 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -1085,15 +1159,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1113,7 +1178,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1122,7 +1187,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1159,6 +1224,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1172,142 +1246,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1344,70 +1418,79 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1431,54 +1514,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
     <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
     <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <colors>
@@ -1549,6 +1632,11 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1804,12 +1892,11 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E30"/>
   <sheetViews>
@@ -1817,233 +1904,233 @@
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.64285714285714" defaultRowHeight="13.1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.64423076923077" defaultRowHeight="16.8" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="14.4107142857143" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.4134615384615" style="1" customWidth="1"/>
     <col min="2" max="16384" width="6" style="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
     </row>
     <row r="2" ht="14" customHeight="1" spans="1:5">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
     </row>
     <row r="3" ht="14" customHeight="1" spans="1:5">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="35"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
     </row>
     <row r="4" ht="14" customHeight="1" spans="1:5">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="35"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
     </row>
     <row r="5" ht="14" customHeight="1" spans="1:5">
-      <c r="A5" s="38"/>
-      <c r="B5" s="35"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
+      <c r="A5" s="41"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
     </row>
     <row r="6" ht="14" customHeight="1" spans="1:5">
-      <c r="A6" s="38"/>
-      <c r="B6" s="35"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
+      <c r="A6" s="41"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
     </row>
     <row r="7" ht="14" customHeight="1" spans="1:5">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="35"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
     </row>
     <row r="8" ht="14" customHeight="1" spans="1:5">
-      <c r="A8" s="38"/>
-      <c r="B8" s="35"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
+      <c r="A8" s="41"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
     </row>
     <row r="9" ht="14" customHeight="1" spans="1:5">
-      <c r="A9" s="38"/>
-      <c r="B9" s="35"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
+      <c r="A9" s="41"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
     </row>
     <row r="10" ht="14" customHeight="1" spans="1:5">
-      <c r="A10" s="38" t="s">
+      <c r="A10" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="35"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
     </row>
     <row r="11" ht="14" customHeight="1" spans="1:5">
-      <c r="A11" s="38" t="s">
+      <c r="A11" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="35"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
     </row>
     <row r="12" ht="14" customHeight="1" spans="1:5">
-      <c r="A12" s="38" t="s">
+      <c r="A12" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="35"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
     </row>
     <row r="13" ht="14" customHeight="1" spans="1:5">
-      <c r="A13" s="38" t="s">
+      <c r="A13" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="35"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
     </row>
     <row r="14" ht="14" customHeight="1" spans="1:5">
-      <c r="A14" s="38" t="s">
+      <c r="A14" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="35"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
     </row>
     <row r="15" ht="14" customHeight="1" spans="1:5">
-      <c r="A15" s="38" t="s">
+      <c r="A15" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="35"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
     </row>
     <row r="16" ht="14" customHeight="1" spans="1:5">
-      <c r="A16" s="38" t="s">
+      <c r="A16" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="35"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
     </row>
     <row r="17" ht="14" customHeight="1" spans="1:5">
-      <c r="A17" s="38" t="s">
+      <c r="A17" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="35"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
     </row>
     <row r="18" ht="14" customHeight="1" spans="1:5">
-      <c r="A18" s="38" t="s">
+      <c r="A18" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="35"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
     </row>
     <row r="19" ht="14" customHeight="1" spans="1:5">
-      <c r="A19" s="38" t="s">
+      <c r="A19" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="35"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
     </row>
     <row r="20" ht="14" customHeight="1" spans="1:5">
-      <c r="A20" s="38" t="s">
+      <c r="A20" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="35"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
     </row>
     <row r="21" ht="14" customHeight="1" spans="1:5">
-      <c r="A21" s="38" t="s">
+      <c r="A21" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="35"/>
-      <c r="C21" s="36"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="36"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="39"/>
     </row>
     <row r="22" ht="14" customHeight="1" spans="1:5">
-      <c r="A22" s="38" t="s">
+      <c r="A22" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="35"/>
-      <c r="C22" s="36"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="36"/>
+      <c r="B22" s="38"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
     </row>
     <row r="23" ht="14" customHeight="1" spans="1:5">
-      <c r="A23" s="37" t="s">
+      <c r="A23" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="35"/>
-      <c r="C23" s="36"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="36"/>
+      <c r="B23" s="38"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="39"/>
     </row>
     <row r="26" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A26" s="39" t="s">
+      <c r="A26" s="42" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="27" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A27" s="19" t="s">
+      <c r="A27" s="23" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="28" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A28" s="29" t="s">
+      <c r="A28" s="33" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="29" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A29" s="25" t="s">
+      <c r="A29" s="29" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="30" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A30" s="28" t="s">
+      <c r="A30" s="32" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2061,7 +2148,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2075,94 +2162,94 @@
       <selection pane="bottomRight" activeCell="A18" sqref="A18:A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.64285714285714" defaultRowHeight="13.1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.64423076923077" defaultRowHeight="16.8" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="16.3571428571429" style="1"/>
-    <col min="2" max="2" width="99.1160714285714" style="2" customWidth="1"/>
-    <col min="3" max="3" width="14.0982142857143" style="2" customWidth="1"/>
-    <col min="4" max="4" width="16.3571428571429" style="1"/>
-    <col min="5" max="5" width="18.2678571428571" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.7767857142857" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="16.3571428571429" style="1"/>
+    <col min="1" max="1" width="16.3557692307692" style="1"/>
+    <col min="2" max="2" width="99.1153846153846" style="2" customWidth="1"/>
+    <col min="3" max="3" width="14.0961538461538" style="2" customWidth="1"/>
+    <col min="4" max="4" width="16.3557692307692" style="1"/>
+    <col min="5" max="5" width="18.2692307692308" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.7788461538462" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="16.3557692307692" style="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.55" customHeight="1" spans="1:4">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="20" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" ht="13.35" hidden="1" customHeight="1" spans="1:4">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="24" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="3" ht="13.35" hidden="1" customHeight="1" spans="1:4">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="19" t="s">
+      <c r="B3" s="26"/>
+      <c r="C3" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="24" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="4" ht="13.35" hidden="1" customHeight="1" spans="1:4">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="19" t="s">
+      <c r="B4" s="26"/>
+      <c r="C4" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="24" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="5" ht="13.35" hidden="1" customHeight="1" spans="1:4">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="24" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="6" ht="13" hidden="1" customHeight="1" spans="1:5">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="25" t="s">
         <v>35</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="27" t="s">
         <v>37</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -2170,212 +2257,212 @@
       </c>
     </row>
     <row r="7" ht="13" hidden="1" customHeight="1" spans="1:6">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="28" t="s">
         <v>39</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="27" t="s">
         <v>37</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
     <row r="8" ht="13" hidden="1" customHeight="1" spans="1:4">
-      <c r="A8" s="24"/>
+      <c r="A8" s="28"/>
       <c r="B8" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="D8" s="27" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="9" ht="13" hidden="1" customHeight="1" spans="1:4">
-      <c r="A9" s="24"/>
+      <c r="A9" s="28"/>
       <c r="B9" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="23" t="s">
+      <c r="D9" s="27" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="10" ht="13" hidden="1" customHeight="1" spans="1:4">
-      <c r="A10" s="24"/>
+      <c r="A10" s="28"/>
       <c r="B10" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="D10" s="27" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="11" ht="13" hidden="1" customHeight="1" spans="1:4">
-      <c r="A11" s="24"/>
-      <c r="B11" s="26" t="s">
+      <c r="A11" s="28"/>
+      <c r="B11" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="23" t="s">
+      <c r="D11" s="27" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="12" ht="13" hidden="1" customHeight="1" spans="1:4">
-      <c r="A12" s="24"/>
+      <c r="A12" s="28"/>
       <c r="B12" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="25" t="s">
+      <c r="C12" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="23" t="s">
+      <c r="D12" s="27" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="13" ht="13" customHeight="1" spans="1:4">
-      <c r="A13" s="24"/>
+      <c r="A13" s="28"/>
       <c r="B13" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="25" t="s">
+      <c r="C13" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="27" t="s">
+      <c r="D13" s="31" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="14" ht="13" customHeight="1" spans="1:4">
-      <c r="A14" s="24"/>
+      <c r="A14" s="28"/>
       <c r="B14" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="25" t="s">
+      <c r="C14" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="27" t="s">
+      <c r="D14" s="31" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="15" ht="13" customHeight="1" spans="1:4">
-      <c r="A15" s="24"/>
+      <c r="A15" s="28"/>
       <c r="B15" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C15" s="25" t="s">
+      <c r="C15" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="27" t="s">
+      <c r="D15" s="31" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="16" ht="13" customHeight="1" spans="1:4">
-      <c r="A16" s="24"/>
+      <c r="A16" s="28"/>
       <c r="B16" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="25" t="s">
+      <c r="C16" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="27" t="s">
+      <c r="D16" s="31" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="17" ht="13" customHeight="1" spans="1:4">
-      <c r="A17" s="24"/>
+      <c r="A17" s="28"/>
       <c r="B17" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="25" t="s">
+      <c r="C17" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="27" t="s">
+      <c r="D17" s="31" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="18" ht="13" customHeight="1" spans="1:4">
-      <c r="A18" s="24" t="s">
+      <c r="A18" s="28" t="s">
         <v>52</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C18" s="28" t="s">
+      <c r="C18" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="27" t="s">
+      <c r="D18" s="31" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="19" ht="13" customHeight="1" spans="1:4">
-      <c r="A19" s="24"/>
+      <c r="A19" s="28"/>
       <c r="B19" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="28" t="s">
+      <c r="C19" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="27" t="s">
+      <c r="D19" s="31" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="20" ht="13" customHeight="1" spans="1:4">
-      <c r="A20" s="24"/>
+      <c r="A20" s="28"/>
       <c r="B20" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C20" s="28" t="s">
+      <c r="C20" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="27" t="s">
+      <c r="D20" s="31" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="21" ht="13" customHeight="1" spans="1:4">
-      <c r="A21" s="24"/>
+      <c r="A21" s="28"/>
       <c r="B21" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="C21" s="28" t="s">
+      <c r="C21" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="27" t="s">
+      <c r="D21" s="31" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="22" ht="13" customHeight="1" spans="1:4">
-      <c r="A22" s="24"/>
+      <c r="A22" s="28"/>
       <c r="B22" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="C22" s="28" t="s">
+      <c r="C22" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="27" t="s">
+      <c r="D22" s="31" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="23" ht="13" customHeight="1" spans="1:4">
-      <c r="A23" s="24"/>
+      <c r="A23" s="28"/>
       <c r="B23" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="C23" s="28" t="s">
+      <c r="C23" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="D23" s="27" t="s">
+      <c r="D23" s="31" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2386,10 +2473,10 @@
       <c r="B24" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="C24" s="29" t="s">
+      <c r="C24" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="D24" s="30" t="s">
+      <c r="D24" s="34" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2398,24 +2485,24 @@
       <c r="B25" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="C25" s="29" t="s">
+      <c r="C25" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="D25" s="30" t="s">
+      <c r="D25" s="34" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="26" ht="13" hidden="1" customHeight="1" spans="1:4">
-      <c r="A26" s="31" t="s">
+      <c r="A26" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="B26" s="32" t="s">
+      <c r="B26" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="C26" s="25" t="s">
+      <c r="C26" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="D26" s="23" t="s">
+      <c r="D26" s="27" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2426,10 +2513,10 @@
       <c r="B27" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C27" s="19" t="s">
+      <c r="C27" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="D27" s="33" t="s">
+      <c r="D27" s="36" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2440,10 +2527,10 @@
       <c r="B28" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C28" s="25" t="s">
+      <c r="C28" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="D28" s="33" t="s">
+      <c r="D28" s="36" t="s">
         <v>47</v>
       </c>
       <c r="E28" s="1" t="s">
@@ -2457,10 +2544,10 @@
       <c r="B29" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C29" s="19" t="s">
+      <c r="C29" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="D29" s="33" t="s">
+      <c r="D29" s="36" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2471,10 +2558,10 @@
       <c r="B30" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="C30" s="25" t="s">
+      <c r="C30" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="D30" s="33" t="s">
+      <c r="D30" s="36" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2485,22 +2572,23 @@
       <c r="B31" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="C31" s="19" t="s">
+      <c r="C31" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="D31" s="20" t="s">
+      <c r="D31" s="24" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="32" ht="13" hidden="1" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="A1:D32">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:D32" etc:filterBottomFollowUsedRange="0">
     <filterColumn colId="2">
       <customFilters>
         <customFilter operator="equal" val="重要紧急"/>
         <customFilter operator="equal" val="重要不紧急"/>
       </customFilters>
     </filterColumn>
+    <extLst/>
   </autoFilter>
   <mergeCells count="3">
     <mergeCell ref="A7:A17"/>
@@ -2521,7 +2609,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2533,16 +2621,16 @@
       <selection pane="topRight" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.64285714285714" defaultRowHeight="13.1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.64423076923077" defaultRowHeight="16.8" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="16.3571428571429" style="1"/>
-    <col min="2" max="2" width="58.6785714285714" style="2" customWidth="1"/>
-    <col min="3" max="4" width="16.3571428571429" style="1"/>
-    <col min="5" max="5" width="19.8392857142857" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.4196428571429" style="1" customWidth="1"/>
-    <col min="7" max="7" width="19.1428571428571" style="1" customWidth="1"/>
-    <col min="8" max="16381" width="16.3571428571429" style="1"/>
-    <col min="16382" max="16384" width="9.64285714285714" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.3557692307692" style="1"/>
+    <col min="2" max="2" width="58.6826923076923" style="2" customWidth="1"/>
+    <col min="3" max="4" width="16.3557692307692" style="1"/>
+    <col min="5" max="5" width="19.8365384615385" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.4230769230769" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.1442307692308" style="1" customWidth="1"/>
+    <col min="8" max="16381" width="16.3557692307692" style="1"/>
+    <col min="16382" max="16384" width="9.64423076923077" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13" customHeight="1" spans="1:4">
@@ -2588,7 +2676,7 @@
       <c r="B5" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="10" t="s">
         <v>37</v>
       </c>
       <c r="D5" s="11"/>
@@ -2598,7 +2686,7 @@
       <c r="B6" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="10" t="s">
         <v>37</v>
       </c>
       <c r="D6" s="9"/>
@@ -2612,7 +2700,7 @@
       <c r="B7" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="10" t="s">
         <v>37</v>
       </c>
       <c r="D7" s="11"/>
@@ -2622,7 +2710,7 @@
       <c r="B8" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="10" t="s">
         <v>37</v>
       </c>
       <c r="D8" s="11"/>
@@ -2634,7 +2722,7 @@
       <c r="B9" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="10" t="s">
         <v>37</v>
       </c>
       <c r="D9" s="11"/>
@@ -2646,7 +2734,7 @@
       <c r="B10" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="10" t="s">
         <v>37</v>
       </c>
       <c r="D10" s="11"/>
@@ -2658,7 +2746,7 @@
       <c r="B11" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="10" t="s">
         <v>37</v>
       </c>
       <c r="D11" s="11"/>
@@ -2672,7 +2760,7 @@
       <c r="B12" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="10" t="s">
         <v>37</v>
       </c>
       <c r="D12" s="11"/>
@@ -2682,7 +2770,7 @@
       <c r="B13" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="10" t="s">
         <v>37</v>
       </c>
       <c r="D13" s="11"/>
@@ -2692,7 +2780,7 @@
       <c r="B14" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="10" t="s">
         <v>37</v>
       </c>
       <c r="D14" s="11"/>
@@ -2721,7 +2809,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2733,16 +2821,16 @@
       <selection pane="topRight" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.64285714285714" defaultRowHeight="13.1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.64423076923077" defaultRowHeight="16.8" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="16.3571428571429" style="1"/>
-    <col min="2" max="2" width="58.6785714285714" style="2" customWidth="1"/>
-    <col min="3" max="4" width="16.3571428571429" style="1"/>
-    <col min="5" max="5" width="19.8392857142857" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.4196428571429" style="1" customWidth="1"/>
-    <col min="7" max="7" width="19.1428571428571" style="1" customWidth="1"/>
-    <col min="8" max="16381" width="16.3571428571429" style="1"/>
-    <col min="16382" max="16384" width="9.64285714285714" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.3557692307692" style="1"/>
+    <col min="2" max="2" width="58.6826923076923" style="2" customWidth="1"/>
+    <col min="3" max="4" width="16.3557692307692" style="1"/>
+    <col min="5" max="5" width="19.8365384615385" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.4230769230769" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.1442307692308" style="1" customWidth="1"/>
+    <col min="8" max="16381" width="16.3557692307692" style="1"/>
+    <col min="16382" max="16384" width="9.64423076923077" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13" customHeight="1" spans="1:4">
@@ -2786,7 +2874,7 @@
       <c r="B5" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="10" t="s">
         <v>37</v>
       </c>
       <c r="D5" s="11"/>
@@ -2796,7 +2884,7 @@
       <c r="B6" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="10" t="s">
         <v>37</v>
       </c>
       <c r="D6" s="11"/>
@@ -2806,7 +2894,7 @@
       <c r="B7" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="10" t="s">
         <v>37</v>
       </c>
       <c r="D7" s="11"/>
@@ -2818,17 +2906,17 @@
       <c r="B8" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="10" t="s">
         <v>37</v>
       </c>
       <c r="D8" s="11"/>
     </row>
     <row r="9" ht="13.35" customHeight="1" spans="1:6">
-      <c r="A9" s="13"/>
+      <c r="A9" s="12"/>
       <c r="B9" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="10" t="s">
         <v>37</v>
       </c>
       <c r="D9" s="11"/>
@@ -2842,7 +2930,7 @@
       <c r="B10" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="10" t="s">
         <v>37</v>
       </c>
       <c r="D10" s="11"/>
@@ -2850,11 +2938,11 @@
       <c r="F10" s="2"/>
     </row>
     <row r="11" ht="13.35" customHeight="1" spans="1:6">
-      <c r="A11" s="13"/>
+      <c r="A11" s="12"/>
       <c r="B11" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="10" t="s">
         <v>37</v>
       </c>
       <c r="D11" s="11"/>
@@ -2868,7 +2956,7 @@
       <c r="B12" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="10" t="s">
         <v>37</v>
       </c>
       <c r="D12" s="11"/>
@@ -2878,7 +2966,7 @@
       <c r="B13" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="10" t="s">
         <v>37</v>
       </c>
       <c r="D13" s="11"/>
@@ -2895,7 +2983,7 @@
     <mergeCell ref="A12:A13"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C9 C10 C11 C12 C13 C5:C8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C13">
       <formula1>"未进行,进行中,已暂停,已完成"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2908,28 +2996,28 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="139" zoomScaleNormal="139" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="139" zoomScaleNormal="139" topLeftCell="A16" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="C7" sqref="C7"/>
+      <selection pane="topRight" activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.64285714285714" defaultRowHeight="13.1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.64423076923077" defaultRowHeight="16.8" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="16.3571428571429" style="1"/>
-    <col min="2" max="2" width="58.6785714285714" style="2" customWidth="1"/>
-    <col min="3" max="4" width="16.3571428571429" style="1"/>
-    <col min="5" max="5" width="19.8392857142857" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.4196428571429" style="1" customWidth="1"/>
-    <col min="7" max="7" width="19.1428571428571" style="1" customWidth="1"/>
-    <col min="8" max="16381" width="16.3571428571429" style="1"/>
-    <col min="16382" max="16384" width="9.64285714285714" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.3557692307692" style="1"/>
+    <col min="2" max="2" width="58.6826923076923" style="2" customWidth="1"/>
+    <col min="3" max="4" width="16.3557692307692" style="1"/>
+    <col min="5" max="5" width="19.8365384615385" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.4230769230769" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.1442307692308" style="1" customWidth="1"/>
+    <col min="8" max="16381" width="16.3557692307692" style="1"/>
+    <col min="16382" max="16384" width="9.64423076923077" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13" customHeight="1" spans="1:4">
@@ -2974,7 +3062,7 @@
         <v>105</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D5" s="11"/>
     </row>
@@ -2984,7 +3072,7 @@
         <v>106</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D6" s="11"/>
     </row>
@@ -2993,7 +3081,7 @@
       <c r="B7" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="10" t="s">
         <v>37</v>
       </c>
       <c r="D7" s="11"/>
@@ -3004,7 +3092,7 @@
         <v>108</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D8" s="11"/>
     </row>
@@ -3013,7 +3101,7 @@
       <c r="B9" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="17" t="s">
         <v>30</v>
       </c>
       <c r="D9" s="11"/>
@@ -3023,7 +3111,7 @@
       <c r="B10" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="17" t="s">
         <v>30</v>
       </c>
       <c r="D10" s="11"/>
@@ -3033,7 +3121,7 @@
       <c r="B11" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="17" t="s">
         <v>30</v>
       </c>
       <c r="D11" s="11"/>
@@ -3044,7 +3132,7 @@
         <v>112</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="2"/>
@@ -3057,90 +3145,90 @@
       <c r="B13" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="17" t="s">
         <v>30</v>
       </c>
       <c r="D13" s="11"/>
     </row>
     <row r="14" ht="13.35" customHeight="1" spans="1:6">
-      <c r="A14" s="13"/>
+      <c r="A14" s="12"/>
       <c r="B14" s="9" t="s">
         <v>106</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D14" s="11"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
     <row r="15" ht="13.35" customHeight="1" spans="1:6">
-      <c r="A15" s="13"/>
+      <c r="A15" s="12"/>
       <c r="B15" s="9" t="s">
         <v>107</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
     <row r="16" ht="13.35" customHeight="1" spans="1:6">
-      <c r="A16" s="13"/>
+      <c r="A16" s="12"/>
       <c r="B16" s="9" t="s">
         <v>108</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D16" s="11"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
     <row r="17" ht="13.35" customHeight="1" spans="1:6">
-      <c r="A17" s="13"/>
+      <c r="A17" s="12"/>
       <c r="B17" s="9" t="s">
         <v>109</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
     <row r="18" ht="13.35" customHeight="1" spans="1:6">
-      <c r="A18" s="13"/>
+      <c r="A18" s="12"/>
       <c r="B18" s="9" t="s">
         <v>110</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D18" s="11"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
     <row r="19" ht="13.35" customHeight="1" spans="1:6">
-      <c r="A19" s="13"/>
+      <c r="A19" s="12"/>
       <c r="B19" s="9" t="s">
         <v>111</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
     <row r="20" ht="13.35" customHeight="1" spans="1:6">
-      <c r="A20" s="13"/>
+      <c r="A20" s="12"/>
       <c r="B20" s="9" t="s">
         <v>113</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D20" s="11"/>
       <c r="E20" s="2"/>
@@ -3154,54 +3242,54 @@
         <v>105</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D21" s="11"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
     </row>
     <row r="22" ht="13.35" customHeight="1" spans="1:6">
-      <c r="A22" s="13"/>
+      <c r="A22" s="12"/>
       <c r="B22" s="9" t="s">
         <v>106</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D22" s="11"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
     </row>
     <row r="23" ht="13.35" customHeight="1" spans="1:6">
-      <c r="A23" s="13"/>
+      <c r="A23" s="12"/>
       <c r="B23" s="9" t="s">
         <v>107</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D23" s="11"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
     </row>
     <row r="24" ht="13.35" customHeight="1" spans="1:6">
-      <c r="A24" s="13"/>
+      <c r="A24" s="12"/>
       <c r="B24" s="9" t="s">
         <v>108</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D24" s="11"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
     </row>
     <row r="25" ht="13.35" customHeight="1" spans="1:6">
-      <c r="A25" s="13"/>
+      <c r="A25" s="12"/>
       <c r="B25" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="17" t="s">
         <v>30</v>
       </c>
       <c r="D25" s="11"/>
@@ -3209,35 +3297,35 @@
       <c r="F25" s="2"/>
     </row>
     <row r="26" ht="13.35" customHeight="1" spans="1:6">
-      <c r="A26" s="13"/>
+      <c r="A26" s="12"/>
       <c r="B26" s="9" t="s">
         <v>110</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D26" s="11"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
     </row>
     <row r="27" ht="13.35" customHeight="1" spans="1:6">
-      <c r="A27" s="13"/>
+      <c r="A27" s="12"/>
       <c r="B27" s="9" t="s">
         <v>111</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D27" s="11"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
     </row>
     <row r="28" ht="13.35" customHeight="1" spans="1:4">
-      <c r="A28" s="13"/>
+      <c r="A28" s="12"/>
       <c r="B28" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C28" s="17" t="s">
         <v>30</v>
       </c>
       <c r="D28" s="11"/>
@@ -3250,7 +3338,7 @@
         <v>105</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D29" s="11"/>
     </row>
@@ -3260,7 +3348,7 @@
         <v>106</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D30" s="11"/>
     </row>
@@ -3269,7 +3357,7 @@
       <c r="B31" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C31" s="17" t="s">
         <v>30</v>
       </c>
       <c r="D31" s="11"/>
@@ -3280,7 +3368,7 @@
         <v>108</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D32" s="11"/>
     </row>
@@ -3289,7 +3377,7 @@
       <c r="B33" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C33" s="17" t="s">
         <v>30</v>
       </c>
       <c r="D33" s="11"/>
@@ -3300,7 +3388,7 @@
         <v>110</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D34" s="11"/>
     </row>
@@ -3309,7 +3397,7 @@
       <c r="B35" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="C35" s="10" t="s">
+      <c r="C35" s="17" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="11"/>
@@ -3319,7 +3407,7 @@
       <c r="B36" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="C36" s="10" t="s">
+      <c r="C36" s="17" t="s">
         <v>30</v>
       </c>
       <c r="D36" s="11"/>
@@ -3335,11 +3423,548 @@
     <mergeCell ref="A21:A28"/>
     <mergeCell ref="A29:A36"/>
   </mergeCells>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7">
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C36">
       <formula1>"未进行,进行中,已暂停,已完成"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C36 C8:C35">
+  </dataValidations>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.511805555555556" footer="0.25"/>
+  <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F45"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="139" zoomScaleNormal="139" topLeftCell="A3" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight" activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.64423076923077" defaultRowHeight="16.8" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="16.3557692307692" style="1"/>
+    <col min="2" max="2" width="58.6826923076923" style="2" customWidth="1"/>
+    <col min="3" max="4" width="16.3557692307692" style="1"/>
+    <col min="5" max="5" width="19.8365384615385" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.4230769230769" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.1442307692308" style="1" customWidth="1"/>
+    <col min="8" max="16381" width="16.3557692307692" style="1"/>
+    <col min="16382" max="16384" width="9.64423076923077" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="13" customHeight="1" spans="1:4">
+      <c r="A1" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+    </row>
+    <row r="2" ht="13" customHeight="1" spans="1:4">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+    </row>
+    <row r="3" ht="13" customHeight="1" spans="1:4">
+      <c r="A3" s="3"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+    </row>
+    <row r="4" ht="14" customHeight="1" spans="1:4">
+      <c r="A4" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" ht="16" customHeight="1" spans="1:4">
+      <c r="A5" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="11"/>
+    </row>
+    <row r="6" ht="16" customHeight="1" spans="1:4">
+      <c r="A6" s="8"/>
+      <c r="B6" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="11"/>
+    </row>
+    <row r="7" ht="16" customHeight="1" spans="1:4">
+      <c r="A7" s="8"/>
+      <c r="B7" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="11"/>
+    </row>
+    <row r="8" ht="16" customHeight="1" spans="1:4">
+      <c r="A8" s="8"/>
+      <c r="B8" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="11"/>
+    </row>
+    <row r="9" ht="16" customHeight="1" spans="1:4">
+      <c r="A9" s="8"/>
+      <c r="B9" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="11"/>
+    </row>
+    <row r="10" ht="13.35" customHeight="1" spans="1:6">
+      <c r="A10" s="8"/>
+      <c r="B10" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="9"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" ht="13.65" customHeight="1" spans="1:4">
+      <c r="A11" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" ht="13.35" customHeight="1" spans="1:6">
+      <c r="A12" s="12"/>
+      <c r="B12" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="11"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" ht="13.35" customHeight="1" spans="1:6">
+      <c r="A13" s="12"/>
+      <c r="B13" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="11"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" ht="13.35" customHeight="1" spans="1:6">
+      <c r="A14" s="12"/>
+      <c r="B14" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="11"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" ht="13.35" customHeight="1" spans="1:6">
+      <c r="A15" s="12"/>
+      <c r="B15" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="11"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" ht="13.35" customHeight="1" spans="1:6">
+      <c r="A16" s="12"/>
+      <c r="B16" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="11"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" ht="13.35" customHeight="1" spans="1:6">
+      <c r="A17" s="12"/>
+      <c r="B17" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="11"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" ht="13.35" customHeight="1" spans="1:6">
+      <c r="A18" s="12"/>
+      <c r="B18" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="11"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" ht="13.35" customHeight="1" spans="1:6">
+      <c r="A19" s="12"/>
+      <c r="B19" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="11"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" ht="13.35" customHeight="1" spans="1:6">
+      <c r="A20" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="11"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" ht="13.35" customHeight="1" spans="1:6">
+      <c r="A21" s="12"/>
+      <c r="B21" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="11"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" ht="13.35" customHeight="1" spans="1:6">
+      <c r="A22" s="12"/>
+      <c r="B22" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="11"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" ht="13.35" customHeight="1" spans="1:6">
+      <c r="A23" s="12"/>
+      <c r="B23" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" s="11"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" ht="13.35" customHeight="1" spans="1:6">
+      <c r="A24" s="12"/>
+      <c r="B24" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="11"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" ht="13.35" customHeight="1" spans="1:6">
+      <c r="A25" s="12"/>
+      <c r="B25" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" s="11"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" ht="13.35" customHeight="1" spans="1:6">
+      <c r="A26" s="12"/>
+      <c r="B26" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" s="11"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" ht="13.35" customHeight="1" spans="1:6">
+      <c r="A27" s="12"/>
+      <c r="B27" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" s="11"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" ht="13.35" customHeight="1" spans="1:4">
+      <c r="A28" s="12"/>
+      <c r="B28" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" s="15"/>
+    </row>
+    <row r="29" ht="13.65" customHeight="1" spans="1:4">
+      <c r="A29" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29" s="11"/>
+    </row>
+    <row r="30" ht="13.65" customHeight="1" spans="1:4">
+      <c r="A30" s="16"/>
+      <c r="B30" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D30" s="11"/>
+    </row>
+    <row r="31" ht="13.65" customHeight="1" spans="1:4">
+      <c r="A31" s="16"/>
+      <c r="B31" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31" s="11"/>
+    </row>
+    <row r="32" ht="13.65" customHeight="1" spans="1:4">
+      <c r="A32" s="16"/>
+      <c r="B32" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D32" s="11"/>
+    </row>
+    <row r="33" ht="13.65" customHeight="1" spans="1:4">
+      <c r="A33" s="16"/>
+      <c r="B33" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D33" s="11"/>
+    </row>
+    <row r="34" ht="13.65" customHeight="1" spans="1:4">
+      <c r="A34" s="16"/>
+      <c r="B34" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D34" s="11"/>
+    </row>
+    <row r="35" ht="13.65" customHeight="1" spans="1:4">
+      <c r="A35" s="16"/>
+      <c r="B35" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D35" s="11"/>
+    </row>
+    <row r="36" ht="13.65" customHeight="1" spans="1:4">
+      <c r="A36" s="16"/>
+      <c r="B36" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D36" s="11"/>
+    </row>
+    <row r="37" ht="13.65" customHeight="1" spans="1:4">
+      <c r="A37" s="16"/>
+      <c r="B37" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D37" s="11"/>
+    </row>
+    <row r="38" ht="17" spans="1:4">
+      <c r="A38" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D38" s="11"/>
+    </row>
+    <row r="39" ht="17" spans="1:4">
+      <c r="A39" s="16"/>
+      <c r="B39" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D39" s="11"/>
+    </row>
+    <row r="40" ht="17" spans="1:4">
+      <c r="A40" s="16"/>
+      <c r="B40" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C40" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D40" s="11"/>
+    </row>
+    <row r="41" ht="17" spans="1:4">
+      <c r="A41" s="16"/>
+      <c r="B41" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C41" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D41" s="11"/>
+    </row>
+    <row r="42" ht="17" spans="1:4">
+      <c r="A42" s="16"/>
+      <c r="B42" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C42" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D42" s="11"/>
+    </row>
+    <row r="43" ht="17" spans="1:4">
+      <c r="A43" s="16"/>
+      <c r="B43" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="C43" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D43" s="11"/>
+    </row>
+    <row r="44" ht="17" spans="1:4">
+      <c r="A44" s="16"/>
+      <c r="B44" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C44" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D44" s="11"/>
+    </row>
+    <row r="45" ht="17" spans="1:4">
+      <c r="A45" s="16"/>
+      <c r="B45" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="C45" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D45" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="A5:A10"/>
+    <mergeCell ref="A11:A19"/>
+    <mergeCell ref="A20:A28"/>
+    <mergeCell ref="A29:A37"/>
+    <mergeCell ref="A38:A45"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C11 C14 C17 C5:C10 C12:C13 C15:C16 C18:C45">
       <formula1>"未进行,进行中,已暂停,已完成"</formula1>
     </dataValidation>
   </dataValidations>

--- a/file/personal/roleImportant/角色要事记录表_2025.xlsx
+++ b/file/personal/roleImportant/角色要事记录表_2025.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22800" windowHeight="13160" tabRatio="500" activeTab="5"/>
+    <workbookView windowWidth="22800" windowHeight="13160" tabRatio="500" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="角色目录" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,7 @@
     <sheet name="八月" sheetId="4" r:id="rId4"/>
     <sheet name="九月" sheetId="5" r:id="rId5"/>
     <sheet name="十月" sheetId="6" r:id="rId6"/>
+    <sheet name="十一月" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">待办任务!$A$1:$D$32</definedName>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="146">
   <si>
     <t>角色</t>
   </si>
@@ -485,10 +486,37 @@
     <t>字4+知识1</t>
   </si>
   <si>
-    <t>数量知识1+数量题(限时)30+典题集1+数列知识</t>
+    <t>数量知识1+数量题(限时)30+典题集1</t>
   </si>
   <si>
     <t>资料知识1+资料题25</t>
+  </si>
+  <si>
+    <t>常识题100</t>
+  </si>
+  <si>
+    <t>到达730</t>
+  </si>
+  <si>
+    <t>数量关系视频1+资料分析视频1+推理判断视频1</t>
+  </si>
+  <si>
+    <t>推理知识1+数量知识1+资料知识1+综应知识1+言语理解知识1</t>
+  </si>
+  <si>
+    <t>言语理解题30+言语理解词语100</t>
+  </si>
+  <si>
+    <t>推理判断题30+逆否题集1</t>
+  </si>
+  <si>
+    <t>数量题(限时)30+典题集1</t>
+  </si>
+  <si>
+    <t>资料题25</t>
+  </si>
+  <si>
+    <t>综应试卷1+练字4(硬/限时)</t>
   </si>
 </sst>
 </file>
@@ -717,8 +745,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.15"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="0" tint="-0.25"/>
+        <bgColor rgb="FF92D050"/>
       </patternFill>
     </fill>
     <fill>
@@ -962,7 +990,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -983,6 +1011,17 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1021,17 +1060,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1051,6 +1079,30 @@
         <color auto="1"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1281,7 +1333,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1293,34 +1345,34 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1405,8 +1457,41 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -1415,76 +1500,64 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1499,7 +1572,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1508,10 +1581,7 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1520,19 +1590,19 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1933,231 +2003,231 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.64423076923077" defaultRowHeight="16.8" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="14.4134615384615" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="6" style="1"/>
+    <col min="1" max="1" width="14.4134615384615" style="12" customWidth="1"/>
+    <col min="2" max="16384" width="6" style="12"/>
   </cols>
   <sheetData>
     <row r="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
     </row>
     <row r="2" ht="14" customHeight="1" spans="1:5">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
     </row>
     <row r="3" ht="14" customHeight="1" spans="1:5">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
     </row>
     <row r="4" ht="14" customHeight="1" spans="1:5">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
     </row>
     <row r="5" ht="14" customHeight="1" spans="1:5">
-      <c r="A5" s="42"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
+      <c r="A5" s="48"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
     </row>
     <row r="6" ht="14" customHeight="1" spans="1:5">
-      <c r="A6" s="42"/>
-      <c r="B6" s="39"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
+      <c r="A6" s="48"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
     </row>
     <row r="7" ht="14" customHeight="1" spans="1:5">
-      <c r="A7" s="42" t="s">
+      <c r="A7" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="39"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
     </row>
     <row r="8" ht="14" customHeight="1" spans="1:5">
-      <c r="A8" s="42"/>
-      <c r="B8" s="39"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
+      <c r="A8" s="48"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
     </row>
     <row r="9" ht="14" customHeight="1" spans="1:5">
-      <c r="A9" s="42"/>
-      <c r="B9" s="39"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
+      <c r="A9" s="48"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
     </row>
     <row r="10" ht="14" customHeight="1" spans="1:5">
-      <c r="A10" s="42" t="s">
+      <c r="A10" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="39"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
     </row>
     <row r="11" ht="14" customHeight="1" spans="1:5">
-      <c r="A11" s="42" t="s">
+      <c r="A11" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="39"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
     </row>
     <row r="12" ht="14" customHeight="1" spans="1:5">
-      <c r="A12" s="42" t="s">
+      <c r="A12" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="39"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
     </row>
     <row r="13" ht="14" customHeight="1" spans="1:5">
-      <c r="A13" s="42" t="s">
+      <c r="A13" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="39"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
     </row>
     <row r="14" ht="14" customHeight="1" spans="1:5">
-      <c r="A14" s="42" t="s">
+      <c r="A14" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="39"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
     </row>
     <row r="15" ht="14" customHeight="1" spans="1:5">
-      <c r="A15" s="42" t="s">
+      <c r="A15" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="39"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
     </row>
     <row r="16" ht="14" customHeight="1" spans="1:5">
-      <c r="A16" s="42" t="s">
+      <c r="A16" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="39"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
     </row>
     <row r="17" ht="14" customHeight="1" spans="1:5">
-      <c r="A17" s="42" t="s">
+      <c r="A17" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="39"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
     </row>
     <row r="18" ht="14" customHeight="1" spans="1:5">
-      <c r="A18" s="42" t="s">
+      <c r="A18" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="39"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
     </row>
     <row r="19" ht="14" customHeight="1" spans="1:5">
-      <c r="A19" s="42" t="s">
+      <c r="A19" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="39"/>
-      <c r="C19" s="40"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="40"/>
+      <c r="B19" s="45"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
     </row>
     <row r="20" ht="14" customHeight="1" spans="1:5">
-      <c r="A20" s="42" t="s">
+      <c r="A20" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="39"/>
-      <c r="C20" s="40"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="40"/>
+      <c r="B20" s="45"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
     </row>
     <row r="21" ht="14" customHeight="1" spans="1:5">
-      <c r="A21" s="42" t="s">
+      <c r="A21" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="39"/>
-      <c r="C21" s="40"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="40"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="46"/>
     </row>
     <row r="22" ht="14" customHeight="1" spans="1:5">
-      <c r="A22" s="42" t="s">
+      <c r="A22" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="39"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="40"/>
+      <c r="B22" s="45"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="46"/>
     </row>
     <row r="23" ht="14" customHeight="1" spans="1:5">
-      <c r="A23" s="41" t="s">
+      <c r="A23" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="39"/>
-      <c r="C23" s="40"/>
-      <c r="D23" s="40"/>
-      <c r="E23" s="40"/>
-    </row>
-    <row r="26" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A26" s="43" t="s">
+      <c r="B23" s="45"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
+    </row>
+    <row r="26" ht="13.5" customHeight="1" spans="1:5">
+      <c r="A26" s="49" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="27" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A27" s="23" t="s">
+    <row r="27" ht="13.5" customHeight="1" spans="1:5">
+      <c r="A27" s="30" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="28" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A28" s="33" t="s">
+    <row r="28" ht="13.5" customHeight="1" spans="1:5">
+      <c r="A28" s="40" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="29" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A29" s="29" t="s">
+    <row r="29" ht="13.5" customHeight="1" spans="1:5">
+      <c r="A29" s="36" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="30" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A30" s="32" t="s">
+    <row r="30" ht="13.5" customHeight="1" spans="1:5">
+      <c r="A30" s="39" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2191,418 +2261,418 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.64423076923077" defaultRowHeight="16.8" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="16.3557692307692" style="1"/>
-    <col min="2" max="2" width="99.1153846153846" style="2" customWidth="1"/>
-    <col min="3" max="3" width="14.0961538461538" style="2" customWidth="1"/>
-    <col min="4" max="4" width="16.3557692307692" style="1"/>
-    <col min="5" max="5" width="18.2692307692308" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.7788461538462" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="16.3557692307692" style="1"/>
+    <col min="1" max="1" width="16.3557692307692" style="12"/>
+    <col min="2" max="2" width="99.1153846153846" style="13" customWidth="1"/>
+    <col min="3" max="3" width="14.0961538461538" style="13" customWidth="1"/>
+    <col min="4" max="4" width="16.3557692307692" style="12"/>
+    <col min="5" max="5" width="18.2692307692308" style="12" customWidth="1"/>
+    <col min="6" max="6" width="17.7788461538462" style="12" customWidth="1"/>
+    <col min="7" max="16384" width="16.3557692307692" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.55" customHeight="1" spans="1:4">
-      <c r="A1" s="18" t="s">
+    <row r="1" ht="13.55" customHeight="1" spans="1:6">
+      <c r="A1" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="27" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" ht="13.35" hidden="1" customHeight="1" spans="1:4">
-      <c r="A2" s="21" t="s">
+    <row r="2" ht="13.35" hidden="1" customHeight="1" spans="1:6">
+      <c r="A2" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="24" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" ht="13.35" hidden="1" customHeight="1" spans="1:4">
-      <c r="A3" s="25" t="s">
+      <c r="D2" s="31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" ht="13.35" hidden="1" customHeight="1" spans="1:6">
+      <c r="A3" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="23" t="s">
+      <c r="B3" s="33"/>
+      <c r="C3" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="24" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" ht="13.35" hidden="1" customHeight="1" spans="1:4">
-      <c r="A4" s="25" t="s">
+      <c r="D3" s="31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" ht="13.35" hidden="1" customHeight="1" spans="1:6">
+      <c r="A4" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="26"/>
-      <c r="C4" s="23" t="s">
+      <c r="B4" s="33"/>
+      <c r="C4" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="24" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" ht="13.35" hidden="1" customHeight="1" spans="1:4">
-      <c r="A5" s="25" t="s">
+      <c r="D4" s="31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" ht="13.35" hidden="1" customHeight="1" spans="1:6">
+      <c r="A5" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="24" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" ht="13" hidden="1" customHeight="1" spans="1:5">
-      <c r="A6" s="25" t="s">
+      <c r="D5" s="31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" ht="13" hidden="1" customHeight="1" spans="1:6">
+      <c r="A6" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" s="1" t="s">
+      <c r="D6" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="12" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="7" ht="13" hidden="1" customHeight="1" spans="1:6">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" ht="13" hidden="1" customHeight="1" spans="1:4">
-      <c r="A8" s="28"/>
-      <c r="B8" s="9" t="s">
+      <c r="D7" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+    </row>
+    <row r="8" ht="13" hidden="1" customHeight="1" spans="1:6">
+      <c r="A8" s="35"/>
+      <c r="B8" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="27" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" ht="13" hidden="1" customHeight="1" spans="1:4">
-      <c r="A9" s="28"/>
-      <c r="B9" s="9" t="s">
+      <c r="D8" s="34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" ht="13" hidden="1" customHeight="1" spans="1:6">
+      <c r="A9" s="35"/>
+      <c r="B9" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="27" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" ht="13" hidden="1" customHeight="1" spans="1:4">
-      <c r="A10" s="28"/>
-      <c r="B10" s="9" t="s">
+      <c r="D9" s="34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" ht="13" hidden="1" customHeight="1" spans="1:6">
+      <c r="A10" s="35"/>
+      <c r="B10" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="27" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" ht="13" hidden="1" customHeight="1" spans="1:4">
-      <c r="A11" s="28"/>
-      <c r="B11" s="30" t="s">
+      <c r="D10" s="34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" ht="13" hidden="1" customHeight="1" spans="1:6">
+      <c r="A11" s="35"/>
+      <c r="B11" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="29" t="s">
+      <c r="C11" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="27" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" ht="13" hidden="1" customHeight="1" spans="1:4">
-      <c r="A12" s="28"/>
-      <c r="B12" s="9" t="s">
+      <c r="D11" s="34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" ht="13" hidden="1" customHeight="1" spans="1:6">
+      <c r="A12" s="35"/>
+      <c r="B12" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="29" t="s">
+      <c r="C12" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="27" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" ht="13" customHeight="1" spans="1:4">
-      <c r="A13" s="28"/>
-      <c r="B13" s="9" t="s">
+      <c r="D12" s="34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" ht="13" customHeight="1" spans="1:6">
+      <c r="A13" s="35"/>
+      <c r="B13" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="29" t="s">
+      <c r="C13" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="31" t="s">
+      <c r="D13" s="38" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="14" ht="13" customHeight="1" spans="1:4">
-      <c r="A14" s="28"/>
-      <c r="B14" s="9" t="s">
+    <row r="14" ht="13" customHeight="1" spans="1:6">
+      <c r="A14" s="35"/>
+      <c r="B14" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="31" t="s">
+      <c r="D14" s="38" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="15" ht="13" customHeight="1" spans="1:4">
-      <c r="A15" s="28"/>
-      <c r="B15" s="9" t="s">
+    <row r="15" ht="13" customHeight="1" spans="1:6">
+      <c r="A15" s="35"/>
+      <c r="B15" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C15" s="29" t="s">
+      <c r="C15" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="31" t="s">
+      <c r="D15" s="38" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="16" ht="13" customHeight="1" spans="1:4">
-      <c r="A16" s="28"/>
-      <c r="B16" s="9" t="s">
+    <row r="16" ht="13" customHeight="1" spans="1:6">
+      <c r="A16" s="35"/>
+      <c r="B16" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="29" t="s">
+      <c r="C16" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="31" t="s">
+      <c r="D16" s="38" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="17" ht="13" customHeight="1" spans="1:4">
-      <c r="A17" s="28"/>
-      <c r="B17" s="9" t="s">
+    <row r="17" ht="13" customHeight="1" spans="1:5">
+      <c r="A17" s="35"/>
+      <c r="B17" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="29" t="s">
+      <c r="C17" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="31" t="s">
+      <c r="D17" s="38" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="18" ht="13" customHeight="1" spans="1:4">
-      <c r="A18" s="28" t="s">
+    <row r="18" ht="13" customHeight="1" spans="1:5">
+      <c r="A18" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C18" s="32" t="s">
+      <c r="C18" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="31" t="s">
+      <c r="D18" s="38" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="19" ht="13" customHeight="1" spans="1:4">
-      <c r="A19" s="28"/>
-      <c r="B19" s="9" t="s">
+    <row r="19" ht="13" customHeight="1" spans="1:5">
+      <c r="A19" s="35"/>
+      <c r="B19" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="32" t="s">
+      <c r="C19" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="31" t="s">
+      <c r="D19" s="38" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="20" ht="13" customHeight="1" spans="1:4">
-      <c r="A20" s="28"/>
-      <c r="B20" s="9" t="s">
+    <row r="20" ht="13" customHeight="1" spans="1:5">
+      <c r="A20" s="35"/>
+      <c r="B20" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C20" s="32" t="s">
+      <c r="C20" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="31" t="s">
+      <c r="D20" s="38" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="21" ht="13" customHeight="1" spans="1:4">
-      <c r="A21" s="28"/>
-      <c r="B21" s="9" t="s">
+    <row r="21" ht="13" customHeight="1" spans="1:5">
+      <c r="A21" s="35"/>
+      <c r="B21" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C21" s="32" t="s">
+      <c r="C21" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="31" t="s">
+      <c r="D21" s="38" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="22" ht="13" customHeight="1" spans="1:4">
-      <c r="A22" s="28"/>
-      <c r="B22" s="9" t="s">
+    <row r="22" ht="13" customHeight="1" spans="1:5">
+      <c r="A22" s="35"/>
+      <c r="B22" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C22" s="32" t="s">
+      <c r="C22" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="31" t="s">
+      <c r="D22" s="38" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="23" ht="13" customHeight="1" spans="1:4">
-      <c r="A23" s="28"/>
-      <c r="B23" s="9" t="s">
+    <row r="23" ht="13" customHeight="1" spans="1:5">
+      <c r="A23" s="35"/>
+      <c r="B23" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C23" s="32" t="s">
+      <c r="C23" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="D23" s="31" t="s">
+      <c r="D23" s="38" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="24" ht="13" hidden="1" customHeight="1" spans="1:4">
-      <c r="A24" s="11" t="s">
+    <row r="24" ht="13" hidden="1" customHeight="1" spans="1:5">
+      <c r="A24" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C24" s="33" t="s">
+      <c r="C24" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="D24" s="34" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" ht="13" hidden="1" customHeight="1" spans="1:4">
-      <c r="A25" s="11"/>
-      <c r="B25" s="9" t="s">
+      <c r="D24" s="41" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" ht="13" hidden="1" customHeight="1" spans="1:5">
+      <c r="A25" s="8"/>
+      <c r="B25" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C25" s="33" t="s">
+      <c r="C25" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="D25" s="34" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" ht="13" hidden="1" customHeight="1" spans="1:4">
-      <c r="A26" s="35" t="s">
+      <c r="D25" s="41" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" ht="13" hidden="1" customHeight="1" spans="1:5">
+      <c r="A26" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="B26" s="36" t="s">
+      <c r="B26" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="C26" s="29" t="s">
+      <c r="C26" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="D26" s="27" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="27" ht="13" hidden="1" customHeight="1" spans="1:4">
-      <c r="A27" s="9" t="s">
+      <c r="D26" s="34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" ht="13" hidden="1" customHeight="1" spans="1:5">
+      <c r="A27" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C27" s="23" t="s">
+      <c r="C27" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="D27" s="37" t="s">
+      <c r="D27" s="43" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="28" ht="13" customHeight="1" spans="1:5">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C28" s="29" t="s">
+      <c r="C28" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="D28" s="37" t="s">
+      <c r="D28" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E28" s="12" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="29" ht="13" hidden="1" customHeight="1" spans="1:4">
-      <c r="A29" s="9" t="s">
+    <row r="29" ht="13" hidden="1" customHeight="1" spans="1:5">
+      <c r="A29" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C29" s="23" t="s">
+      <c r="C29" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="D29" s="37" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="30" ht="13" customHeight="1" spans="1:4">
-      <c r="A30" s="11" t="s">
+      <c r="D29" s="43" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" ht="13" customHeight="1" spans="1:5">
+      <c r="A30" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C30" s="29" t="s">
+      <c r="C30" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="D30" s="37" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" ht="13" hidden="1" customHeight="1" spans="1:4">
-      <c r="A31" s="11" t="s">
+      <c r="D30" s="43" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" ht="13" hidden="1" customHeight="1" spans="1:5">
+      <c r="A31" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="B31" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="C31" s="23" t="s">
+      <c r="C31" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="D31" s="24" t="s">
+      <c r="D31" s="31" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2650,167 +2720,167 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.64423076923077" defaultRowHeight="16.8" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="16.3557692307692" style="1"/>
-    <col min="2" max="2" width="58.6826923076923" style="2" customWidth="1"/>
-    <col min="3" max="4" width="16.3557692307692" style="1"/>
-    <col min="5" max="5" width="19.8365384615385" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.4230769230769" style="1" customWidth="1"/>
-    <col min="7" max="7" width="19.1442307692308" style="1" customWidth="1"/>
-    <col min="8" max="16381" width="16.3557692307692" style="1"/>
-    <col min="16382" max="16384" width="9.64423076923077" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.3557692307692" style="12"/>
+    <col min="2" max="2" width="58.6826923076923" style="13" customWidth="1"/>
+    <col min="3" max="4" width="16.3557692307692" style="12"/>
+    <col min="5" max="5" width="19.8365384615385" style="12" customWidth="1"/>
+    <col min="6" max="6" width="18.4230769230769" style="12" customWidth="1"/>
+    <col min="7" max="7" width="19.1442307692308" style="12" customWidth="1"/>
+    <col min="8" max="16381" width="16.3557692307692" style="12"/>
+    <col min="16382" max="16384" width="9.64423076923077" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13" customHeight="1" spans="1:4">
-      <c r="A1" s="3" t="s">
+    <row r="1" ht="13" customHeight="1" spans="1:6">
+      <c r="A1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-    </row>
-    <row r="2" ht="13" customHeight="1" spans="1:4">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4" t="s">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" ht="13" customHeight="1" spans="1:6">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-    </row>
-    <row r="3" ht="13" customHeight="1" spans="1:4">
-      <c r="A3" s="3"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-    </row>
-    <row r="4" ht="14" customHeight="1" spans="1:4">
-      <c r="A4" s="5" t="s">
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" ht="13" customHeight="1" spans="1:6">
+      <c r="A3" s="1"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" ht="14" customHeight="1" spans="1:6">
+      <c r="A4" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="7" t="s">
+      <c r="B4" s="15"/>
+      <c r="C4" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="16" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="5" ht="92" customHeight="1" spans="1:4">
-      <c r="A5" s="8" t="s">
+    <row r="5" ht="92" customHeight="1" spans="1:6">
+      <c r="A5" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" s="11"/>
+      <c r="C5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="8"/>
     </row>
     <row r="6" ht="13.35" customHeight="1" spans="1:6">
-      <c r="A6" s="8"/>
-      <c r="B6" s="9" t="s">
+      <c r="A6" s="17"/>
+      <c r="B6" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" ht="13.65" customHeight="1" spans="1:4">
-      <c r="A7" s="8" t="s">
+      <c r="C6" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+    </row>
+    <row r="7" ht="13.65" customHeight="1" spans="1:6">
+      <c r="A7" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="11"/>
+      <c r="C7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="8"/>
     </row>
     <row r="8" ht="13.35" customHeight="1" spans="1:6">
-      <c r="A8" s="8"/>
-      <c r="B8" s="9" t="s">
+      <c r="A8" s="17"/>
+      <c r="B8" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
+      <c r="C8" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
     </row>
     <row r="9" ht="13.35" customHeight="1" spans="1:6">
-      <c r="A9" s="8"/>
-      <c r="B9" s="9" t="s">
+      <c r="A9" s="17"/>
+      <c r="B9" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+      <c r="C9" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
     </row>
     <row r="10" ht="13.35" customHeight="1" spans="1:6">
-      <c r="A10" s="8"/>
-      <c r="B10" s="9" t="s">
+      <c r="A10" s="17"/>
+      <c r="B10" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="C10" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+      <c r="C10" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
     </row>
     <row r="11" ht="13.35" customHeight="1" spans="1:6">
-      <c r="A11" s="8"/>
-      <c r="B11" s="9" t="s">
+      <c r="A11" s="17"/>
+      <c r="B11" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="C11" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="11"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" ht="13.65" customHeight="1" spans="1:4">
-      <c r="A12" s="8" t="s">
+      <c r="C11" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+    </row>
+    <row r="12" ht="13.65" customHeight="1" spans="1:6">
+      <c r="A12" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="C12" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="11"/>
-    </row>
-    <row r="13" ht="13.65" customHeight="1" spans="1:4">
-      <c r="A13" s="8"/>
-      <c r="B13" s="9" t="s">
+      <c r="C12" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="8"/>
+    </row>
+    <row r="13" ht="13.65" customHeight="1" spans="1:6">
+      <c r="A13" s="17"/>
+      <c r="B13" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="C13" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="11"/>
-    </row>
-    <row r="14" ht="13.65" customHeight="1" spans="1:4">
-      <c r="A14" s="8"/>
-      <c r="B14" s="9" t="s">
+      <c r="C13" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="8"/>
+    </row>
+    <row r="14" ht="13.65" customHeight="1" spans="1:6">
+      <c r="A14" s="17"/>
+      <c r="B14" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="C14" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D14" s="11"/>
+      <c r="C14" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -2850,153 +2920,153 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.64423076923077" defaultRowHeight="16.8" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="16.3557692307692" style="1"/>
-    <col min="2" max="2" width="58.6826923076923" style="2" customWidth="1"/>
-    <col min="3" max="4" width="16.3557692307692" style="1"/>
-    <col min="5" max="5" width="19.8365384615385" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.4230769230769" style="1" customWidth="1"/>
-    <col min="7" max="7" width="19.1442307692308" style="1" customWidth="1"/>
-    <col min="8" max="16381" width="16.3557692307692" style="1"/>
-    <col min="16382" max="16384" width="9.64423076923077" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.3557692307692" style="12"/>
+    <col min="2" max="2" width="58.6826923076923" style="13" customWidth="1"/>
+    <col min="3" max="4" width="16.3557692307692" style="12"/>
+    <col min="5" max="5" width="19.8365384615385" style="12" customWidth="1"/>
+    <col min="6" max="6" width="18.4230769230769" style="12" customWidth="1"/>
+    <col min="7" max="7" width="19.1442307692308" style="12" customWidth="1"/>
+    <col min="8" max="16381" width="16.3557692307692" style="12"/>
+    <col min="16382" max="16384" width="9.64423076923077" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13" customHeight="1" spans="1:4">
-      <c r="A1" s="3" t="s">
+    <row r="1" ht="13" customHeight="1" spans="1:6">
+      <c r="A1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-    </row>
-    <row r="2" ht="13" customHeight="1" spans="1:4">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-    </row>
-    <row r="3" ht="13" customHeight="1" spans="1:4">
-      <c r="A3" s="3"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-    </row>
-    <row r="4" ht="14" customHeight="1" spans="1:4">
-      <c r="A4" s="5" t="s">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" ht="13" customHeight="1" spans="1:6">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" ht="13" customHeight="1" spans="1:6">
+      <c r="A3" s="1"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" ht="14" customHeight="1" spans="1:6">
+      <c r="A4" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="7" t="s">
+      <c r="B4" s="15"/>
+      <c r="C4" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="16" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="5" ht="16" customHeight="1" spans="1:4">
-      <c r="A5" s="8" t="s">
+    <row r="5" ht="16" customHeight="1" spans="1:6">
+      <c r="A5" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" s="11"/>
-    </row>
-    <row r="6" ht="16" customHeight="1" spans="1:4">
-      <c r="A6" s="8"/>
-      <c r="B6" s="9" t="s">
+      <c r="C5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="8"/>
+    </row>
+    <row r="6" ht="16" customHeight="1" spans="1:6">
+      <c r="A6" s="17"/>
+      <c r="B6" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="11"/>
-    </row>
-    <row r="7" ht="16" customHeight="1" spans="1:4">
-      <c r="A7" s="8"/>
-      <c r="B7" s="9" t="s">
+      <c r="C6" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="8"/>
+    </row>
+    <row r="7" ht="16" customHeight="1" spans="1:6">
+      <c r="A7" s="17"/>
+      <c r="B7" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="11"/>
-    </row>
-    <row r="8" ht="13.65" customHeight="1" spans="1:4">
-      <c r="A8" s="8" t="s">
+      <c r="C7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="8"/>
+    </row>
+    <row r="8" ht="13.65" customHeight="1" spans="1:6">
+      <c r="A8" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" s="11"/>
+      <c r="C8" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="8"/>
     </row>
     <row r="9" ht="13.35" customHeight="1" spans="1:6">
-      <c r="A9" s="12"/>
-      <c r="B9" s="9" t="s">
+      <c r="A9" s="18"/>
+      <c r="B9" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+      <c r="C9" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
     </row>
     <row r="10" ht="13.35" customHeight="1" spans="1:6">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="C10" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+      <c r="C10" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
     </row>
     <row r="11" ht="13.35" customHeight="1" spans="1:6">
-      <c r="A11" s="12"/>
-      <c r="B11" s="9" t="s">
+      <c r="A11" s="18"/>
+      <c r="B11" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="C11" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="11"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" ht="13.65" customHeight="1" spans="1:4">
-      <c r="A12" s="8" t="s">
+      <c r="C11" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+    </row>
+    <row r="12" ht="13.65" customHeight="1" spans="1:6">
+      <c r="A12" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="C12" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="11"/>
-    </row>
-    <row r="13" ht="13.65" customHeight="1" spans="1:4">
-      <c r="A13" s="8"/>
-      <c r="B13" s="9" t="s">
+      <c r="C12" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="8"/>
+    </row>
+    <row r="13" ht="13.65" customHeight="1" spans="1:6">
+      <c r="A13" s="17"/>
+      <c r="B13" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="C13" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="11"/>
+      <c r="C13" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -3037,407 +3107,407 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.64423076923077" defaultRowHeight="16.8" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="16.3557692307692" style="1"/>
-    <col min="2" max="2" width="58.6826923076923" style="2" customWidth="1"/>
-    <col min="3" max="4" width="16.3557692307692" style="1"/>
-    <col min="5" max="5" width="19.8365384615385" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.4230769230769" style="1" customWidth="1"/>
-    <col min="7" max="7" width="19.1442307692308" style="1" customWidth="1"/>
-    <col min="8" max="16381" width="16.3557692307692" style="1"/>
-    <col min="16382" max="16384" width="9.64423076923077" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.3557692307692" style="12"/>
+    <col min="2" max="2" width="58.6826923076923" style="13" customWidth="1"/>
+    <col min="3" max="4" width="16.3557692307692" style="12"/>
+    <col min="5" max="5" width="19.8365384615385" style="12" customWidth="1"/>
+    <col min="6" max="6" width="18.4230769230769" style="12" customWidth="1"/>
+    <col min="7" max="7" width="19.1442307692308" style="12" customWidth="1"/>
+    <col min="8" max="16381" width="16.3557692307692" style="12"/>
+    <col min="16382" max="16384" width="9.64423076923077" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13" customHeight="1" spans="1:4">
-      <c r="A1" s="3" t="s">
+    <row r="1" ht="13" customHeight="1" spans="1:6">
+      <c r="A1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-    </row>
-    <row r="2" ht="13" customHeight="1" spans="1:4">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-    </row>
-    <row r="3" ht="13" customHeight="1" spans="1:4">
-      <c r="A3" s="3"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-    </row>
-    <row r="4" ht="14" customHeight="1" spans="1:4">
-      <c r="A4" s="5" t="s">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" ht="13" customHeight="1" spans="1:6">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" ht="13" customHeight="1" spans="1:6">
+      <c r="A3" s="1"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" ht="14" customHeight="1" spans="1:6">
+      <c r="A4" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="7" t="s">
+      <c r="B4" s="15"/>
+      <c r="C4" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="16" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="5" ht="16" customHeight="1" spans="1:4">
-      <c r="A5" s="8" t="s">
+    <row r="5" ht="16" customHeight="1" spans="1:6">
+      <c r="A5" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" s="11"/>
-    </row>
-    <row r="6" ht="16" customHeight="1" spans="1:4">
-      <c r="A6" s="8"/>
-      <c r="B6" s="9" t="s">
+      <c r="C5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="8"/>
+    </row>
+    <row r="6" ht="16" customHeight="1" spans="1:6">
+      <c r="A6" s="17"/>
+      <c r="B6" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="11"/>
-    </row>
-    <row r="7" ht="16" customHeight="1" spans="1:4">
-      <c r="A7" s="8"/>
-      <c r="B7" s="9" t="s">
+      <c r="C6" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="8"/>
+    </row>
+    <row r="7" ht="16" customHeight="1" spans="1:6">
+      <c r="A7" s="17"/>
+      <c r="B7" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="11"/>
-    </row>
-    <row r="8" ht="16" customHeight="1" spans="1:4">
-      <c r="A8" s="8"/>
-      <c r="B8" s="9" t="s">
+      <c r="C7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="8"/>
+    </row>
+    <row r="8" ht="16" customHeight="1" spans="1:6">
+      <c r="A8" s="17"/>
+      <c r="B8" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" s="11"/>
-    </row>
-    <row r="9" ht="16" customHeight="1" spans="1:4">
-      <c r="A9" s="8"/>
-      <c r="B9" s="9" t="s">
+      <c r="C8" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="8"/>
+    </row>
+    <row r="9" ht="16" customHeight="1" spans="1:6">
+      <c r="A9" s="17"/>
+      <c r="B9" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="C9" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="11"/>
-    </row>
-    <row r="10" ht="16" customHeight="1" spans="1:4">
-      <c r="A10" s="8"/>
-      <c r="B10" s="9" t="s">
+      <c r="C9" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="8"/>
+    </row>
+    <row r="10" ht="16" customHeight="1" spans="1:6">
+      <c r="A10" s="17"/>
+      <c r="B10" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="C10" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="11"/>
-    </row>
-    <row r="11" ht="16" customHeight="1" spans="1:4">
-      <c r="A11" s="8"/>
-      <c r="B11" s="9" t="s">
+      <c r="C10" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="8"/>
+    </row>
+    <row r="11" ht="16" customHeight="1" spans="1:6">
+      <c r="A11" s="17"/>
+      <c r="B11" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="C11" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="11"/>
+      <c r="C11" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="8"/>
     </row>
     <row r="12" ht="13.35" customHeight="1" spans="1:6">
-      <c r="A12" s="8"/>
-      <c r="B12" s="9" t="s">
+      <c r="A12" s="17"/>
+      <c r="B12" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="C12" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" ht="13.65" customHeight="1" spans="1:4">
-      <c r="A13" s="8" t="s">
+      <c r="C12" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+    </row>
+    <row r="13" ht="13.65" customHeight="1" spans="1:6">
+      <c r="A13" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="C13" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="11"/>
+      <c r="C13" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="8"/>
     </row>
     <row r="14" ht="13.35" customHeight="1" spans="1:6">
-      <c r="A14" s="12"/>
-      <c r="B14" s="9" t="s">
+      <c r="A14" s="18"/>
+      <c r="B14" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="C14" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D14" s="11"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+      <c r="C14" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
     </row>
     <row r="15" ht="13.35" customHeight="1" spans="1:6">
-      <c r="A15" s="12"/>
-      <c r="B15" s="9" t="s">
+      <c r="A15" s="18"/>
+      <c r="B15" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="C15" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" s="11"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
+      <c r="C15" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
     </row>
     <row r="16" ht="13.35" customHeight="1" spans="1:6">
-      <c r="A16" s="12"/>
-      <c r="B16" s="9" t="s">
+      <c r="A16" s="18"/>
+      <c r="B16" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="C16" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16" s="11"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
+      <c r="C16" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
     </row>
     <row r="17" ht="13.35" customHeight="1" spans="1:6">
-      <c r="A17" s="12"/>
-      <c r="B17" s="9" t="s">
+      <c r="A17" s="18"/>
+      <c r="B17" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="C17" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D17" s="11"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
+      <c r="C17" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
     </row>
     <row r="18" ht="13.35" customHeight="1" spans="1:6">
-      <c r="A18" s="12"/>
-      <c r="B18" s="9" t="s">
+      <c r="A18" s="18"/>
+      <c r="B18" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="C18" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D18" s="11"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
+      <c r="C18" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
     </row>
     <row r="19" ht="13.35" customHeight="1" spans="1:6">
-      <c r="A19" s="12"/>
-      <c r="B19" s="9" t="s">
+      <c r="A19" s="18"/>
+      <c r="B19" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="C19" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D19" s="11"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
+      <c r="C19" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
     </row>
     <row r="20" ht="13.35" customHeight="1" spans="1:6">
-      <c r="A20" s="12"/>
-      <c r="B20" s="9" t="s">
+      <c r="A20" s="18"/>
+      <c r="B20" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="C20" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D20" s="11"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
+      <c r="C20" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
     </row>
     <row r="21" ht="13.35" customHeight="1" spans="1:6">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="C21" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D21" s="11"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
+      <c r="C21" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
     </row>
     <row r="22" ht="13.35" customHeight="1" spans="1:6">
-      <c r="A22" s="12"/>
-      <c r="B22" s="9" t="s">
+      <c r="A22" s="18"/>
+      <c r="B22" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="C22" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D22" s="11"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
+      <c r="C22" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
     </row>
     <row r="23" ht="13.35" customHeight="1" spans="1:6">
-      <c r="A23" s="12"/>
-      <c r="B23" s="9" t="s">
+      <c r="A23" s="18"/>
+      <c r="B23" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="C23" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D23" s="11"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
+      <c r="C23" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
     </row>
     <row r="24" ht="13.35" customHeight="1" spans="1:6">
-      <c r="A24" s="12"/>
-      <c r="B24" s="9" t="s">
+      <c r="A24" s="18"/>
+      <c r="B24" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="C24" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D24" s="11"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
+      <c r="C24" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
     </row>
     <row r="25" ht="13.35" customHeight="1" spans="1:6">
-      <c r="A25" s="12"/>
-      <c r="B25" s="9" t="s">
+      <c r="A25" s="18"/>
+      <c r="B25" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="C25" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="D25" s="11"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
+      <c r="C25" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" s="8"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
     </row>
     <row r="26" ht="13.35" customHeight="1" spans="1:6">
-      <c r="A26" s="12"/>
-      <c r="B26" s="9" t="s">
+      <c r="A26" s="18"/>
+      <c r="B26" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="C26" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D26" s="11"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
+      <c r="C26" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D26" s="8"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
     </row>
     <row r="27" ht="13.35" customHeight="1" spans="1:6">
-      <c r="A27" s="12"/>
-      <c r="B27" s="9" t="s">
+      <c r="A27" s="18"/>
+      <c r="B27" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="C27" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D27" s="11"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-    </row>
-    <row r="28" ht="13.35" customHeight="1" spans="1:4">
-      <c r="A28" s="12"/>
-      <c r="B28" s="9" t="s">
+      <c r="C27" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D27" s="8"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+    </row>
+    <row r="28" ht="13.35" customHeight="1" spans="1:6">
+      <c r="A28" s="18"/>
+      <c r="B28" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C28" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="D28" s="11"/>
-    </row>
-    <row r="29" ht="13.65" customHeight="1" spans="1:4">
-      <c r="A29" s="8" t="s">
+      <c r="C28" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" s="8"/>
+    </row>
+    <row r="29" ht="13.65" customHeight="1" spans="1:6">
+      <c r="A29" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="C29" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D29" s="11"/>
-    </row>
-    <row r="30" ht="13.65" customHeight="1" spans="1:4">
-      <c r="A30" s="8"/>
-      <c r="B30" s="9" t="s">
+      <c r="C29" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D29" s="8"/>
+    </row>
+    <row r="30" ht="13.65" customHeight="1" spans="1:6">
+      <c r="A30" s="17"/>
+      <c r="B30" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="C30" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D30" s="11"/>
-    </row>
-    <row r="31" ht="13.65" customHeight="1" spans="1:4">
-      <c r="A31" s="8"/>
-      <c r="B31" s="9" t="s">
+      <c r="C30" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30" s="8"/>
+    </row>
+    <row r="31" ht="13.65" customHeight="1" spans="1:6">
+      <c r="A31" s="17"/>
+      <c r="B31" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="C31" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="D31" s="11"/>
-    </row>
-    <row r="32" ht="13.65" customHeight="1" spans="1:4">
-      <c r="A32" s="8"/>
-      <c r="B32" s="9" t="s">
+      <c r="C31" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31" s="8"/>
+    </row>
+    <row r="32" ht="13.65" customHeight="1" spans="1:6">
+      <c r="A32" s="17"/>
+      <c r="B32" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="C32" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D32" s="11"/>
+      <c r="C32" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D32" s="8"/>
     </row>
     <row r="33" ht="13.65" customHeight="1" spans="1:4">
-      <c r="A33" s="8"/>
-      <c r="B33" s="9" t="s">
+      <c r="A33" s="17"/>
+      <c r="B33" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="C33" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="D33" s="11"/>
+      <c r="C33" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="D33" s="8"/>
     </row>
     <row r="34" ht="13.65" customHeight="1" spans="1:4">
-      <c r="A34" s="8"/>
-      <c r="B34" s="9" t="s">
+      <c r="A34" s="17"/>
+      <c r="B34" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="C34" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D34" s="11"/>
+      <c r="C34" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D34" s="8"/>
     </row>
     <row r="35" ht="13.65" customHeight="1" spans="1:4">
-      <c r="A35" s="8"/>
-      <c r="B35" s="9" t="s">
+      <c r="A35" s="17"/>
+      <c r="B35" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="C35" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="D35" s="11"/>
+      <c r="C35" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="D35" s="8"/>
     </row>
     <row r="36" ht="13.65" customHeight="1" spans="1:4">
-      <c r="A36" s="8"/>
-      <c r="B36" s="9" t="s">
+      <c r="A36" s="17"/>
+      <c r="B36" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C36" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="D36" s="11"/>
+      <c r="C36" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="D36" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -3468,501 +3538,523 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="139" zoomScaleNormal="139" topLeftCell="A21" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="139" zoomScaleNormal="139" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="D34" sqref="D34"/>
+      <selection pane="topRight" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.64423076923077" defaultRowHeight="16.8" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="16.3557692307692" style="1"/>
-    <col min="2" max="2" width="58.6826923076923" style="2" customWidth="1"/>
-    <col min="3" max="4" width="16.3557692307692" style="1"/>
-    <col min="5" max="5" width="19.8365384615385" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.4230769230769" style="1" customWidth="1"/>
-    <col min="7" max="7" width="19.1442307692308" style="1" customWidth="1"/>
-    <col min="8" max="16381" width="16.3557692307692" style="1"/>
-    <col min="16382" max="16384" width="9.64423076923077" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.3557692307692" style="12"/>
+    <col min="2" max="2" width="63.4038461538462" style="13" customWidth="1"/>
+    <col min="3" max="4" width="16.3557692307692" style="12"/>
+    <col min="5" max="5" width="19.8365384615385" style="12" customWidth="1"/>
+    <col min="6" max="6" width="18.4230769230769" style="12" customWidth="1"/>
+    <col min="7" max="7" width="19.1442307692308" style="12" customWidth="1"/>
+    <col min="8" max="16381" width="16.3557692307692" style="12"/>
+    <col min="16382" max="16384" width="9.64423076923077" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13" customHeight="1" spans="1:4">
-      <c r="A1" s="3" t="s">
+    <row r="1" ht="13" customHeight="1" spans="1:6">
+      <c r="A1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-    </row>
-    <row r="2" ht="13" customHeight="1" spans="1:4">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-    </row>
-    <row r="3" ht="13" customHeight="1" spans="1:4">
-      <c r="A3" s="3"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-    </row>
-    <row r="4" ht="14" customHeight="1" spans="1:4">
-      <c r="A4" s="5" t="s">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" ht="13" customHeight="1" spans="1:6">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" ht="13" customHeight="1" spans="1:6">
+      <c r="A3" s="1"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" ht="14" customHeight="1" spans="1:6">
+      <c r="A4" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="7" t="s">
+      <c r="B4" s="15"/>
+      <c r="C4" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="16" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="5" ht="16" customHeight="1" spans="1:4">
-      <c r="A5" s="8" t="s">
+    <row r="5" ht="16" customHeight="1" spans="1:6">
+      <c r="A5" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" s="11"/>
-    </row>
-    <row r="6" ht="16" customHeight="1" spans="1:4">
-      <c r="A6" s="8"/>
-      <c r="B6" s="9" t="s">
+      <c r="C5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="8"/>
+    </row>
+    <row r="6" ht="16" customHeight="1" spans="1:6">
+      <c r="A6" s="17"/>
+      <c r="B6" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="11"/>
-    </row>
-    <row r="7" ht="16" customHeight="1" spans="1:4">
-      <c r="A7" s="8"/>
-      <c r="B7" s="9" t="s">
+      <c r="C6" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="8"/>
+    </row>
+    <row r="7" ht="16" customHeight="1" spans="1:6">
+      <c r="A7" s="17"/>
+      <c r="B7" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="11"/>
-    </row>
-    <row r="8" ht="16" customHeight="1" spans="1:4">
-      <c r="A8" s="8"/>
-      <c r="B8" s="9" t="s">
+      <c r="C7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="8"/>
+    </row>
+    <row r="8" ht="16" customHeight="1" spans="1:6">
+      <c r="A8" s="17"/>
+      <c r="B8" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" s="11"/>
-    </row>
-    <row r="9" ht="16" customHeight="1" spans="1:4">
-      <c r="A9" s="8"/>
-      <c r="B9" s="9" t="s">
+      <c r="C8" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="8"/>
+    </row>
+    <row r="9" ht="16" customHeight="1" spans="1:6">
+      <c r="A9" s="17"/>
+      <c r="B9" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" s="11"/>
+      <c r="C9" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="8"/>
     </row>
     <row r="10" ht="13.35" customHeight="1" spans="1:6">
-      <c r="A10" s="8"/>
-      <c r="B10" s="9" t="s">
+      <c r="A10" s="17"/>
+      <c r="B10" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C10" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" ht="13.65" customHeight="1" spans="1:4">
-      <c r="A11" s="8" t="s">
+      <c r="C10" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+    </row>
+    <row r="11" ht="13.65" customHeight="1" spans="1:6">
+      <c r="A11" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="C11" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="11">
+      <c r="C11" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="12" ht="13.35" customHeight="1" spans="1:6">
-      <c r="A12" s="12"/>
-      <c r="B12" s="9" t="s">
+      <c r="A12" s="18"/>
+      <c r="B12" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="C12" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="C12" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
     </row>
     <row r="13" ht="13.35" customHeight="1" spans="1:6">
-      <c r="A13" s="12"/>
-      <c r="B13" s="9" t="s">
+      <c r="A13" s="18"/>
+      <c r="B13" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="C13" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
+      <c r="C13" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
     </row>
     <row r="14" ht="13.35" customHeight="1" spans="1:6">
-      <c r="A14" s="12"/>
-      <c r="B14" s="9" t="s">
+      <c r="A14" s="18"/>
+      <c r="B14" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="C14" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D14" s="11"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+      <c r="C14" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
     </row>
     <row r="15" ht="13.35" customHeight="1" spans="1:6">
-      <c r="A15" s="12"/>
-      <c r="B15" s="9" t="s">
+      <c r="A15" s="18"/>
+      <c r="B15" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="C15" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" s="11"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
+      <c r="C15" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
     </row>
     <row r="16" ht="13.35" customHeight="1" spans="1:6">
-      <c r="A16" s="12"/>
-      <c r="B16" s="9" t="s">
+      <c r="A16" s="18"/>
+      <c r="B16" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="C16" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16" s="11"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
+      <c r="C16" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
     </row>
     <row r="17" ht="13.35" customHeight="1" spans="1:6">
-      <c r="A17" s="12"/>
-      <c r="B17" s="9" t="s">
+      <c r="A17" s="18"/>
+      <c r="B17" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="C17" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D17" s="11"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
+      <c r="C17" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
     </row>
     <row r="18" ht="13.35" customHeight="1" spans="1:6">
-      <c r="A18" s="12"/>
-      <c r="B18" s="9" t="s">
+      <c r="A18" s="18"/>
+      <c r="B18" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="C18" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D18" s="11"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
+      <c r="C18" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
     </row>
     <row r="19" ht="13.35" customHeight="1" spans="1:6">
-      <c r="A19" s="12"/>
-      <c r="B19" s="9" t="s">
+      <c r="A19" s="18"/>
+      <c r="B19" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C19" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" s="11"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
+      <c r="C19" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
     </row>
     <row r="20" ht="13.35" customHeight="1" spans="1:6">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="C20" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D20" s="3" t="s">
+      <c r="C20" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
     </row>
     <row r="21" ht="13.35" customHeight="1" spans="1:6">
-      <c r="A21" s="12"/>
-      <c r="B21" s="9" t="s">
+      <c r="A21" s="18"/>
+      <c r="B21" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="C21" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D21" s="3"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
+      <c r="C21" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
     </row>
     <row r="22" ht="13.35" customHeight="1" spans="1:6">
-      <c r="A22" s="12"/>
-      <c r="B22" s="9" t="s">
+      <c r="A22" s="18"/>
+      <c r="B22" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="C22" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D22" s="3"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
+      <c r="C22" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
     </row>
     <row r="23" ht="13.35" customHeight="1" spans="1:6">
-      <c r="A23" s="12"/>
-      <c r="B23" s="9" t="s">
+      <c r="A23" s="18"/>
+      <c r="B23" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="C23" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D23" s="3"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
+      <c r="C23" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
     </row>
     <row r="24" ht="13.35" customHeight="1" spans="1:6">
-      <c r="A24" s="12"/>
-      <c r="B24" s="9" t="s">
+      <c r="A24" s="18"/>
+      <c r="B24" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="C24" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D24" s="3"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
+      <c r="C24" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
     </row>
     <row r="25" ht="13.35" customHeight="1" spans="1:6">
-      <c r="A25" s="12"/>
-      <c r="B25" s="9" t="s">
+      <c r="A25" s="18"/>
+      <c r="B25" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="C25" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D25" s="3"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
+      <c r="C25" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" s="1"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
     </row>
     <row r="26" ht="13.35" customHeight="1" spans="1:6">
-      <c r="A26" s="12"/>
-      <c r="B26" s="9" t="s">
+      <c r="A26" s="18"/>
+      <c r="B26" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="C26" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D26" s="3"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
+      <c r="C26" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" s="1"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
     </row>
     <row r="27" ht="13.35" customHeight="1" spans="1:6">
-      <c r="A27" s="12"/>
-      <c r="B27" s="9" t="s">
+      <c r="A27" s="18"/>
+      <c r="B27" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="C27" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D27" s="3"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-    </row>
-    <row r="28" ht="13.35" customHeight="1" spans="1:4">
-      <c r="A28" s="12"/>
-      <c r="B28" s="9" t="s">
+      <c r="C27" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" s="1"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+    </row>
+    <row r="28" ht="13.35" customHeight="1" spans="1:6">
+      <c r="A28" s="18"/>
+      <c r="B28" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C28" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D28" s="14"/>
-    </row>
-    <row r="29" ht="13.65" customHeight="1" spans="1:4">
-      <c r="A29" s="15" t="s">
+      <c r="C28" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" s="19"/>
+    </row>
+    <row r="29" ht="13.65" customHeight="1" spans="1:6">
+      <c r="A29" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="C29" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D29" s="11">
+      <c r="C29" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29" s="8">
         <v>660</v>
       </c>
     </row>
-    <row r="30" ht="13.65" customHeight="1" spans="1:4">
-      <c r="A30" s="15"/>
-      <c r="B30" s="9" t="s">
+    <row r="30" ht="13.65" customHeight="1" spans="1:6">
+      <c r="A30" s="5"/>
+      <c r="B30" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="C30" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D30" s="11"/>
-    </row>
-    <row r="31" ht="13.65" customHeight="1" spans="1:4">
-      <c r="A31" s="15"/>
-      <c r="B31" s="9" t="s">
+      <c r="C30" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30" s="8"/>
+    </row>
+    <row r="31" ht="13.65" customHeight="1" spans="1:6">
+      <c r="A31" s="5"/>
+      <c r="B31" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="C31" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D31" s="11"/>
-    </row>
-    <row r="32" ht="13.65" customHeight="1" spans="1:4">
-      <c r="A32" s="15"/>
-      <c r="B32" s="9" t="s">
+      <c r="C31" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31" s="8"/>
+    </row>
+    <row r="32" ht="13.65" customHeight="1" spans="1:6">
+      <c r="A32" s="5"/>
+      <c r="B32" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="C32" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D32" s="11"/>
+      <c r="C32" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D32" s="8"/>
     </row>
     <row r="33" ht="13.65" customHeight="1" spans="1:4">
-      <c r="A33" s="15"/>
-      <c r="B33" s="9" t="s">
+      <c r="A33" s="5"/>
+      <c r="B33" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="C33" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D33" s="11"/>
+      <c r="C33" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D33" s="8"/>
     </row>
     <row r="34" ht="13.65" customHeight="1" spans="1:4">
-      <c r="A34" s="15"/>
-      <c r="B34" s="9" t="s">
+      <c r="A34" s="5"/>
+      <c r="B34" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="C34" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D34" s="11" t="s">
+      <c r="C34" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D34" s="8" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="35" ht="13.65" customHeight="1" spans="1:4">
-      <c r="A35" s="15"/>
-      <c r="B35" s="9" t="s">
+      <c r="A35" s="5"/>
+      <c r="B35" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="C35" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D35" s="11"/>
+      <c r="C35" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D35" s="8"/>
     </row>
     <row r="36" ht="13.65" customHeight="1" spans="1:4">
-      <c r="A36" s="15"/>
-      <c r="B36" s="9" t="s">
+      <c r="A36" s="5"/>
+      <c r="B36" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="C36" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D36" s="11"/>
+      <c r="C36" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D36" s="8"/>
     </row>
     <row r="37" ht="17" spans="1:4">
-      <c r="A37" s="15" t="s">
+      <c r="A37" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="B37" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="C37" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D37" s="11"/>
+      <c r="B37" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="38" ht="17" spans="1:4">
-      <c r="A38" s="15"/>
-      <c r="B38" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="C38" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D38" s="11"/>
-    </row>
-    <row r="39" ht="17" spans="1:4">
-      <c r="A39" s="15"/>
-      <c r="B39" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="C39" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D39" s="11"/>
+      <c r="A38" s="20"/>
+      <c r="B38" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D38" s="8"/>
+    </row>
+    <row r="39" ht="17" customHeight="1" spans="1:4">
+      <c r="A39" s="20"/>
+      <c r="B39" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D39" s="8"/>
     </row>
     <row r="40" ht="17" spans="1:4">
-      <c r="A40" s="15"/>
-      <c r="B40" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="C40" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D40" s="11"/>
+      <c r="A40" s="20"/>
+      <c r="B40" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D40" s="8"/>
     </row>
     <row r="41" ht="17" spans="1:4">
-      <c r="A41" s="15"/>
-      <c r="B41" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="C41" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D41" s="11"/>
+      <c r="A41" s="20"/>
+      <c r="B41" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D41" s="8"/>
     </row>
     <row r="42" ht="17" spans="1:4">
-      <c r="A42" s="15"/>
-      <c r="B42" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="C42" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D42" s="11"/>
+      <c r="A42" s="20"/>
+      <c r="B42" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D42" s="8"/>
     </row>
     <row r="43" ht="17" spans="1:4">
-      <c r="A43" s="15"/>
-      <c r="B43" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="C43" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D43" s="11"/>
+      <c r="A43" s="20"/>
+      <c r="B43" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D43" s="8"/>
+    </row>
+    <row r="44" ht="17" spans="1:4">
+      <c r="A44" s="20"/>
+      <c r="B44" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D44" s="22"/>
+    </row>
+    <row r="45" ht="17" spans="1:4">
+      <c r="A45" s="23"/>
+      <c r="B45" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D45" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -3974,11 +4066,11 @@
     <mergeCell ref="A11:A19"/>
     <mergeCell ref="A20:A28"/>
     <mergeCell ref="A29:A36"/>
-    <mergeCell ref="A37:A43"/>
+    <mergeCell ref="A37:A45"/>
     <mergeCell ref="D20:D28"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C30 C33 C5:C29 C31:C32 C34:C40 C41:C43">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C45">
       <formula1>"未进行,进行中,已暂停,已完成"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3988,4 +4080,445 @@
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="3"/>
+  <cols>
+    <col min="2" max="2" width="102.567307692308" customWidth="1"/>
+    <col min="3" max="3" width="10.8942307692308" customWidth="1"/>
+    <col min="4" max="4" width="19.2211538461538" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" ht="17" spans="1:4">
+      <c r="A5" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="8">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="6" ht="17" spans="1:4">
+      <c r="A6" s="5"/>
+      <c r="B6" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="8"/>
+    </row>
+    <row r="7" ht="17" spans="1:4">
+      <c r="A7" s="5"/>
+      <c r="B7" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="8"/>
+    </row>
+    <row r="8" ht="17" spans="1:4">
+      <c r="A8" s="5"/>
+      <c r="B8" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="8"/>
+    </row>
+    <row r="9" ht="17" spans="1:4">
+      <c r="A9" s="5"/>
+      <c r="B9" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="8"/>
+    </row>
+    <row r="10" ht="17" spans="1:4">
+      <c r="A10" s="5"/>
+      <c r="B10" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="8"/>
+    </row>
+    <row r="11" ht="17" spans="1:4">
+      <c r="A11" s="5"/>
+      <c r="B11" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="8"/>
+    </row>
+    <row r="12" ht="17" spans="1:4">
+      <c r="A12" s="5"/>
+      <c r="B12" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="8"/>
+    </row>
+    <row r="13" ht="17" spans="1:4">
+      <c r="A13" s="5"/>
+      <c r="B13" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="6"/>
+    </row>
+    <row r="14" ht="17" spans="1:4">
+      <c r="A14" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="8"/>
+    </row>
+    <row r="15" ht="17" spans="1:4">
+      <c r="A15" s="5"/>
+      <c r="B15" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="8"/>
+    </row>
+    <row r="16" ht="17" spans="1:4">
+      <c r="A16" s="5"/>
+      <c r="B16" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="8"/>
+    </row>
+    <row r="17" ht="17" spans="1:4">
+      <c r="A17" s="5"/>
+      <c r="B17" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="8"/>
+    </row>
+    <row r="18" ht="17" spans="1:4">
+      <c r="A18" s="5"/>
+      <c r="B18" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="8"/>
+    </row>
+    <row r="19" ht="17" spans="1:4">
+      <c r="A19" s="5"/>
+      <c r="B19" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="8"/>
+    </row>
+    <row r="20" ht="17" spans="1:4">
+      <c r="A20" s="5"/>
+      <c r="B20" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="8"/>
+    </row>
+    <row r="21" ht="17" spans="1:4">
+      <c r="A21" s="5"/>
+      <c r="B21" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="8"/>
+    </row>
+    <row r="22" ht="17" spans="1:4">
+      <c r="A22" s="5"/>
+      <c r="B22" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="8"/>
+    </row>
+    <row r="23" ht="17" spans="1:4">
+      <c r="A23" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" s="8"/>
+    </row>
+    <row r="24" ht="17" spans="1:4">
+      <c r="A24" s="5"/>
+      <c r="B24" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="8"/>
+    </row>
+    <row r="25" ht="17" spans="1:4">
+      <c r="A25" s="5"/>
+      <c r="B25" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" s="8"/>
+    </row>
+    <row r="26" ht="17" spans="1:4">
+      <c r="A26" s="5"/>
+      <c r="B26" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" s="8"/>
+    </row>
+    <row r="27" ht="17" spans="1:4">
+      <c r="A27" s="5"/>
+      <c r="B27" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" s="8"/>
+    </row>
+    <row r="28" ht="17" spans="1:4">
+      <c r="A28" s="5"/>
+      <c r="B28" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" s="8"/>
+    </row>
+    <row r="29" ht="17" spans="1:4">
+      <c r="A29" s="5"/>
+      <c r="B29" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29" s="8"/>
+    </row>
+    <row r="30" ht="17" spans="1:4">
+      <c r="A30" s="5"/>
+      <c r="B30" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D30" s="8"/>
+    </row>
+    <row r="31" ht="17" spans="1:4">
+      <c r="A31" s="5"/>
+      <c r="B31" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31" s="8"/>
+    </row>
+    <row r="32" ht="17" spans="1:4">
+      <c r="A32" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D32" s="8"/>
+    </row>
+    <row r="33" ht="17" spans="1:4">
+      <c r="A33" s="5"/>
+      <c r="B33" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D33" s="8"/>
+    </row>
+    <row r="34" ht="17" spans="1:4">
+      <c r="A34" s="5"/>
+      <c r="B34" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D34" s="8"/>
+    </row>
+    <row r="35" ht="17" spans="1:4">
+      <c r="A35" s="5"/>
+      <c r="B35" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D35" s="8"/>
+    </row>
+    <row r="36" ht="17" spans="1:4">
+      <c r="A36" s="5"/>
+      <c r="B36" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D36" s="8"/>
+    </row>
+    <row r="37" ht="17" spans="1:4">
+      <c r="A37" s="5"/>
+      <c r="B37" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D37" s="8"/>
+    </row>
+    <row r="38" ht="17" spans="1:4">
+      <c r="A38" s="5"/>
+      <c r="B38" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D38" s="8"/>
+    </row>
+    <row r="39" ht="17" spans="1:4">
+      <c r="A39" s="5"/>
+      <c r="B39" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D39" s="8"/>
+    </row>
+    <row r="40" ht="17" spans="1:4">
+      <c r="A40" s="5"/>
+      <c r="B40" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D40" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="A5:A13"/>
+    <mergeCell ref="A14:A22"/>
+    <mergeCell ref="A23:A31"/>
+    <mergeCell ref="A32:A40"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7 C8 C9 C10 C11 C12 C13 C5:C6 C14:C40">
+      <formula1>"未进行,进行中,已暂停,已完成"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/file/personal/roleImportant/角色要事记录表_2025.xlsx
+++ b/file/personal/roleImportant/角色要事记录表_2025.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22800" windowHeight="13160" tabRatio="500" firstSheet="1" activeTab="6"/>
+    <workbookView windowWidth="22800" windowHeight="13160" tabRatio="500" firstSheet="3" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="角色目录" sheetId="1" r:id="rId1"/>
@@ -14,6 +14,9 @@
     <sheet name="九月" sheetId="5" r:id="rId5"/>
     <sheet name="十月" sheetId="6" r:id="rId6"/>
     <sheet name="十一月" sheetId="7" r:id="rId7"/>
+    <sheet name="十二月" sheetId="8" r:id="rId8"/>
+    <sheet name="一月" sheetId="9" r:id="rId9"/>
+    <sheet name="二月" sheetId="10" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">待办任务!$A$1:$D$32</definedName>
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="155">
   <si>
     <t>角色</t>
   </si>
@@ -517,6 +520,33 @@
   </si>
   <si>
     <t>综应试卷1+练字4(硬/限时)</t>
+  </si>
+  <si>
+    <t>视频:每周10(综应1-9)</t>
+  </si>
+  <si>
+    <t>理论知识:职测1遍、综应1遍</t>
+  </si>
+  <si>
+    <t>成语积累:每天30</t>
+  </si>
+  <si>
+    <t>职测:工作日每天20、每周末100</t>
+  </si>
+  <si>
+    <t>综应:工作日每周一篇、每周末一篇</t>
+  </si>
+  <si>
+    <t>视频:每周10</t>
+  </si>
+  <si>
+    <t>职测:工作日每天10、每周末50</t>
+  </si>
+  <si>
+    <t>综应:每天一篇</t>
+  </si>
+  <si>
+    <t>书籍知识:每天5页纸</t>
   </si>
 </sst>
 </file>
@@ -733,6 +763,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.25"/>
+        <bgColor rgb="FF92D050"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF77BC65"/>
         <bgColor rgb="FF92D050"/>
       </patternFill>
@@ -741,12 +777,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.25"/>
-        <bgColor rgb="FF92D050"/>
       </patternFill>
     </fill>
     <fill>
@@ -1457,7 +1487,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1489,9 +1519,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -2003,231 +2030,231 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.64423076923077" defaultRowHeight="16.8" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="14.4134615384615" style="12" customWidth="1"/>
-    <col min="2" max="16384" width="6" style="12"/>
+    <col min="1" max="1" width="14.4134615384615" style="11" customWidth="1"/>
+    <col min="2" max="16384" width="6" style="11"/>
   </cols>
   <sheetData>
     <row r="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
     </row>
     <row r="2" ht="14" customHeight="1" spans="1:5">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
     </row>
     <row r="3" ht="14" customHeight="1" spans="1:5">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
     </row>
     <row r="4" ht="14" customHeight="1" spans="1:5">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="45"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
     </row>
     <row r="5" ht="14" customHeight="1" spans="1:5">
-      <c r="A5" s="48"/>
-      <c r="B5" s="45"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
+      <c r="A5" s="47"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
     </row>
     <row r="6" ht="14" customHeight="1" spans="1:5">
-      <c r="A6" s="48"/>
-      <c r="B6" s="45"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
+      <c r="A6" s="47"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
     </row>
     <row r="7" ht="14" customHeight="1" spans="1:5">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="45"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
     </row>
     <row r="8" ht="14" customHeight="1" spans="1:5">
-      <c r="A8" s="48"/>
-      <c r="B8" s="45"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
+      <c r="A8" s="47"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
     </row>
     <row r="9" ht="14" customHeight="1" spans="1:5">
-      <c r="A9" s="48"/>
-      <c r="B9" s="45"/>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
+      <c r="A9" s="47"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
     </row>
     <row r="10" ht="14" customHeight="1" spans="1:5">
-      <c r="A10" s="48" t="s">
+      <c r="A10" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="45"/>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="46"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
     </row>
     <row r="11" ht="14" customHeight="1" spans="1:5">
-      <c r="A11" s="48" t="s">
+      <c r="A11" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="45"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="46"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
     </row>
     <row r="12" ht="14" customHeight="1" spans="1:5">
-      <c r="A12" s="48" t="s">
+      <c r="A12" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="45"/>
-      <c r="C12" s="46"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
     </row>
     <row r="13" ht="14" customHeight="1" spans="1:5">
-      <c r="A13" s="48" t="s">
+      <c r="A13" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="45"/>
-      <c r="C13" s="46"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="46"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
     </row>
     <row r="14" ht="14" customHeight="1" spans="1:5">
-      <c r="A14" s="48" t="s">
+      <c r="A14" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="45"/>
-      <c r="C14" s="46"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="46"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
     </row>
     <row r="15" ht="14" customHeight="1" spans="1:5">
-      <c r="A15" s="48" t="s">
+      <c r="A15" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="45"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="46"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
     </row>
     <row r="16" ht="14" customHeight="1" spans="1:5">
-      <c r="A16" s="48" t="s">
+      <c r="A16" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="45"/>
-      <c r="C16" s="46"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="46"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
     </row>
     <row r="17" ht="14" customHeight="1" spans="1:5">
-      <c r="A17" s="48" t="s">
+      <c r="A17" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="45"/>
-      <c r="C17" s="46"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="46"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
     </row>
     <row r="18" ht="14" customHeight="1" spans="1:5">
-      <c r="A18" s="48" t="s">
+      <c r="A18" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="45"/>
-      <c r="C18" s="46"/>
-      <c r="D18" s="46"/>
-      <c r="E18" s="46"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
     </row>
     <row r="19" ht="14" customHeight="1" spans="1:5">
-      <c r="A19" s="48" t="s">
+      <c r="A19" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="45"/>
-      <c r="C19" s="46"/>
-      <c r="D19" s="46"/>
-      <c r="E19" s="46"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="45"/>
     </row>
     <row r="20" ht="14" customHeight="1" spans="1:5">
-      <c r="A20" s="48" t="s">
+      <c r="A20" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="45"/>
-      <c r="C20" s="46"/>
-      <c r="D20" s="46"/>
-      <c r="E20" s="46"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
     </row>
     <row r="21" ht="14" customHeight="1" spans="1:5">
-      <c r="A21" s="48" t="s">
+      <c r="A21" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="45"/>
-      <c r="C21" s="46"/>
-      <c r="D21" s="46"/>
-      <c r="E21" s="46"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="45"/>
     </row>
     <row r="22" ht="14" customHeight="1" spans="1:5">
-      <c r="A22" s="48" t="s">
+      <c r="A22" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="45"/>
-      <c r="C22" s="46"/>
-      <c r="D22" s="46"/>
-      <c r="E22" s="46"/>
+      <c r="B22" s="44"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="45"/>
     </row>
     <row r="23" ht="14" customHeight="1" spans="1:5">
-      <c r="A23" s="47" t="s">
+      <c r="A23" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="45"/>
-      <c r="C23" s="46"/>
-      <c r="D23" s="46"/>
-      <c r="E23" s="46"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="45"/>
     </row>
     <row r="26" ht="13.5" customHeight="1" spans="1:5">
-      <c r="A26" s="49" t="s">
+      <c r="A26" s="48" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="27" ht="13.5" customHeight="1" spans="1:5">
-      <c r="A27" s="30" t="s">
+      <c r="A27" s="29" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="28" ht="13.5" customHeight="1" spans="1:5">
-      <c r="A28" s="40" t="s">
+      <c r="A28" s="39" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="29" ht="13.5" customHeight="1" spans="1:5">
-      <c r="A29" s="36" t="s">
+      <c r="A29" s="35" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="30" ht="13.5" customHeight="1" spans="1:5">
-      <c r="A30" s="39" t="s">
+      <c r="A30" s="38" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2241,6 +2268,325 @@
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;P</oddFooter>
   </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="3"/>
+  <cols>
+    <col min="2" max="2" width="102.567307692308" customWidth="1"/>
+    <col min="3" max="3" width="10.8942307692308" customWidth="1"/>
+    <col min="4" max="4" width="19.2211538461538" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" ht="17" spans="1:4">
+      <c r="A5" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="8"/>
+    </row>
+    <row r="6" ht="17" spans="1:4">
+      <c r="A6" s="5"/>
+      <c r="B6" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="8"/>
+    </row>
+    <row r="7" ht="17" spans="1:4">
+      <c r="A7" s="5"/>
+      <c r="B7" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="8"/>
+    </row>
+    <row r="8" ht="17" spans="1:4">
+      <c r="A8" s="5"/>
+      <c r="B8" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="8"/>
+    </row>
+    <row r="9" ht="17" spans="1:4">
+      <c r="A9" s="5"/>
+      <c r="B9" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="8"/>
+    </row>
+    <row r="10" ht="17" spans="1:4">
+      <c r="A10" s="5"/>
+      <c r="B10" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="8"/>
+    </row>
+    <row r="11" ht="17" spans="1:4">
+      <c r="A11" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="8"/>
+    </row>
+    <row r="12" ht="17" spans="1:4">
+      <c r="A12" s="5"/>
+      <c r="B12" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="8"/>
+    </row>
+    <row r="13" ht="17" spans="1:4">
+      <c r="A13" s="5"/>
+      <c r="B13" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="8"/>
+    </row>
+    <row r="14" ht="17" spans="1:4">
+      <c r="A14" s="5"/>
+      <c r="B14" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="8"/>
+    </row>
+    <row r="15" ht="17" spans="1:4">
+      <c r="A15" s="5"/>
+      <c r="B15" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="8"/>
+    </row>
+    <row r="16" ht="17" spans="1:4">
+      <c r="A16" s="5"/>
+      <c r="B16" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="8"/>
+    </row>
+    <row r="17" ht="17" spans="1:4">
+      <c r="A17" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="8"/>
+    </row>
+    <row r="18" ht="17" spans="1:4">
+      <c r="A18" s="5"/>
+      <c r="B18" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="8"/>
+    </row>
+    <row r="19" ht="17" spans="1:4">
+      <c r="A19" s="5"/>
+      <c r="B19" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="8"/>
+    </row>
+    <row r="20" ht="17" spans="1:4">
+      <c r="A20" s="5"/>
+      <c r="B20" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="8"/>
+    </row>
+    <row r="21" ht="17" spans="1:4">
+      <c r="A21" s="5"/>
+      <c r="B21" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="8"/>
+    </row>
+    <row r="22" ht="17" spans="1:4">
+      <c r="A22" s="5"/>
+      <c r="B22" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="8"/>
+    </row>
+    <row r="23" ht="17" spans="1:4">
+      <c r="A23" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" s="8"/>
+    </row>
+    <row r="24" ht="17" spans="1:4">
+      <c r="A24" s="5"/>
+      <c r="B24" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="8"/>
+    </row>
+    <row r="25" ht="17" spans="1:4">
+      <c r="A25" s="5"/>
+      <c r="B25" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" s="8"/>
+    </row>
+    <row r="26" ht="17" spans="1:4">
+      <c r="A26" s="5"/>
+      <c r="B26" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" s="8"/>
+    </row>
+    <row r="27" ht="17" spans="1:4">
+      <c r="A27" s="5"/>
+      <c r="B27" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" s="8"/>
+    </row>
+    <row r="28" ht="17" spans="1:4">
+      <c r="A28" s="5"/>
+      <c r="B28" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="A5:A10"/>
+    <mergeCell ref="A11:A16"/>
+    <mergeCell ref="A17:A22"/>
+    <mergeCell ref="A23:A28"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C24 C25 C26 C27 C28 C5:C23">
+      <formula1>"未进行,进行中,已暂停,已完成"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
@@ -2261,305 +2607,305 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.64423076923077" defaultRowHeight="16.8" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="16.3557692307692" style="12"/>
-    <col min="2" max="2" width="99.1153846153846" style="13" customWidth="1"/>
-    <col min="3" max="3" width="14.0961538461538" style="13" customWidth="1"/>
-    <col min="4" max="4" width="16.3557692307692" style="12"/>
-    <col min="5" max="5" width="18.2692307692308" style="12" customWidth="1"/>
-    <col min="6" max="6" width="17.7788461538462" style="12" customWidth="1"/>
-    <col min="7" max="16384" width="16.3557692307692" style="12"/>
+    <col min="1" max="1" width="16.3557692307692" style="11"/>
+    <col min="2" max="2" width="99.1153846153846" style="12" customWidth="1"/>
+    <col min="3" max="3" width="14.0961538461538" style="12" customWidth="1"/>
+    <col min="4" max="4" width="16.3557692307692" style="11"/>
+    <col min="5" max="5" width="18.2692307692308" style="11" customWidth="1"/>
+    <col min="6" max="6" width="17.7788461538462" style="11" customWidth="1"/>
+    <col min="7" max="16384" width="16.3557692307692" style="11"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.55" customHeight="1" spans="1:6">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="26" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" ht="13.35" hidden="1" customHeight="1" spans="1:6">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="D2" s="30" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="3" ht="13.35" hidden="1" customHeight="1" spans="1:6">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="30" t="s">
+      <c r="B3" s="32"/>
+      <c r="C3" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="31" t="s">
+      <c r="D3" s="30" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="4" ht="13.35" hidden="1" customHeight="1" spans="1:6">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="30" t="s">
+      <c r="B4" s="32"/>
+      <c r="C4" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="D4" s="30" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="5" ht="13.35" hidden="1" customHeight="1" spans="1:6">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="30" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="6" ht="13" hidden="1" customHeight="1" spans="1:6">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="31" t="s">
         <v>35</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" s="12" t="s">
+      <c r="D6" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="11" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="7" ht="13" hidden="1" customHeight="1" spans="1:6">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="34" t="s">
         <v>39</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="36" t="s">
+      <c r="C7" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
+      <c r="D7" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
     </row>
     <row r="8" ht="13" hidden="1" customHeight="1" spans="1:6">
-      <c r="A8" s="35"/>
+      <c r="A8" s="34"/>
       <c r="B8" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="36" t="s">
+      <c r="C8" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="34" t="s">
+      <c r="D8" s="33" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="9" ht="13" hidden="1" customHeight="1" spans="1:6">
-      <c r="A9" s="35"/>
+      <c r="A9" s="34"/>
       <c r="B9" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="36" t="s">
+      <c r="C9" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="34" t="s">
+      <c r="D9" s="33" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="10" ht="13" hidden="1" customHeight="1" spans="1:6">
-      <c r="A10" s="35"/>
+      <c r="A10" s="34"/>
       <c r="B10" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="36" t="s">
+      <c r="C10" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="34" t="s">
+      <c r="D10" s="33" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="11" ht="13" hidden="1" customHeight="1" spans="1:6">
-      <c r="A11" s="35"/>
-      <c r="B11" s="37" t="s">
+      <c r="A11" s="34"/>
+      <c r="B11" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="36" t="s">
+      <c r="C11" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="34" t="s">
+      <c r="D11" s="33" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="12" ht="13" hidden="1" customHeight="1" spans="1:6">
-      <c r="A12" s="35"/>
+      <c r="A12" s="34"/>
       <c r="B12" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="36" t="s">
+      <c r="C12" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="34" t="s">
+      <c r="D12" s="33" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="13" ht="13" customHeight="1" spans="1:6">
-      <c r="A13" s="35"/>
+      <c r="A13" s="34"/>
       <c r="B13" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="36" t="s">
+      <c r="C13" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="38" t="s">
+      <c r="D13" s="37" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="14" ht="13" customHeight="1" spans="1:6">
-      <c r="A14" s="35"/>
+      <c r="A14" s="34"/>
       <c r="B14" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="36" t="s">
+      <c r="C14" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="38" t="s">
+      <c r="D14" s="37" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="15" ht="13" customHeight="1" spans="1:6">
-      <c r="A15" s="35"/>
+      <c r="A15" s="34"/>
       <c r="B15" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C15" s="36" t="s">
+      <c r="C15" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="38" t="s">
+      <c r="D15" s="37" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="16" ht="13" customHeight="1" spans="1:6">
-      <c r="A16" s="35"/>
+      <c r="A16" s="34"/>
       <c r="B16" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="36" t="s">
+      <c r="C16" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="38" t="s">
+      <c r="D16" s="37" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="17" ht="13" customHeight="1" spans="1:5">
-      <c r="A17" s="35"/>
+      <c r="A17" s="34"/>
       <c r="B17" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="36" t="s">
+      <c r="C17" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="38" t="s">
+      <c r="D17" s="37" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="18" ht="13" customHeight="1" spans="1:5">
-      <c r="A18" s="35" t="s">
+      <c r="A18" s="34" t="s">
         <v>52</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C18" s="39" t="s">
+      <c r="C18" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="38" t="s">
+      <c r="D18" s="37" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="19" ht="13" customHeight="1" spans="1:5">
-      <c r="A19" s="35"/>
+      <c r="A19" s="34"/>
       <c r="B19" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="39" t="s">
+      <c r="C19" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="38" t="s">
+      <c r="D19" s="37" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="20" ht="13" customHeight="1" spans="1:5">
-      <c r="A20" s="35"/>
+      <c r="A20" s="34"/>
       <c r="B20" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C20" s="39" t="s">
+      <c r="C20" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="38" t="s">
+      <c r="D20" s="37" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="21" ht="13" customHeight="1" spans="1:5">
-      <c r="A21" s="35"/>
+      <c r="A21" s="34"/>
       <c r="B21" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C21" s="39" t="s">
+      <c r="C21" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="38" t="s">
+      <c r="D21" s="37" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="22" ht="13" customHeight="1" spans="1:5">
-      <c r="A22" s="35"/>
+      <c r="A22" s="34"/>
       <c r="B22" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C22" s="39" t="s">
+      <c r="C22" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="38" t="s">
+      <c r="D22" s="37" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="23" ht="13" customHeight="1" spans="1:5">
-      <c r="A23" s="35"/>
+      <c r="A23" s="34"/>
       <c r="B23" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C23" s="39" t="s">
+      <c r="C23" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="D23" s="38" t="s">
+      <c r="D23" s="37" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2570,10 +2916,10 @@
       <c r="B24" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C24" s="40" t="s">
+      <c r="C24" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="D24" s="41" t="s">
+      <c r="D24" s="40" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2582,24 +2928,24 @@
       <c r="B25" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C25" s="40" t="s">
+      <c r="C25" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="D25" s="41" t="s">
+      <c r="D25" s="40" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="26" ht="13" hidden="1" customHeight="1" spans="1:5">
-      <c r="A26" s="22" t="s">
+      <c r="A26" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="B26" s="42" t="s">
+      <c r="B26" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="C26" s="36" t="s">
+      <c r="C26" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="D26" s="34" t="s">
+      <c r="D26" s="33" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2610,10 +2956,10 @@
       <c r="B27" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C27" s="30" t="s">
+      <c r="C27" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="D27" s="43" t="s">
+      <c r="D27" s="42" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2624,13 +2970,13 @@
       <c r="B28" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C28" s="36" t="s">
+      <c r="C28" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="D28" s="43" t="s">
+      <c r="D28" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="E28" s="12" t="s">
+      <c r="E28" s="11" t="s">
         <v>68</v>
       </c>
     </row>
@@ -2641,10 +2987,10 @@
       <c r="B29" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C29" s="30" t="s">
+      <c r="C29" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="D29" s="43" t="s">
+      <c r="D29" s="42" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2655,10 +3001,10 @@
       <c r="B30" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C30" s="36" t="s">
+      <c r="C30" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="D30" s="43" t="s">
+      <c r="D30" s="42" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2669,10 +3015,10 @@
       <c r="B31" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="C31" s="30" t="s">
+      <c r="C31" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="D31" s="31" t="s">
+      <c r="D31" s="30" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2720,14 +3066,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.64423076923077" defaultRowHeight="16.8" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="16.3557692307692" style="12"/>
-    <col min="2" max="2" width="58.6826923076923" style="13" customWidth="1"/>
-    <col min="3" max="4" width="16.3557692307692" style="12"/>
-    <col min="5" max="5" width="19.8365384615385" style="12" customWidth="1"/>
-    <col min="6" max="6" width="18.4230769230769" style="12" customWidth="1"/>
-    <col min="7" max="7" width="19.1442307692308" style="12" customWidth="1"/>
-    <col min="8" max="16381" width="16.3557692307692" style="12"/>
-    <col min="16382" max="16384" width="9.64423076923077" style="12" customWidth="1"/>
+    <col min="1" max="1" width="16.3557692307692" style="11"/>
+    <col min="2" max="2" width="58.6826923076923" style="12" customWidth="1"/>
+    <col min="3" max="4" width="16.3557692307692" style="11"/>
+    <col min="5" max="5" width="19.8365384615385" style="11" customWidth="1"/>
+    <col min="6" max="6" width="18.4230769230769" style="11" customWidth="1"/>
+    <col min="7" max="7" width="19.1442307692308" style="11" customWidth="1"/>
+    <col min="8" max="16381" width="16.3557692307692" style="11"/>
+    <col min="16382" max="16384" width="9.64423076923077" style="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13" customHeight="1" spans="1:6">
@@ -2755,129 +3101,129 @@
       <c r="D3" s="2"/>
     </row>
     <row r="4" ht="14" customHeight="1" spans="1:6">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="16" t="s">
+      <c r="B4" s="14"/>
+      <c r="C4" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="15" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="5" ht="92" customHeight="1" spans="1:6">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="16" t="s">
         <v>81</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="9" t="s">
         <v>37</v>
       </c>
       <c r="D5" s="8"/>
     </row>
     <row r="6" ht="13.35" customHeight="1" spans="1:6">
-      <c r="A6" s="17"/>
+      <c r="A6" s="16"/>
       <c r="B6" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="9" t="s">
         <v>37</v>
       </c>
       <c r="D6" s="6"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
     </row>
     <row r="7" ht="13.65" customHeight="1" spans="1:6">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="16" t="s">
         <v>84</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="9" t="s">
         <v>37</v>
       </c>
       <c r="D7" s="8"/>
     </row>
     <row r="8" ht="13.35" customHeight="1" spans="1:6">
-      <c r="A8" s="17"/>
+      <c r="A8" s="16"/>
       <c r="B8" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="9" t="s">
         <v>37</v>
       </c>
       <c r="D8" s="8"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
     </row>
     <row r="9" ht="13.35" customHeight="1" spans="1:6">
-      <c r="A9" s="17"/>
+      <c r="A9" s="16"/>
       <c r="B9" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="9" t="s">
         <v>37</v>
       </c>
       <c r="D9" s="8"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
     </row>
     <row r="10" ht="13.35" customHeight="1" spans="1:6">
-      <c r="A10" s="17"/>
+      <c r="A10" s="16"/>
       <c r="B10" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="9" t="s">
         <v>37</v>
       </c>
       <c r="D10" s="8"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
     </row>
     <row r="11" ht="13.35" customHeight="1" spans="1:6">
-      <c r="A11" s="17"/>
+      <c r="A11" s="16"/>
       <c r="B11" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="9" t="s">
         <v>37</v>
       </c>
       <c r="D11" s="8"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
     </row>
     <row r="12" ht="13.65" customHeight="1" spans="1:6">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="16" t="s">
         <v>90</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="9" t="s">
         <v>37</v>
       </c>
       <c r="D12" s="8"/>
     </row>
     <row r="13" ht="13.65" customHeight="1" spans="1:6">
-      <c r="A13" s="17"/>
+      <c r="A13" s="16"/>
       <c r="B13" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="9" t="s">
         <v>37</v>
       </c>
       <c r="D13" s="8"/>
     </row>
     <row r="14" ht="13.65" customHeight="1" spans="1:6">
-      <c r="A14" s="17"/>
+      <c r="A14" s="16"/>
       <c r="B14" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="9" t="s">
         <v>37</v>
       </c>
       <c r="D14" s="8"/>
@@ -2920,14 +3266,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.64423076923077" defaultRowHeight="16.8" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="16.3557692307692" style="12"/>
-    <col min="2" max="2" width="58.6826923076923" style="13" customWidth="1"/>
-    <col min="3" max="4" width="16.3557692307692" style="12"/>
-    <col min="5" max="5" width="19.8365384615385" style="12" customWidth="1"/>
-    <col min="6" max="6" width="18.4230769230769" style="12" customWidth="1"/>
-    <col min="7" max="7" width="19.1442307692308" style="12" customWidth="1"/>
-    <col min="8" max="16381" width="16.3557692307692" style="12"/>
-    <col min="16382" max="16384" width="9.64423076923077" style="12" customWidth="1"/>
+    <col min="1" max="1" width="16.3557692307692" style="11"/>
+    <col min="2" max="2" width="58.6826923076923" style="12" customWidth="1"/>
+    <col min="3" max="4" width="16.3557692307692" style="11"/>
+    <col min="5" max="5" width="19.8365384615385" style="11" customWidth="1"/>
+    <col min="6" max="6" width="18.4230769230769" style="11" customWidth="1"/>
+    <col min="7" max="7" width="19.1442307692308" style="11" customWidth="1"/>
+    <col min="8" max="16381" width="16.3557692307692" style="11"/>
+    <col min="16382" max="16384" width="9.64423076923077" style="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13" customHeight="1" spans="1:6">
@@ -2953,117 +3299,117 @@
       <c r="D3" s="2"/>
     </row>
     <row r="4" ht="14" customHeight="1" spans="1:6">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="16" t="s">
+      <c r="B4" s="14"/>
+      <c r="C4" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="15" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="5" ht="16" customHeight="1" spans="1:6">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="16" t="s">
         <v>94</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="9" t="s">
         <v>37</v>
       </c>
       <c r="D5" s="8"/>
     </row>
     <row r="6" ht="16" customHeight="1" spans="1:6">
-      <c r="A6" s="17"/>
+      <c r="A6" s="16"/>
       <c r="B6" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="9" t="s">
         <v>37</v>
       </c>
       <c r="D6" s="8"/>
     </row>
     <row r="7" ht="16" customHeight="1" spans="1:6">
-      <c r="A7" s="17"/>
+      <c r="A7" s="16"/>
       <c r="B7" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="9" t="s">
         <v>37</v>
       </c>
       <c r="D7" s="8"/>
     </row>
     <row r="8" ht="13.65" customHeight="1" spans="1:6">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="16" t="s">
         <v>98</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="9" t="s">
         <v>37</v>
       </c>
       <c r="D8" s="8"/>
     </row>
     <row r="9" ht="13.35" customHeight="1" spans="1:6">
-      <c r="A9" s="18"/>
+      <c r="A9" s="17"/>
       <c r="B9" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="9" t="s">
         <v>37</v>
       </c>
       <c r="D9" s="8"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
     </row>
     <row r="10" ht="13.35" customHeight="1" spans="1:6">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="16" t="s">
         <v>81</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="9" t="s">
         <v>37</v>
       </c>
       <c r="D10" s="8"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
     </row>
     <row r="11" ht="13.35" customHeight="1" spans="1:6">
-      <c r="A11" s="18"/>
+      <c r="A11" s="17"/>
       <c r="B11" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="9" t="s">
         <v>37</v>
       </c>
       <c r="D11" s="8"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
     </row>
     <row r="12" ht="13.65" customHeight="1" spans="1:6">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="16" t="s">
         <v>84</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="9" t="s">
         <v>37</v>
       </c>
       <c r="D12" s="8"/>
     </row>
     <row r="13" ht="13.65" customHeight="1" spans="1:6">
-      <c r="A13" s="17"/>
+      <c r="A13" s="16"/>
       <c r="B13" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="9" t="s">
         <v>37</v>
       </c>
       <c r="D13" s="8"/>
@@ -3107,14 +3453,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.64423076923077" defaultRowHeight="16.8" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="16.3557692307692" style="12"/>
-    <col min="2" max="2" width="58.6826923076923" style="13" customWidth="1"/>
-    <col min="3" max="4" width="16.3557692307692" style="12"/>
-    <col min="5" max="5" width="19.8365384615385" style="12" customWidth="1"/>
-    <col min="6" max="6" width="18.4230769230769" style="12" customWidth="1"/>
-    <col min="7" max="7" width="19.1442307692308" style="12" customWidth="1"/>
-    <col min="8" max="16381" width="16.3557692307692" style="12"/>
-    <col min="16382" max="16384" width="9.64423076923077" style="12" customWidth="1"/>
+    <col min="1" max="1" width="16.3557692307692" style="11"/>
+    <col min="2" max="2" width="58.6826923076923" style="12" customWidth="1"/>
+    <col min="3" max="4" width="16.3557692307692" style="11"/>
+    <col min="5" max="5" width="19.8365384615385" style="11" customWidth="1"/>
+    <col min="6" max="6" width="18.4230769230769" style="11" customWidth="1"/>
+    <col min="7" max="7" width="19.1442307692308" style="11" customWidth="1"/>
+    <col min="8" max="16381" width="16.3557692307692" style="11"/>
+    <col min="16382" max="16384" width="9.64423076923077" style="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13" customHeight="1" spans="1:6">
@@ -3140,371 +3486,371 @@
       <c r="D3" s="2"/>
     </row>
     <row r="4" ht="14" customHeight="1" spans="1:6">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="16" t="s">
+      <c r="B4" s="14"/>
+      <c r="C4" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="15" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="5" ht="16" customHeight="1" spans="1:6">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="16" t="s">
         <v>94</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="9" t="s">
         <v>37</v>
       </c>
       <c r="D5" s="8"/>
     </row>
     <row r="6" ht="16" customHeight="1" spans="1:6">
-      <c r="A6" s="17"/>
+      <c r="A6" s="16"/>
       <c r="B6" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="9" t="s">
         <v>37</v>
       </c>
       <c r="D6" s="8"/>
     </row>
     <row r="7" ht="16" customHeight="1" spans="1:6">
-      <c r="A7" s="17"/>
+      <c r="A7" s="16"/>
       <c r="B7" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="9" t="s">
         <v>37</v>
       </c>
       <c r="D7" s="8"/>
     </row>
     <row r="8" ht="16" customHeight="1" spans="1:6">
-      <c r="A8" s="17"/>
+      <c r="A8" s="16"/>
       <c r="B8" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="9" t="s">
         <v>37</v>
       </c>
       <c r="D8" s="8"/>
     </row>
     <row r="9" ht="16" customHeight="1" spans="1:6">
-      <c r="A9" s="17"/>
+      <c r="A9" s="16"/>
       <c r="B9" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="23" t="s">
         <v>30</v>
       </c>
       <c r="D9" s="8"/>
     </row>
     <row r="10" ht="16" customHeight="1" spans="1:6">
-      <c r="A10" s="17"/>
+      <c r="A10" s="16"/>
       <c r="B10" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="23" t="s">
         <v>30</v>
       </c>
       <c r="D10" s="8"/>
     </row>
     <row r="11" ht="16" customHeight="1" spans="1:6">
-      <c r="A11" s="17"/>
+      <c r="A11" s="16"/>
       <c r="B11" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="23" t="s">
         <v>30</v>
       </c>
       <c r="D11" s="8"/>
     </row>
     <row r="12" ht="13.35" customHeight="1" spans="1:6">
-      <c r="A12" s="17"/>
+      <c r="A12" s="16"/>
       <c r="B12" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="9" t="s">
         <v>37</v>
       </c>
       <c r="D12" s="6"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
     </row>
     <row r="13" ht="13.65" customHeight="1" spans="1:6">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="16" t="s">
         <v>98</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="C13" s="24" t="s">
+      <c r="C13" s="23" t="s">
         <v>30</v>
       </c>
       <c r="D13" s="8"/>
     </row>
     <row r="14" ht="13.35" customHeight="1" spans="1:6">
-      <c r="A14" s="18"/>
+      <c r="A14" s="17"/>
       <c r="B14" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="9" t="s">
         <v>37</v>
       </c>
       <c r="D14" s="8"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
     </row>
     <row r="15" ht="13.35" customHeight="1" spans="1:6">
-      <c r="A15" s="18"/>
+      <c r="A15" s="17"/>
       <c r="B15" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="9" t="s">
         <v>37</v>
       </c>
       <c r="D15" s="8"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
     </row>
     <row r="16" ht="13.35" customHeight="1" spans="1:6">
-      <c r="A16" s="18"/>
+      <c r="A16" s="17"/>
       <c r="B16" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="9" t="s">
         <v>37</v>
       </c>
       <c r="D16" s="8"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
     </row>
     <row r="17" ht="13.35" customHeight="1" spans="1:6">
-      <c r="A17" s="18"/>
+      <c r="A17" s="17"/>
       <c r="B17" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="9" t="s">
         <v>37</v>
       </c>
       <c r="D17" s="8"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
     </row>
     <row r="18" ht="13.35" customHeight="1" spans="1:6">
-      <c r="A18" s="18"/>
+      <c r="A18" s="17"/>
       <c r="B18" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="9" t="s">
         <v>37</v>
       </c>
       <c r="D18" s="8"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
     </row>
     <row r="19" ht="13.35" customHeight="1" spans="1:6">
-      <c r="A19" s="18"/>
+      <c r="A19" s="17"/>
       <c r="B19" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="9" t="s">
         <v>37</v>
       </c>
       <c r="D19" s="8"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
     </row>
     <row r="20" ht="13.35" customHeight="1" spans="1:6">
-      <c r="A20" s="18"/>
+      <c r="A20" s="17"/>
       <c r="B20" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="9" t="s">
         <v>37</v>
       </c>
       <c r="D20" s="8"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
     </row>
     <row r="21" ht="13.35" customHeight="1" spans="1:6">
-      <c r="A21" s="17" t="s">
+      <c r="A21" s="16" t="s">
         <v>81</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="9" t="s">
         <v>37</v>
       </c>
       <c r="D21" s="8"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
     </row>
     <row r="22" ht="13.35" customHeight="1" spans="1:6">
-      <c r="A22" s="18"/>
+      <c r="A22" s="17"/>
       <c r="B22" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="9" t="s">
         <v>37</v>
       </c>
       <c r="D22" s="8"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
     </row>
     <row r="23" ht="13.35" customHeight="1" spans="1:6">
-      <c r="A23" s="18"/>
+      <c r="A23" s="17"/>
       <c r="B23" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="9" t="s">
         <v>37</v>
       </c>
       <c r="D23" s="8"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
     </row>
     <row r="24" ht="13.35" customHeight="1" spans="1:6">
-      <c r="A24" s="18"/>
+      <c r="A24" s="17"/>
       <c r="B24" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="9" t="s">
         <v>37</v>
       </c>
       <c r="D24" s="8"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
     </row>
     <row r="25" ht="13.35" customHeight="1" spans="1:6">
-      <c r="A25" s="18"/>
+      <c r="A25" s="17"/>
       <c r="B25" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="C25" s="24" t="s">
+      <c r="C25" s="23" t="s">
         <v>30</v>
       </c>
       <c r="D25" s="8"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
     </row>
     <row r="26" ht="13.35" customHeight="1" spans="1:6">
-      <c r="A26" s="18"/>
+      <c r="A26" s="17"/>
       <c r="B26" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="9" t="s">
         <v>37</v>
       </c>
       <c r="D26" s="8"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
     </row>
     <row r="27" ht="13.35" customHeight="1" spans="1:6">
-      <c r="A27" s="18"/>
+      <c r="A27" s="17"/>
       <c r="B27" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="9" t="s">
         <v>37</v>
       </c>
       <c r="D27" s="8"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
     </row>
     <row r="28" ht="13.35" customHeight="1" spans="1:6">
-      <c r="A28" s="18"/>
+      <c r="A28" s="17"/>
       <c r="B28" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C28" s="24" t="s">
+      <c r="C28" s="23" t="s">
         <v>30</v>
       </c>
       <c r="D28" s="8"/>
     </row>
     <row r="29" ht="13.65" customHeight="1" spans="1:6">
-      <c r="A29" s="17" t="s">
+      <c r="A29" s="16" t="s">
         <v>84</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="9" t="s">
         <v>37</v>
       </c>
       <c r="D29" s="8"/>
     </row>
     <row r="30" ht="13.65" customHeight="1" spans="1:6">
-      <c r="A30" s="17"/>
+      <c r="A30" s="16"/>
       <c r="B30" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="9" t="s">
         <v>37</v>
       </c>
       <c r="D30" s="8"/>
     </row>
     <row r="31" ht="13.65" customHeight="1" spans="1:6">
-      <c r="A31" s="17"/>
+      <c r="A31" s="16"/>
       <c r="B31" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="C31" s="24" t="s">
+      <c r="C31" s="23" t="s">
         <v>30</v>
       </c>
       <c r="D31" s="8"/>
     </row>
     <row r="32" ht="13.65" customHeight="1" spans="1:6">
-      <c r="A32" s="17"/>
+      <c r="A32" s="16"/>
       <c r="B32" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="9" t="s">
         <v>37</v>
       </c>
       <c r="D32" s="8"/>
     </row>
     <row r="33" ht="13.65" customHeight="1" spans="1:4">
-      <c r="A33" s="17"/>
+      <c r="A33" s="16"/>
       <c r="B33" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="C33" s="24" t="s">
+      <c r="C33" s="23" t="s">
         <v>30</v>
       </c>
       <c r="D33" s="8"/>
     </row>
     <row r="34" ht="13.65" customHeight="1" spans="1:4">
-      <c r="A34" s="17"/>
+      <c r="A34" s="16"/>
       <c r="B34" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C34" s="9" t="s">
         <v>37</v>
       </c>
       <c r="D34" s="8"/>
     </row>
     <row r="35" ht="13.65" customHeight="1" spans="1:4">
-      <c r="A35" s="17"/>
+      <c r="A35" s="16"/>
       <c r="B35" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="C35" s="24" t="s">
+      <c r="C35" s="23" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="8"/>
     </row>
     <row r="36" ht="13.65" customHeight="1" spans="1:4">
-      <c r="A36" s="17"/>
+      <c r="A36" s="16"/>
       <c r="B36" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C36" s="24" t="s">
+      <c r="C36" s="23" t="s">
         <v>30</v>
       </c>
       <c r="D36" s="8"/>
@@ -3548,14 +3894,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.64423076923077" defaultRowHeight="16.8" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="16.3557692307692" style="12"/>
-    <col min="2" max="2" width="63.4038461538462" style="13" customWidth="1"/>
-    <col min="3" max="4" width="16.3557692307692" style="12"/>
-    <col min="5" max="5" width="19.8365384615385" style="12" customWidth="1"/>
-    <col min="6" max="6" width="18.4230769230769" style="12" customWidth="1"/>
-    <col min="7" max="7" width="19.1442307692308" style="12" customWidth="1"/>
-    <col min="8" max="16381" width="16.3557692307692" style="12"/>
-    <col min="16382" max="16384" width="9.64423076923077" style="12" customWidth="1"/>
+    <col min="1" max="1" width="16.3557692307692" style="11"/>
+    <col min="2" max="2" width="63.4038461538462" style="12" customWidth="1"/>
+    <col min="3" max="4" width="16.3557692307692" style="11"/>
+    <col min="5" max="5" width="19.8365384615385" style="11" customWidth="1"/>
+    <col min="6" max="6" width="18.4230769230769" style="11" customWidth="1"/>
+    <col min="7" max="7" width="19.1442307692308" style="11" customWidth="1"/>
+    <col min="8" max="16381" width="16.3557692307692" style="11"/>
+    <col min="16382" max="16384" width="9.64423076923077" style="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13" customHeight="1" spans="1:6">
@@ -3581,89 +3927,89 @@
       <c r="D3" s="2"/>
     </row>
     <row r="4" ht="14" customHeight="1" spans="1:6">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="16" t="s">
+      <c r="B4" s="14"/>
+      <c r="C4" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="15" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="5" ht="16" customHeight="1" spans="1:6">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="16" t="s">
         <v>94</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="9" t="s">
         <v>37</v>
       </c>
       <c r="D5" s="8"/>
     </row>
     <row r="6" ht="16" customHeight="1" spans="1:6">
-      <c r="A6" s="17"/>
+      <c r="A6" s="16"/>
       <c r="B6" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="9" t="s">
         <v>37</v>
       </c>
       <c r="D6" s="8"/>
     </row>
     <row r="7" ht="16" customHeight="1" spans="1:6">
-      <c r="A7" s="17"/>
+      <c r="A7" s="16"/>
       <c r="B7" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="9" t="s">
         <v>37</v>
       </c>
       <c r="D7" s="8"/>
     </row>
     <row r="8" ht="16" customHeight="1" spans="1:6">
-      <c r="A8" s="17"/>
+      <c r="A8" s="16"/>
       <c r="B8" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="9" t="s">
         <v>37</v>
       </c>
       <c r="D8" s="8"/>
     </row>
     <row r="9" ht="16" customHeight="1" spans="1:6">
-      <c r="A9" s="17"/>
+      <c r="A9" s="16"/>
       <c r="B9" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="9" t="s">
         <v>37</v>
       </c>
       <c r="D9" s="8"/>
     </row>
     <row r="10" ht="13.35" customHeight="1" spans="1:6">
-      <c r="A10" s="17"/>
+      <c r="A10" s="16"/>
       <c r="B10" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="9" t="s">
         <v>37</v>
       </c>
       <c r="D10" s="6"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
     </row>
     <row r="11" ht="13.65" customHeight="1" spans="1:6">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="16" t="s">
         <v>98</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="9" t="s">
         <v>37</v>
       </c>
       <c r="D11" s="8">
@@ -3671,210 +4017,210 @@
       </c>
     </row>
     <row r="12" ht="13.35" customHeight="1" spans="1:6">
-      <c r="A12" s="18"/>
+      <c r="A12" s="17"/>
       <c r="B12" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="9" t="s">
         <v>37</v>
       </c>
       <c r="D12" s="8"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
     </row>
     <row r="13" ht="13.35" customHeight="1" spans="1:6">
-      <c r="A13" s="18"/>
+      <c r="A13" s="17"/>
       <c r="B13" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="9" t="s">
         <v>37</v>
       </c>
       <c r="D13" s="8"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
     </row>
     <row r="14" ht="13.35" customHeight="1" spans="1:6">
-      <c r="A14" s="18"/>
+      <c r="A14" s="17"/>
       <c r="B14" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="9" t="s">
         <v>37</v>
       </c>
       <c r="D14" s="8"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
     </row>
     <row r="15" ht="13.35" customHeight="1" spans="1:6">
-      <c r="A15" s="18"/>
+      <c r="A15" s="17"/>
       <c r="B15" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="9" t="s">
         <v>37</v>
       </c>
       <c r="D15" s="8"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
     </row>
     <row r="16" ht="13.35" customHeight="1" spans="1:6">
-      <c r="A16" s="18"/>
+      <c r="A16" s="17"/>
       <c r="B16" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="9" t="s">
         <v>37</v>
       </c>
       <c r="D16" s="8"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
     </row>
     <row r="17" ht="13.35" customHeight="1" spans="1:6">
-      <c r="A17" s="18"/>
+      <c r="A17" s="17"/>
       <c r="B17" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="9" t="s">
         <v>37</v>
       </c>
       <c r="D17" s="8"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
     </row>
     <row r="18" ht="13.35" customHeight="1" spans="1:6">
-      <c r="A18" s="18"/>
+      <c r="A18" s="17"/>
       <c r="B18" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="9" t="s">
         <v>37</v>
       </c>
       <c r="D18" s="8"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
     </row>
     <row r="19" ht="13.35" customHeight="1" spans="1:6">
-      <c r="A19" s="18"/>
+      <c r="A19" s="17"/>
       <c r="B19" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="10" t="s">
         <v>30</v>
       </c>
       <c r="D19" s="8"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
     </row>
     <row r="20" ht="13.35" customHeight="1" spans="1:6">
-      <c r="A20" s="17" t="s">
+      <c r="A20" s="16" t="s">
         <v>81</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="9" t="s">
         <v>37</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
     </row>
     <row r="21" ht="13.35" customHeight="1" spans="1:6">
-      <c r="A21" s="18"/>
+      <c r="A21" s="17"/>
       <c r="B21" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="9" t="s">
         <v>37</v>
       </c>
       <c r="D21" s="1"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
     </row>
     <row r="22" ht="13.35" customHeight="1" spans="1:6">
-      <c r="A22" s="18"/>
+      <c r="A22" s="17"/>
       <c r="B22" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="10" t="s">
         <v>30</v>
       </c>
       <c r="D22" s="1"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
     </row>
     <row r="23" ht="13.35" customHeight="1" spans="1:6">
-      <c r="A23" s="18"/>
+      <c r="A23" s="17"/>
       <c r="B23" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="10" t="s">
         <v>30</v>
       </c>
       <c r="D23" s="1"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
     </row>
     <row r="24" ht="13.35" customHeight="1" spans="1:6">
-      <c r="A24" s="18"/>
+      <c r="A24" s="17"/>
       <c r="B24" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="10" t="s">
         <v>30</v>
       </c>
       <c r="D24" s="1"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
     </row>
     <row r="25" ht="13.35" customHeight="1" spans="1:6">
-      <c r="A25" s="18"/>
+      <c r="A25" s="17"/>
       <c r="B25" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="9" t="s">
         <v>37</v>
       </c>
       <c r="D25" s="1"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
     </row>
     <row r="26" ht="13.35" customHeight="1" spans="1:6">
-      <c r="A26" s="18"/>
+      <c r="A26" s="17"/>
       <c r="B26" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="10" t="s">
         <v>30</v>
       </c>
       <c r="D26" s="1"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
     </row>
     <row r="27" ht="13.35" customHeight="1" spans="1:6">
-      <c r="A27" s="18"/>
+      <c r="A27" s="17"/>
       <c r="B27" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="10" t="s">
         <v>30</v>
       </c>
       <c r="D27" s="1"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
     </row>
     <row r="28" ht="13.35" customHeight="1" spans="1:6">
-      <c r="A28" s="18"/>
+      <c r="A28" s="17"/>
       <c r="B28" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C28" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D28" s="19"/>
+      <c r="C28" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" s="18"/>
     </row>
     <row r="29" ht="13.65" customHeight="1" spans="1:6">
       <c r="A29" s="5" t="s">
@@ -3883,7 +4229,7 @@
       <c r="B29" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="10" t="s">
         <v>30</v>
       </c>
       <c r="D29" s="8">
@@ -3895,7 +4241,7 @@
       <c r="B30" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="9" t="s">
         <v>37</v>
       </c>
       <c r="D30" s="8"/>
@@ -3905,7 +4251,7 @@
       <c r="B31" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="C31" s="10" t="s">
         <v>30</v>
       </c>
       <c r="D31" s="8"/>
@@ -3915,7 +4261,7 @@
       <c r="B32" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="9" t="s">
         <v>37</v>
       </c>
       <c r="D32" s="8"/>
@@ -3925,7 +4271,7 @@
       <c r="B33" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C33" s="9" t="s">
         <v>37</v>
       </c>
       <c r="D33" s="8"/>
@@ -3935,7 +4281,7 @@
       <c r="B34" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C34" s="9" t="s">
         <v>37</v>
       </c>
       <c r="D34" s="8" t="s">
@@ -3947,7 +4293,7 @@
       <c r="B35" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C35" s="9" t="s">
         <v>37</v>
       </c>
       <c r="D35" s="8"/>
@@ -3957,19 +4303,19 @@
       <c r="B36" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="C36" s="10" t="s">
         <v>30</v>
       </c>
       <c r="D36" s="8"/>
     </row>
     <row r="37" ht="17" spans="1:4">
-      <c r="A37" s="20" t="s">
+      <c r="A37" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="B37" s="21" t="s">
+      <c r="B37" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C37" s="9" t="s">
         <v>37</v>
       </c>
       <c r="D37" s="8" t="s">
@@ -3977,81 +4323,81 @@
       </c>
     </row>
     <row r="38" ht="17" spans="1:4">
-      <c r="A38" s="20"/>
-      <c r="B38" s="21" t="s">
+      <c r="A38" s="19"/>
+      <c r="B38" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C38" s="9" t="s">
         <v>37</v>
       </c>
       <c r="D38" s="8"/>
     </row>
     <row r="39" ht="17" customHeight="1" spans="1:4">
-      <c r="A39" s="20"/>
-      <c r="B39" s="21" t="s">
+      <c r="A39" s="19"/>
+      <c r="B39" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C39" s="9" t="s">
         <v>37</v>
       </c>
       <c r="D39" s="8"/>
     </row>
     <row r="40" ht="17" spans="1:4">
-      <c r="A40" s="20"/>
-      <c r="B40" s="21" t="s">
+      <c r="A40" s="19"/>
+      <c r="B40" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="C40" s="9" t="s">
         <v>37</v>
       </c>
       <c r="D40" s="8"/>
     </row>
     <row r="41" ht="17" spans="1:4">
-      <c r="A41" s="20"/>
-      <c r="B41" s="21" t="s">
+      <c r="A41" s="19"/>
+      <c r="B41" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="C41" s="9" t="s">
         <v>37</v>
       </c>
       <c r="D41" s="8"/>
     </row>
     <row r="42" ht="17" spans="1:4">
-      <c r="A42" s="20"/>
-      <c r="B42" s="21" t="s">
+      <c r="A42" s="19"/>
+      <c r="B42" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="C42" s="9" t="s">
         <v>37</v>
       </c>
       <c r="D42" s="8"/>
     </row>
     <row r="43" ht="17" spans="1:4">
-      <c r="A43" s="20"/>
-      <c r="B43" s="21" t="s">
+      <c r="A43" s="19"/>
+      <c r="B43" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="C43" s="9" t="s">
         <v>37</v>
       </c>
       <c r="D43" s="8"/>
     </row>
     <row r="44" ht="17" spans="1:4">
-      <c r="A44" s="20"/>
-      <c r="B44" s="21" t="s">
+      <c r="A44" s="19"/>
+      <c r="B44" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="C44" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D44" s="22"/>
+      <c r="C44" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D44" s="21"/>
     </row>
     <row r="45" ht="17" spans="1:4">
-      <c r="A45" s="23"/>
-      <c r="B45" s="21" t="s">
+      <c r="A45" s="22"/>
+      <c r="B45" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="C45" s="9" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="8"/>
@@ -4085,10 +4431,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="3"/>
@@ -4139,7 +4485,7 @@
       <c r="B5" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="9" t="s">
         <v>37</v>
       </c>
       <c r="D5" s="8">
@@ -4151,7 +4497,7 @@
       <c r="B6" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="9" t="s">
         <v>37</v>
       </c>
       <c r="D6" s="8"/>
@@ -4161,7 +4507,7 @@
       <c r="B7" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="9" t="s">
         <v>37</v>
       </c>
       <c r="D7" s="8"/>
@@ -4171,7 +4517,7 @@
       <c r="B8" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="10" t="s">
         <v>30</v>
       </c>
       <c r="D8" s="8"/>
@@ -4181,7 +4527,7 @@
       <c r="B9" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="10" t="s">
         <v>30</v>
       </c>
       <c r="D9" s="8"/>
@@ -4191,7 +4537,7 @@
       <c r="B10" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="10" t="s">
         <v>30</v>
       </c>
       <c r="D10" s="8"/>
@@ -4201,7 +4547,7 @@
       <c r="B11" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="9" t="s">
         <v>37</v>
       </c>
       <c r="D11" s="8"/>
@@ -4211,7 +4557,7 @@
       <c r="B12" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="10" t="s">
         <v>30</v>
       </c>
       <c r="D12" s="8"/>
@@ -4221,193 +4567,121 @@
       <c r="B13" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="10" t="s">
         <v>30</v>
       </c>
       <c r="D13" s="6"/>
     </row>
-    <row r="14" ht="17" spans="1:4">
+    <row r="14" spans="1:4">
       <c r="A14" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>30</v>
-      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="7"/>
       <c r="D14" s="8"/>
     </row>
-    <row r="15" ht="17" spans="1:4">
+    <row r="15" spans="1:4">
       <c r="A15" s="5"/>
-      <c r="B15" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>30</v>
-      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="7"/>
       <c r="D15" s="8"/>
     </row>
-    <row r="16" ht="17" spans="1:4">
+    <row r="16" spans="1:4">
       <c r="A16" s="5"/>
-      <c r="B16" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>30</v>
-      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="7"/>
       <c r="D16" s="8"/>
     </row>
-    <row r="17" ht="17" spans="1:4">
+    <row r="17" spans="1:4">
       <c r="A17" s="5"/>
-      <c r="B17" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>30</v>
-      </c>
+      <c r="B17" s="6"/>
+      <c r="C17" s="7"/>
       <c r="D17" s="8"/>
     </row>
-    <row r="18" ht="17" spans="1:4">
+    <row r="18" spans="1:4">
       <c r="A18" s="5"/>
-      <c r="B18" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>30</v>
-      </c>
+      <c r="B18" s="6"/>
+      <c r="C18" s="7"/>
       <c r="D18" s="8"/>
     </row>
-    <row r="19" ht="17" spans="1:4">
+    <row r="19" spans="1:4">
       <c r="A19" s="5"/>
-      <c r="B19" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>30</v>
-      </c>
+      <c r="B19" s="6"/>
+      <c r="C19" s="7"/>
       <c r="D19" s="8"/>
     </row>
-    <row r="20" ht="17" spans="1:4">
+    <row r="20" spans="1:4">
       <c r="A20" s="5"/>
-      <c r="B20" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>30</v>
-      </c>
+      <c r="B20" s="6"/>
+      <c r="C20" s="7"/>
       <c r="D20" s="8"/>
     </row>
-    <row r="21" ht="17" spans="1:4">
+    <row r="21" spans="1:4">
       <c r="A21" s="5"/>
-      <c r="B21" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>30</v>
-      </c>
+      <c r="B21" s="6"/>
+      <c r="C21" s="7"/>
       <c r="D21" s="8"/>
     </row>
-    <row r="22" ht="17" spans="1:4">
+    <row r="22" spans="1:4">
       <c r="A22" s="5"/>
-      <c r="B22" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>30</v>
-      </c>
+      <c r="B22" s="6"/>
+      <c r="C22" s="7"/>
       <c r="D22" s="8"/>
     </row>
-    <row r="23" ht="17" spans="1:4">
+    <row r="23" spans="1:4">
       <c r="A23" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="B23" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>30</v>
-      </c>
+      <c r="B23" s="6"/>
+      <c r="C23" s="7"/>
       <c r="D23" s="8"/>
     </row>
-    <row r="24" ht="17" spans="1:4">
+    <row r="24" spans="1:4">
       <c r="A24" s="5"/>
-      <c r="B24" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>30</v>
-      </c>
+      <c r="B24" s="6"/>
+      <c r="C24" s="7"/>
       <c r="D24" s="8"/>
     </row>
-    <row r="25" ht="17" spans="1:4">
+    <row r="25" spans="1:4">
       <c r="A25" s="5"/>
-      <c r="B25" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>30</v>
-      </c>
+      <c r="B25" s="6"/>
+      <c r="C25" s="7"/>
       <c r="D25" s="8"/>
     </row>
-    <row r="26" ht="17" spans="1:4">
+    <row r="26" spans="1:4">
       <c r="A26" s="5"/>
-      <c r="B26" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>30</v>
-      </c>
+      <c r="B26" s="6"/>
+      <c r="C26" s="7"/>
       <c r="D26" s="8"/>
     </row>
-    <row r="27" ht="17" spans="1:4">
+    <row r="27" spans="1:4">
       <c r="A27" s="5"/>
-      <c r="B27" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>30</v>
-      </c>
+      <c r="B27" s="6"/>
+      <c r="C27" s="7"/>
       <c r="D27" s="8"/>
     </row>
-    <row r="28" ht="17" spans="1:4">
+    <row r="28" spans="1:4">
       <c r="A28" s="5"/>
-      <c r="B28" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>30</v>
-      </c>
+      <c r="B28" s="6"/>
+      <c r="C28" s="7"/>
       <c r="D28" s="8"/>
     </row>
-    <row r="29" ht="17" spans="1:4">
+    <row r="29" spans="1:4">
       <c r="A29" s="5"/>
-      <c r="B29" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>30</v>
-      </c>
+      <c r="B29" s="6"/>
+      <c r="C29" s="7"/>
       <c r="D29" s="8"/>
     </row>
-    <row r="30" ht="17" spans="1:4">
+    <row r="30" spans="1:4">
       <c r="A30" s="5"/>
-      <c r="B30" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>30</v>
-      </c>
+      <c r="B30" s="6"/>
+      <c r="C30" s="7"/>
       <c r="D30" s="8"/>
     </row>
-    <row r="31" ht="17" spans="1:4">
+    <row r="31" spans="1:4">
       <c r="A31" s="5"/>
-      <c r="B31" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>30</v>
-      </c>
+      <c r="B31" s="6"/>
+      <c r="C31" s="7"/>
       <c r="D31" s="8"/>
     </row>
     <row r="32" ht="17" spans="1:4">
@@ -4415,9 +4689,9 @@
         <v>84</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="C32" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="C32" s="7" t="s">
         <v>30</v>
       </c>
       <c r="D32" s="8"/>
@@ -4425,9 +4699,9 @@
     <row r="33" ht="17" spans="1:4">
       <c r="A33" s="5"/>
       <c r="B33" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="C33" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="C33" s="7" t="s">
         <v>30</v>
       </c>
       <c r="D33" s="8"/>
@@ -4435,9 +4709,9 @@
     <row r="34" ht="17" spans="1:4">
       <c r="A34" s="5"/>
       <c r="B34" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="C34" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="C34" s="7" t="s">
         <v>30</v>
       </c>
       <c r="D34" s="8"/>
@@ -4445,9 +4719,9 @@
     <row r="35" ht="17" spans="1:4">
       <c r="A35" s="5"/>
       <c r="B35" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="C35" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="C35" s="7" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="8"/>
@@ -4455,52 +4729,12 @@
     <row r="36" ht="17" spans="1:4">
       <c r="A36" s="5"/>
       <c r="B36" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="C36" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="C36" s="7" t="s">
         <v>30</v>
       </c>
       <c r="D36" s="8"/>
-    </row>
-    <row r="37" ht="17" spans="1:4">
-      <c r="A37" s="5"/>
-      <c r="B37" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="C37" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D37" s="8"/>
-    </row>
-    <row r="38" ht="17" spans="1:4">
-      <c r="A38" s="5"/>
-      <c r="B38" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D38" s="8"/>
-    </row>
-    <row r="39" ht="17" spans="1:4">
-      <c r="A39" s="5"/>
-      <c r="B39" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="C39" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D39" s="8"/>
-    </row>
-    <row r="40" ht="17" spans="1:4">
-      <c r="A40" s="5"/>
-      <c r="B40" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D40" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -4511,10 +4745,711 @@
     <mergeCell ref="A5:A13"/>
     <mergeCell ref="A14:A22"/>
     <mergeCell ref="A23:A31"/>
-    <mergeCell ref="A32:A40"/>
+    <mergeCell ref="A32:A36"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7 C8 C9 C10 C11 C12 C13 C5:C6 C14:C40">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C36">
+      <formula1>"未进行,进行中,已暂停,已完成"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:B28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="3"/>
+  <cols>
+    <col min="2" max="2" width="102.567307692308" customWidth="1"/>
+    <col min="3" max="3" width="10.8942307692308" customWidth="1"/>
+    <col min="4" max="4" width="19.2211538461538" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" ht="17" spans="1:4">
+      <c r="A5" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="8"/>
+    </row>
+    <row r="6" ht="17" spans="1:4">
+      <c r="A6" s="5"/>
+      <c r="B6" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="8"/>
+    </row>
+    <row r="7" ht="17" spans="1:4">
+      <c r="A7" s="5"/>
+      <c r="B7" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="8"/>
+    </row>
+    <row r="8" ht="17" spans="1:4">
+      <c r="A8" s="5"/>
+      <c r="B8" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="8"/>
+    </row>
+    <row r="9" ht="17" spans="1:4">
+      <c r="A9" s="5"/>
+      <c r="B9" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="8"/>
+    </row>
+    <row r="10" ht="17" spans="1:4">
+      <c r="A10" s="5"/>
+      <c r="B10" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="8"/>
+    </row>
+    <row r="11" ht="17" spans="1:4">
+      <c r="A11" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="8"/>
+    </row>
+    <row r="12" ht="17" spans="1:4">
+      <c r="A12" s="5"/>
+      <c r="B12" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="8"/>
+    </row>
+    <row r="13" ht="17" spans="1:4">
+      <c r="A13" s="5"/>
+      <c r="B13" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="8"/>
+    </row>
+    <row r="14" ht="17" spans="1:4">
+      <c r="A14" s="5"/>
+      <c r="B14" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="8"/>
+    </row>
+    <row r="15" ht="17" spans="1:4">
+      <c r="A15" s="5"/>
+      <c r="B15" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="8"/>
+    </row>
+    <row r="16" ht="17" spans="1:4">
+      <c r="A16" s="5"/>
+      <c r="B16" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="8"/>
+    </row>
+    <row r="17" ht="17" spans="1:4">
+      <c r="A17" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="8"/>
+    </row>
+    <row r="18" ht="17" spans="1:4">
+      <c r="A18" s="5"/>
+      <c r="B18" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="8"/>
+    </row>
+    <row r="19" ht="17" spans="1:4">
+      <c r="A19" s="5"/>
+      <c r="B19" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="8"/>
+    </row>
+    <row r="20" ht="17" spans="1:4">
+      <c r="A20" s="5"/>
+      <c r="B20" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="8"/>
+    </row>
+    <row r="21" ht="17" spans="1:4">
+      <c r="A21" s="5"/>
+      <c r="B21" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="8"/>
+    </row>
+    <row r="22" ht="17" spans="1:4">
+      <c r="A22" s="5"/>
+      <c r="B22" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="8"/>
+    </row>
+    <row r="23" ht="17" spans="1:4">
+      <c r="A23" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" s="8"/>
+    </row>
+    <row r="24" ht="17" spans="1:4">
+      <c r="A24" s="5"/>
+      <c r="B24" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="8"/>
+    </row>
+    <row r="25" ht="17" spans="1:4">
+      <c r="A25" s="5"/>
+      <c r="B25" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" s="8"/>
+    </row>
+    <row r="26" ht="17" spans="1:4">
+      <c r="A26" s="5"/>
+      <c r="B26" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" s="8"/>
+    </row>
+    <row r="27" ht="17" spans="1:4">
+      <c r="A27" s="5"/>
+      <c r="B27" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" s="8"/>
+    </row>
+    <row r="28" ht="17" spans="1:4">
+      <c r="A28" s="5"/>
+      <c r="B28" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" s="8"/>
+    </row>
+    <row r="29" ht="17" spans="1:4">
+      <c r="A29" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29" s="8"/>
+    </row>
+    <row r="30" ht="17" spans="1:4">
+      <c r="A30" s="5"/>
+      <c r="B30" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D30" s="8"/>
+    </row>
+    <row r="31" ht="17" spans="1:4">
+      <c r="A31" s="5"/>
+      <c r="B31" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31" s="8"/>
+    </row>
+    <row r="32" ht="17" spans="1:4">
+      <c r="A32" s="5"/>
+      <c r="B32" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D32" s="8"/>
+    </row>
+    <row r="33" ht="17" spans="1:4">
+      <c r="A33" s="5"/>
+      <c r="B33" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D33" s="8"/>
+    </row>
+    <row r="34" ht="17" spans="1:4">
+      <c r="A34" s="5"/>
+      <c r="B34" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D34" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="A5:A10"/>
+    <mergeCell ref="A11:A16"/>
+    <mergeCell ref="A17:A22"/>
+    <mergeCell ref="A23:A28"/>
+    <mergeCell ref="A29:A34"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C7 C8 C9 C10 C11 C12 C13 C14 C15 C16 C17 C18 C19 C20 C21 C22 C25 C31 C23:C24 C26:C28 C29:C30 C32:C34">
+      <formula1>"未进行,进行中,已暂停,已完成"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D28"/>
+  <sheetViews>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28:D28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="3"/>
+  <cols>
+    <col min="2" max="2" width="102.567307692308" customWidth="1"/>
+    <col min="3" max="3" width="10.8942307692308" customWidth="1"/>
+    <col min="4" max="4" width="19.2211538461538" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" ht="17" spans="1:4">
+      <c r="A5" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="8"/>
+    </row>
+    <row r="6" ht="17" spans="1:4">
+      <c r="A6" s="5"/>
+      <c r="B6" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="8"/>
+    </row>
+    <row r="7" ht="17" spans="1:4">
+      <c r="A7" s="5"/>
+      <c r="B7" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="8"/>
+    </row>
+    <row r="8" ht="17" spans="1:4">
+      <c r="A8" s="5"/>
+      <c r="B8" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="8"/>
+    </row>
+    <row r="9" ht="17" spans="1:4">
+      <c r="A9" s="5"/>
+      <c r="B9" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="8"/>
+    </row>
+    <row r="10" ht="17" spans="1:4">
+      <c r="A10" s="5"/>
+      <c r="B10" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="8"/>
+    </row>
+    <row r="11" ht="17" spans="1:4">
+      <c r="A11" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="8"/>
+    </row>
+    <row r="12" ht="17" spans="1:4">
+      <c r="A12" s="5"/>
+      <c r="B12" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="8"/>
+    </row>
+    <row r="13" ht="17" spans="1:4">
+      <c r="A13" s="5"/>
+      <c r="B13" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="8"/>
+    </row>
+    <row r="14" ht="17" spans="1:4">
+      <c r="A14" s="5"/>
+      <c r="B14" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="8"/>
+    </row>
+    <row r="15" ht="17" spans="1:4">
+      <c r="A15" s="5"/>
+      <c r="B15" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="8"/>
+    </row>
+    <row r="16" ht="17" spans="1:4">
+      <c r="A16" s="5"/>
+      <c r="B16" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="8"/>
+    </row>
+    <row r="17" ht="17" spans="1:4">
+      <c r="A17" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="8"/>
+    </row>
+    <row r="18" ht="17" spans="1:4">
+      <c r="A18" s="5"/>
+      <c r="B18" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="8"/>
+    </row>
+    <row r="19" ht="17" spans="1:4">
+      <c r="A19" s="5"/>
+      <c r="B19" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="8"/>
+    </row>
+    <row r="20" ht="17" spans="1:4">
+      <c r="A20" s="5"/>
+      <c r="B20" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="8"/>
+    </row>
+    <row r="21" ht="17" spans="1:4">
+      <c r="A21" s="5"/>
+      <c r="B21" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="8"/>
+    </row>
+    <row r="22" ht="17" spans="1:4">
+      <c r="A22" s="5"/>
+      <c r="B22" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="8"/>
+    </row>
+    <row r="23" ht="17" spans="1:4">
+      <c r="A23" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" s="8"/>
+    </row>
+    <row r="24" ht="17" spans="1:4">
+      <c r="A24" s="5"/>
+      <c r="B24" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="8"/>
+    </row>
+    <row r="25" ht="17" spans="1:4">
+      <c r="A25" s="5"/>
+      <c r="B25" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" s="8"/>
+    </row>
+    <row r="26" ht="17" spans="1:4">
+      <c r="A26" s="5"/>
+      <c r="B26" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" s="8"/>
+    </row>
+    <row r="27" ht="17" spans="1:4">
+      <c r="A27" s="5"/>
+      <c r="B27" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" s="8"/>
+    </row>
+    <row r="28" ht="17" spans="1:4">
+      <c r="A28" s="5"/>
+      <c r="B28" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="A5:A10"/>
+    <mergeCell ref="A11:A16"/>
+    <mergeCell ref="A17:A22"/>
+    <mergeCell ref="A23:A28"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C25 C26 C27 C28 C5:C24">
       <formula1>"未进行,进行中,已暂停,已完成"</formula1>
     </dataValidation>
   </dataValidations>

--- a/file/personal/roleImportant/角色要事记录表_2025.xlsx
+++ b/file/personal/roleImportant/角色要事记录表_2025.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22800" windowHeight="13160" tabRatio="500" firstSheet="3" activeTab="9"/>
+    <workbookView windowWidth="22800" windowHeight="13160" tabRatio="500" firstSheet="3" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="角色目录" sheetId="1" r:id="rId1"/>
@@ -15,8 +15,6 @@
     <sheet name="十月" sheetId="6" r:id="rId6"/>
     <sheet name="十一月" sheetId="7" r:id="rId7"/>
     <sheet name="十二月" sheetId="8" r:id="rId8"/>
-    <sheet name="一月" sheetId="9" r:id="rId9"/>
-    <sheet name="二月" sheetId="10" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">待办任务!$A$1:$D$32</definedName>
@@ -39,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="155">
   <si>
     <t>角色</t>
   </si>
@@ -763,12 +761,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.25"/>
-        <bgColor rgb="FF92D050"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF77BC65"/>
         <bgColor rgb="FF92D050"/>
       </patternFill>
@@ -777,6 +769,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.25"/>
+        <bgColor rgb="FF92D050"/>
       </patternFill>
     </fill>
     <fill>
@@ -2271,325 +2269,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:D28"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="3"/>
-  <cols>
-    <col min="2" max="2" width="102.567307692308" customWidth="1"/>
-    <col min="3" max="3" width="10.8942307692308" customWidth="1"/>
-    <col min="4" max="4" width="19.2211538461538" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="5" ht="17" spans="1:4">
-      <c r="A5" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="8"/>
-    </row>
-    <row r="6" ht="17" spans="1:4">
-      <c r="A6" s="5"/>
-      <c r="B6" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="8"/>
-    </row>
-    <row r="7" ht="17" spans="1:4">
-      <c r="A7" s="5"/>
-      <c r="B7" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="8"/>
-    </row>
-    <row r="8" ht="17" spans="1:4">
-      <c r="A8" s="5"/>
-      <c r="B8" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="8"/>
-    </row>
-    <row r="9" ht="17" spans="1:4">
-      <c r="A9" s="5"/>
-      <c r="B9" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="8"/>
-    </row>
-    <row r="10" ht="17" spans="1:4">
-      <c r="A10" s="5"/>
-      <c r="B10" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="8"/>
-    </row>
-    <row r="11" ht="17" spans="1:4">
-      <c r="A11" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="8"/>
-    </row>
-    <row r="12" ht="17" spans="1:4">
-      <c r="A12" s="5"/>
-      <c r="B12" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="8"/>
-    </row>
-    <row r="13" ht="17" spans="1:4">
-      <c r="A13" s="5"/>
-      <c r="B13" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="8"/>
-    </row>
-    <row r="14" ht="17" spans="1:4">
-      <c r="A14" s="5"/>
-      <c r="B14" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="8"/>
-    </row>
-    <row r="15" ht="17" spans="1:4">
-      <c r="A15" s="5"/>
-      <c r="B15" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="8"/>
-    </row>
-    <row r="16" ht="17" spans="1:4">
-      <c r="A16" s="5"/>
-      <c r="B16" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" s="8"/>
-    </row>
-    <row r="17" ht="17" spans="1:4">
-      <c r="A17" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" s="8"/>
-    </row>
-    <row r="18" ht="17" spans="1:4">
-      <c r="A18" s="5"/>
-      <c r="B18" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" s="8"/>
-    </row>
-    <row r="19" ht="17" spans="1:4">
-      <c r="A19" s="5"/>
-      <c r="B19" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" s="8"/>
-    </row>
-    <row r="20" ht="17" spans="1:4">
-      <c r="A20" s="5"/>
-      <c r="B20" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D20" s="8"/>
-    </row>
-    <row r="21" ht="17" spans="1:4">
-      <c r="A21" s="5"/>
-      <c r="B21" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D21" s="8"/>
-    </row>
-    <row r="22" ht="17" spans="1:4">
-      <c r="A22" s="5"/>
-      <c r="B22" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D22" s="8"/>
-    </row>
-    <row r="23" ht="17" spans="1:4">
-      <c r="A23" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D23" s="8"/>
-    </row>
-    <row r="24" ht="17" spans="1:4">
-      <c r="A24" s="5"/>
-      <c r="B24" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D24" s="8"/>
-    </row>
-    <row r="25" ht="17" spans="1:4">
-      <c r="A25" s="5"/>
-      <c r="B25" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D25" s="8"/>
-    </row>
-    <row r="26" ht="17" spans="1:4">
-      <c r="A26" s="5"/>
-      <c r="B26" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D26" s="8"/>
-    </row>
-    <row r="27" ht="17" spans="1:4">
-      <c r="A27" s="5"/>
-      <c r="B27" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D27" s="8"/>
-    </row>
-    <row r="28" ht="17" spans="1:4">
-      <c r="A28" s="5"/>
-      <c r="B28" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D28" s="8"/>
-    </row>
-  </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="A5:A10"/>
-    <mergeCell ref="A11:A16"/>
-    <mergeCell ref="A17:A22"/>
-    <mergeCell ref="A23:A28"/>
-  </mergeCells>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C24 C25 C26 C27 C28 C5:C23">
-      <formula1>"未进行,进行中,已暂停,已完成"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr filterMode="1">
@@ -3119,7 +2798,7 @@
       <c r="B5" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="7" t="s">
         <v>37</v>
       </c>
       <c r="D5" s="8"/>
@@ -3129,7 +2808,7 @@
       <c r="B6" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="7" t="s">
         <v>37</v>
       </c>
       <c r="D6" s="6"/>
@@ -3143,7 +2822,7 @@
       <c r="B7" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="7" t="s">
         <v>37</v>
       </c>
       <c r="D7" s="8"/>
@@ -3153,7 +2832,7 @@
       <c r="B8" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="7" t="s">
         <v>37</v>
       </c>
       <c r="D8" s="8"/>
@@ -3165,7 +2844,7 @@
       <c r="B9" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="7" t="s">
         <v>37</v>
       </c>
       <c r="D9" s="8"/>
@@ -3177,7 +2856,7 @@
       <c r="B10" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="7" t="s">
         <v>37</v>
       </c>
       <c r="D10" s="8"/>
@@ -3189,7 +2868,7 @@
       <c r="B11" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="7" t="s">
         <v>37</v>
       </c>
       <c r="D11" s="8"/>
@@ -3203,7 +2882,7 @@
       <c r="B12" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="7" t="s">
         <v>37</v>
       </c>
       <c r="D12" s="8"/>
@@ -3213,7 +2892,7 @@
       <c r="B13" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="7" t="s">
         <v>37</v>
       </c>
       <c r="D13" s="8"/>
@@ -3223,7 +2902,7 @@
       <c r="B14" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="7" t="s">
         <v>37</v>
       </c>
       <c r="D14" s="8"/>
@@ -3317,7 +2996,7 @@
       <c r="B5" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="7" t="s">
         <v>37</v>
       </c>
       <c r="D5" s="8"/>
@@ -3327,7 +3006,7 @@
       <c r="B6" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="7" t="s">
         <v>37</v>
       </c>
       <c r="D6" s="8"/>
@@ -3337,7 +3016,7 @@
       <c r="B7" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="7" t="s">
         <v>37</v>
       </c>
       <c r="D7" s="8"/>
@@ -3349,7 +3028,7 @@
       <c r="B8" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="7" t="s">
         <v>37</v>
       </c>
       <c r="D8" s="8"/>
@@ -3359,7 +3038,7 @@
       <c r="B9" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="7" t="s">
         <v>37</v>
       </c>
       <c r="D9" s="8"/>
@@ -3373,7 +3052,7 @@
       <c r="B10" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="7" t="s">
         <v>37</v>
       </c>
       <c r="D10" s="8"/>
@@ -3385,7 +3064,7 @@
       <c r="B11" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="7" t="s">
         <v>37</v>
       </c>
       <c r="D11" s="8"/>
@@ -3399,7 +3078,7 @@
       <c r="B12" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="7" t="s">
         <v>37</v>
       </c>
       <c r="D12" s="8"/>
@@ -3409,7 +3088,7 @@
       <c r="B13" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="7" t="s">
         <v>37</v>
       </c>
       <c r="D13" s="8"/>
@@ -3504,7 +3183,7 @@
       <c r="B5" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="7" t="s">
         <v>37</v>
       </c>
       <c r="D5" s="8"/>
@@ -3514,7 +3193,7 @@
       <c r="B6" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="7" t="s">
         <v>37</v>
       </c>
       <c r="D6" s="8"/>
@@ -3524,7 +3203,7 @@
       <c r="B7" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="7" t="s">
         <v>37</v>
       </c>
       <c r="D7" s="8"/>
@@ -3534,7 +3213,7 @@
       <c r="B8" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="7" t="s">
         <v>37</v>
       </c>
       <c r="D8" s="8"/>
@@ -3574,7 +3253,7 @@
       <c r="B12" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="7" t="s">
         <v>37</v>
       </c>
       <c r="D12" s="6"/>
@@ -3598,7 +3277,7 @@
       <c r="B14" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="7" t="s">
         <v>37</v>
       </c>
       <c r="D14" s="8"/>
@@ -3610,7 +3289,7 @@
       <c r="B15" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="7" t="s">
         <v>37</v>
       </c>
       <c r="D15" s="8"/>
@@ -3622,7 +3301,7 @@
       <c r="B16" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="7" t="s">
         <v>37</v>
       </c>
       <c r="D16" s="8"/>
@@ -3634,7 +3313,7 @@
       <c r="B17" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="7" t="s">
         <v>37</v>
       </c>
       <c r="D17" s="8"/>
@@ -3646,7 +3325,7 @@
       <c r="B18" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="7" t="s">
         <v>37</v>
       </c>
       <c r="D18" s="8"/>
@@ -3658,7 +3337,7 @@
       <c r="B19" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="7" t="s">
         <v>37</v>
       </c>
       <c r="D19" s="8"/>
@@ -3670,7 +3349,7 @@
       <c r="B20" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="7" t="s">
         <v>37</v>
       </c>
       <c r="D20" s="8"/>
@@ -3684,7 +3363,7 @@
       <c r="B21" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="7" t="s">
         <v>37</v>
       </c>
       <c r="D21" s="8"/>
@@ -3696,7 +3375,7 @@
       <c r="B22" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="7" t="s">
         <v>37</v>
       </c>
       <c r="D22" s="8"/>
@@ -3708,7 +3387,7 @@
       <c r="B23" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="7" t="s">
         <v>37</v>
       </c>
       <c r="D23" s="8"/>
@@ -3720,7 +3399,7 @@
       <c r="B24" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="7" t="s">
         <v>37</v>
       </c>
       <c r="D24" s="8"/>
@@ -3744,7 +3423,7 @@
       <c r="B26" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="7" t="s">
         <v>37</v>
       </c>
       <c r="D26" s="8"/>
@@ -3756,7 +3435,7 @@
       <c r="B27" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="7" t="s">
         <v>37</v>
       </c>
       <c r="D27" s="8"/>
@@ -3780,7 +3459,7 @@
       <c r="B29" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="7" t="s">
         <v>37</v>
       </c>
       <c r="D29" s="8"/>
@@ -3790,7 +3469,7 @@
       <c r="B30" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="7" t="s">
         <v>37</v>
       </c>
       <c r="D30" s="8"/>
@@ -3810,7 +3489,7 @@
       <c r="B32" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C32" s="7" t="s">
         <v>37</v>
       </c>
       <c r="D32" s="8"/>
@@ -3830,7 +3509,7 @@
       <c r="B34" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="C34" s="7" t="s">
         <v>37</v>
       </c>
       <c r="D34" s="8"/>
@@ -3945,7 +3624,7 @@
       <c r="B5" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="7" t="s">
         <v>37</v>
       </c>
       <c r="D5" s="8"/>
@@ -3955,7 +3634,7 @@
       <c r="B6" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="7" t="s">
         <v>37</v>
       </c>
       <c r="D6" s="8"/>
@@ -3965,7 +3644,7 @@
       <c r="B7" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="7" t="s">
         <v>37</v>
       </c>
       <c r="D7" s="8"/>
@@ -3975,7 +3654,7 @@
       <c r="B8" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="7" t="s">
         <v>37</v>
       </c>
       <c r="D8" s="8"/>
@@ -3985,7 +3664,7 @@
       <c r="B9" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="7" t="s">
         <v>37</v>
       </c>
       <c r="D9" s="8"/>
@@ -3995,7 +3674,7 @@
       <c r="B10" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="7" t="s">
         <v>37</v>
       </c>
       <c r="D10" s="6"/>
@@ -4009,7 +3688,7 @@
       <c r="B11" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="7" t="s">
         <v>37</v>
       </c>
       <c r="D11" s="8">
@@ -4021,7 +3700,7 @@
       <c r="B12" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="7" t="s">
         <v>37</v>
       </c>
       <c r="D12" s="8"/>
@@ -4033,7 +3712,7 @@
       <c r="B13" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="7" t="s">
         <v>37</v>
       </c>
       <c r="D13" s="8"/>
@@ -4045,7 +3724,7 @@
       <c r="B14" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="7" t="s">
         <v>37</v>
       </c>
       <c r="D14" s="8"/>
@@ -4057,7 +3736,7 @@
       <c r="B15" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="7" t="s">
         <v>37</v>
       </c>
       <c r="D15" s="8"/>
@@ -4069,7 +3748,7 @@
       <c r="B16" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="7" t="s">
         <v>37</v>
       </c>
       <c r="D16" s="8"/>
@@ -4081,7 +3760,7 @@
       <c r="B17" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="7" t="s">
         <v>37</v>
       </c>
       <c r="D17" s="8"/>
@@ -4093,7 +3772,7 @@
       <c r="B18" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="7" t="s">
         <v>37</v>
       </c>
       <c r="D18" s="8"/>
@@ -4105,7 +3784,7 @@
       <c r="B19" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="9" t="s">
         <v>30</v>
       </c>
       <c r="D19" s="8"/>
@@ -4119,7 +3798,7 @@
       <c r="B20" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="7" t="s">
         <v>37</v>
       </c>
       <c r="D20" s="1" t="s">
@@ -4133,7 +3812,7 @@
       <c r="B21" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="7" t="s">
         <v>37</v>
       </c>
       <c r="D21" s="1"/>
@@ -4145,7 +3824,7 @@
       <c r="B22" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="9" t="s">
         <v>30</v>
       </c>
       <c r="D22" s="1"/>
@@ -4157,7 +3836,7 @@
       <c r="B23" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="9" t="s">
         <v>30</v>
       </c>
       <c r="D23" s="1"/>
@@ -4169,7 +3848,7 @@
       <c r="B24" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="9" t="s">
         <v>30</v>
       </c>
       <c r="D24" s="1"/>
@@ -4181,7 +3860,7 @@
       <c r="B25" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="7" t="s">
         <v>37</v>
       </c>
       <c r="D25" s="1"/>
@@ -4193,7 +3872,7 @@
       <c r="B26" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C26" s="9" t="s">
         <v>30</v>
       </c>
       <c r="D26" s="1"/>
@@ -4205,7 +3884,7 @@
       <c r="B27" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="9" t="s">
         <v>30</v>
       </c>
       <c r="D27" s="1"/>
@@ -4217,7 +3896,7 @@
       <c r="B28" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C28" s="9" t="s">
         <v>30</v>
       </c>
       <c r="D28" s="18"/>
@@ -4229,7 +3908,7 @@
       <c r="B29" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C29" s="9" t="s">
         <v>30</v>
       </c>
       <c r="D29" s="8">
@@ -4241,7 +3920,7 @@
       <c r="B30" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="7" t="s">
         <v>37</v>
       </c>
       <c r="D30" s="8"/>
@@ -4251,7 +3930,7 @@
       <c r="B31" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C31" s="9" t="s">
         <v>30</v>
       </c>
       <c r="D31" s="8"/>
@@ -4261,7 +3940,7 @@
       <c r="B32" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C32" s="7" t="s">
         <v>37</v>
       </c>
       <c r="D32" s="8"/>
@@ -4271,7 +3950,7 @@
       <c r="B33" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="C33" s="9" t="s">
+      <c r="C33" s="7" t="s">
         <v>37</v>
       </c>
       <c r="D33" s="8"/>
@@ -4281,7 +3960,7 @@
       <c r="B34" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="C34" s="7" t="s">
         <v>37</v>
       </c>
       <c r="D34" s="8" t="s">
@@ -4293,7 +3972,7 @@
       <c r="B35" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="C35" s="9" t="s">
+      <c r="C35" s="7" t="s">
         <v>37</v>
       </c>
       <c r="D35" s="8"/>
@@ -4303,7 +3982,7 @@
       <c r="B36" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="C36" s="10" t="s">
+      <c r="C36" s="9" t="s">
         <v>30</v>
       </c>
       <c r="D36" s="8"/>
@@ -4315,7 +3994,7 @@
       <c r="B37" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="C37" s="9" t="s">
+      <c r="C37" s="7" t="s">
         <v>37</v>
       </c>
       <c r="D37" s="8" t="s">
@@ -4327,7 +4006,7 @@
       <c r="B38" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="C38" s="9" t="s">
+      <c r="C38" s="7" t="s">
         <v>37</v>
       </c>
       <c r="D38" s="8"/>
@@ -4337,7 +4016,7 @@
       <c r="B39" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="C39" s="9" t="s">
+      <c r="C39" s="7" t="s">
         <v>37</v>
       </c>
       <c r="D39" s="8"/>
@@ -4347,7 +4026,7 @@
       <c r="B40" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="C40" s="9" t="s">
+      <c r="C40" s="7" t="s">
         <v>37</v>
       </c>
       <c r="D40" s="8"/>
@@ -4357,7 +4036,7 @@
       <c r="B41" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="C41" s="9" t="s">
+      <c r="C41" s="7" t="s">
         <v>37</v>
       </c>
       <c r="D41" s="8"/>
@@ -4367,7 +4046,7 @@
       <c r="B42" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="C42" s="9" t="s">
+      <c r="C42" s="7" t="s">
         <v>37</v>
       </c>
       <c r="D42" s="8"/>
@@ -4377,7 +4056,7 @@
       <c r="B43" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="C43" s="9" t="s">
+      <c r="C43" s="7" t="s">
         <v>37</v>
       </c>
       <c r="D43" s="8"/>
@@ -4387,7 +4066,7 @@
       <c r="B44" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="C44" s="9" t="s">
+      <c r="C44" s="7" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="21"/>
@@ -4397,7 +4076,7 @@
       <c r="B45" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="C45" s="9" t="s">
+      <c r="C45" s="7" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="8"/>
@@ -4485,7 +4164,7 @@
       <c r="B5" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="7" t="s">
         <v>37</v>
       </c>
       <c r="D5" s="8">
@@ -4497,7 +4176,7 @@
       <c r="B6" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="7" t="s">
         <v>37</v>
       </c>
       <c r="D6" s="8"/>
@@ -4507,7 +4186,7 @@
       <c r="B7" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="7" t="s">
         <v>37</v>
       </c>
       <c r="D7" s="8"/>
@@ -4517,7 +4196,7 @@
       <c r="B8" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="9" t="s">
         <v>30</v>
       </c>
       <c r="D8" s="8"/>
@@ -4527,7 +4206,7 @@
       <c r="B9" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="9" t="s">
         <v>30</v>
       </c>
       <c r="D9" s="8"/>
@@ -4537,7 +4216,7 @@
       <c r="B10" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="9" t="s">
         <v>30</v>
       </c>
       <c r="D10" s="8"/>
@@ -4547,7 +4226,7 @@
       <c r="B11" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="7" t="s">
         <v>37</v>
       </c>
       <c r="D11" s="8"/>
@@ -4557,7 +4236,7 @@
       <c r="B12" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="9" t="s">
         <v>30</v>
       </c>
       <c r="D12" s="8"/>
@@ -4567,7 +4246,7 @@
       <c r="B13" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="9" t="s">
         <v>30</v>
       </c>
       <c r="D13" s="6"/>
@@ -4577,55 +4256,55 @@
         <v>98</v>
       </c>
       <c r="B14" s="6"/>
-      <c r="C14" s="7"/>
+      <c r="C14" s="10"/>
       <c r="D14" s="8"/>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="5"/>
       <c r="B15" s="6"/>
-      <c r="C15" s="7"/>
+      <c r="C15" s="10"/>
       <c r="D15" s="8"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="5"/>
       <c r="B16" s="6"/>
-      <c r="C16" s="7"/>
+      <c r="C16" s="10"/>
       <c r="D16" s="8"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="5"/>
       <c r="B17" s="6"/>
-      <c r="C17" s="7"/>
+      <c r="C17" s="10"/>
       <c r="D17" s="8"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="5"/>
       <c r="B18" s="6"/>
-      <c r="C18" s="7"/>
+      <c r="C18" s="10"/>
       <c r="D18" s="8"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="5"/>
       <c r="B19" s="6"/>
-      <c r="C19" s="7"/>
+      <c r="C19" s="10"/>
       <c r="D19" s="8"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="5"/>
       <c r="B20" s="6"/>
-      <c r="C20" s="7"/>
+      <c r="C20" s="10"/>
       <c r="D20" s="8"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="5"/>
       <c r="B21" s="6"/>
-      <c r="C21" s="7"/>
+      <c r="C21" s="10"/>
       <c r="D21" s="8"/>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="5"/>
       <c r="B22" s="6"/>
-      <c r="C22" s="7"/>
+      <c r="C22" s="10"/>
       <c r="D22" s="8"/>
     </row>
     <row r="23" spans="1:4">
@@ -4633,55 +4312,55 @@
         <v>81</v>
       </c>
       <c r="B23" s="6"/>
-      <c r="C23" s="7"/>
+      <c r="C23" s="10"/>
       <c r="D23" s="8"/>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="5"/>
       <c r="B24" s="6"/>
-      <c r="C24" s="7"/>
+      <c r="C24" s="10"/>
       <c r="D24" s="8"/>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="5"/>
       <c r="B25" s="6"/>
-      <c r="C25" s="7"/>
+      <c r="C25" s="10"/>
       <c r="D25" s="8"/>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="5"/>
       <c r="B26" s="6"/>
-      <c r="C26" s="7"/>
+      <c r="C26" s="10"/>
       <c r="D26" s="8"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="5"/>
       <c r="B27" s="6"/>
-      <c r="C27" s="7"/>
+      <c r="C27" s="10"/>
       <c r="D27" s="8"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="5"/>
       <c r="B28" s="6"/>
-      <c r="C28" s="7"/>
+      <c r="C28" s="10"/>
       <c r="D28" s="8"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="5"/>
       <c r="B29" s="6"/>
-      <c r="C29" s="7"/>
+      <c r="C29" s="10"/>
       <c r="D29" s="8"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="5"/>
       <c r="B30" s="6"/>
-      <c r="C30" s="7"/>
+      <c r="C30" s="10"/>
       <c r="D30" s="8"/>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="5"/>
       <c r="B31" s="6"/>
-      <c r="C31" s="7"/>
+      <c r="C31" s="10"/>
       <c r="D31" s="8"/>
     </row>
     <row r="32" ht="17" spans="1:4">
@@ -4691,7 +4370,7 @@
       <c r="B32" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="10" t="s">
         <v>30</v>
       </c>
       <c r="D32" s="8"/>
@@ -4701,7 +4380,7 @@
       <c r="B33" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C33" s="10" t="s">
         <v>30</v>
       </c>
       <c r="D33" s="8"/>
@@ -4711,7 +4390,7 @@
       <c r="B34" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C34" s="10" t="s">
         <v>30</v>
       </c>
       <c r="D34" s="8"/>
@@ -4721,7 +4400,7 @@
       <c r="B35" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C35" s="10" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="8"/>
@@ -4731,7 +4410,7 @@
       <c r="B36" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C36" s="10" t="s">
         <v>30</v>
       </c>
       <c r="D36" s="8"/>
@@ -4762,8 +4441,8 @@
   <sheetPr/>
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:B28"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="3"/>
@@ -4814,7 +4493,7 @@
       <c r="B5" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="7" t="s">
         <v>37</v>
       </c>
       <c r="D5" s="8"/>
@@ -4824,7 +4503,7 @@
       <c r="B6" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="9" t="s">
         <v>30</v>
       </c>
       <c r="D6" s="8"/>
@@ -4834,7 +4513,7 @@
       <c r="B7" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="7" t="s">
         <v>37</v>
       </c>
       <c r="D7" s="8"/>
@@ -4844,7 +4523,7 @@
       <c r="B8" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="7" t="s">
         <v>37</v>
       </c>
       <c r="D8" s="8"/>
@@ -4854,7 +4533,7 @@
       <c r="B9" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="9" t="s">
         <v>30</v>
       </c>
       <c r="D9" s="8"/>
@@ -4864,7 +4543,7 @@
       <c r="B10" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="7" t="s">
         <v>37</v>
       </c>
       <c r="D10" s="8"/>
@@ -4876,7 +4555,7 @@
       <c r="B11" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="7" t="s">
         <v>37</v>
       </c>
       <c r="D11" s="8"/>
@@ -4886,7 +4565,7 @@
       <c r="B12" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="9" t="s">
         <v>30</v>
       </c>
       <c r="D12" s="8"/>
@@ -4896,7 +4575,7 @@
       <c r="B13" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="7" t="s">
         <v>37</v>
       </c>
       <c r="D13" s="8"/>
@@ -4906,7 +4585,7 @@
       <c r="B14" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="7" t="s">
         <v>37</v>
       </c>
       <c r="D14" s="8"/>
@@ -4916,7 +4595,7 @@
       <c r="B15" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="9" t="s">
         <v>30</v>
       </c>
       <c r="D15" s="8"/>
@@ -4926,7 +4605,7 @@
       <c r="B16" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="7" t="s">
         <v>37</v>
       </c>
       <c r="D16" s="8"/>
@@ -4938,7 +4617,7 @@
       <c r="B17" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="7" t="s">
         <v>37</v>
       </c>
       <c r="D17" s="8"/>
@@ -4948,7 +4627,7 @@
       <c r="B18" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="9" t="s">
         <v>30</v>
       </c>
       <c r="D18" s="8"/>
@@ -4958,7 +4637,7 @@
       <c r="B19" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="7" t="s">
         <v>37</v>
       </c>
       <c r="D19" s="8"/>
@@ -4968,7 +4647,7 @@
       <c r="B20" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="7" t="s">
         <v>37</v>
       </c>
       <c r="D20" s="8"/>
@@ -4978,7 +4657,7 @@
       <c r="B21" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="9" t="s">
         <v>30</v>
       </c>
       <c r="D21" s="8"/>
@@ -4988,7 +4667,7 @@
       <c r="B22" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="7" t="s">
         <v>37</v>
       </c>
       <c r="D22" s="8"/>
@@ -5001,7 +4680,7 @@
         <v>151</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D23" s="8"/>
     </row>
@@ -5010,7 +4689,7 @@
       <c r="B24" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="9" t="s">
         <v>30</v>
       </c>
       <c r="D24" s="8"/>
@@ -5021,7 +4700,7 @@
         <v>152</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D25" s="8"/>
     </row>
@@ -5031,7 +4710,7 @@
         <v>153</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D26" s="8"/>
     </row>
@@ -5041,7 +4720,7 @@
         <v>154</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D27" s="8"/>
     </row>
@@ -5051,7 +4730,7 @@
         <v>148</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D28" s="8"/>
     </row>
@@ -5063,7 +4742,7 @@
         <v>151</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D29" s="8"/>
     </row>
@@ -5072,7 +4751,7 @@
       <c r="B30" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="9" t="s">
         <v>30</v>
       </c>
       <c r="D30" s="8"/>
@@ -5083,7 +4762,7 @@
         <v>152</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D31" s="8"/>
     </row>
@@ -5093,7 +4772,7 @@
         <v>153</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D32" s="8"/>
     </row>
@@ -5102,7 +4781,7 @@
       <c r="B33" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C33" s="9" t="s">
         <v>30</v>
       </c>
       <c r="D33" s="8"/>
@@ -5113,7 +4792,7 @@
         <v>148</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D34" s="8"/>
     </row>
@@ -5130,326 +4809,7 @@
     <mergeCell ref="A29:A34"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C7 C8 C9 C10 C11 C12 C13 C14 C15 C16 C17 C18 C19 C20 C21 C22 C25 C31 C23:C24 C26:C28 C29:C30 C32:C34">
-      <formula1>"未进行,进行中,已暂停,已完成"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:D28"/>
-  <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28:D28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="3"/>
-  <cols>
-    <col min="2" max="2" width="102.567307692308" customWidth="1"/>
-    <col min="3" max="3" width="10.8942307692308" customWidth="1"/>
-    <col min="4" max="4" width="19.2211538461538" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="5" ht="17" spans="1:4">
-      <c r="A5" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="8"/>
-    </row>
-    <row r="6" ht="17" spans="1:4">
-      <c r="A6" s="5"/>
-      <c r="B6" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="8"/>
-    </row>
-    <row r="7" ht="17" spans="1:4">
-      <c r="A7" s="5"/>
-      <c r="B7" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="8"/>
-    </row>
-    <row r="8" ht="17" spans="1:4">
-      <c r="A8" s="5"/>
-      <c r="B8" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="8"/>
-    </row>
-    <row r="9" ht="17" spans="1:4">
-      <c r="A9" s="5"/>
-      <c r="B9" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="8"/>
-    </row>
-    <row r="10" ht="17" spans="1:4">
-      <c r="A10" s="5"/>
-      <c r="B10" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="8"/>
-    </row>
-    <row r="11" ht="17" spans="1:4">
-      <c r="A11" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="8"/>
-    </row>
-    <row r="12" ht="17" spans="1:4">
-      <c r="A12" s="5"/>
-      <c r="B12" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="8"/>
-    </row>
-    <row r="13" ht="17" spans="1:4">
-      <c r="A13" s="5"/>
-      <c r="B13" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="8"/>
-    </row>
-    <row r="14" ht="17" spans="1:4">
-      <c r="A14" s="5"/>
-      <c r="B14" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="8"/>
-    </row>
-    <row r="15" ht="17" spans="1:4">
-      <c r="A15" s="5"/>
-      <c r="B15" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="8"/>
-    </row>
-    <row r="16" ht="17" spans="1:4">
-      <c r="A16" s="5"/>
-      <c r="B16" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" s="8"/>
-    </row>
-    <row r="17" ht="17" spans="1:4">
-      <c r="A17" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" s="8"/>
-    </row>
-    <row r="18" ht="17" spans="1:4">
-      <c r="A18" s="5"/>
-      <c r="B18" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" s="8"/>
-    </row>
-    <row r="19" ht="17" spans="1:4">
-      <c r="A19" s="5"/>
-      <c r="B19" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" s="8"/>
-    </row>
-    <row r="20" ht="17" spans="1:4">
-      <c r="A20" s="5"/>
-      <c r="B20" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D20" s="8"/>
-    </row>
-    <row r="21" ht="17" spans="1:4">
-      <c r="A21" s="5"/>
-      <c r="B21" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D21" s="8"/>
-    </row>
-    <row r="22" ht="17" spans="1:4">
-      <c r="A22" s="5"/>
-      <c r="B22" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D22" s="8"/>
-    </row>
-    <row r="23" ht="17" spans="1:4">
-      <c r="A23" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D23" s="8"/>
-    </row>
-    <row r="24" ht="17" spans="1:4">
-      <c r="A24" s="5"/>
-      <c r="B24" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D24" s="8"/>
-    </row>
-    <row r="25" ht="17" spans="1:4">
-      <c r="A25" s="5"/>
-      <c r="B25" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D25" s="8"/>
-    </row>
-    <row r="26" ht="17" spans="1:4">
-      <c r="A26" s="5"/>
-      <c r="B26" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D26" s="8"/>
-    </row>
-    <row r="27" ht="17" spans="1:4">
-      <c r="A27" s="5"/>
-      <c r="B27" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D27" s="8"/>
-    </row>
-    <row r="28" ht="17" spans="1:4">
-      <c r="A28" s="5"/>
-      <c r="B28" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D28" s="8"/>
-    </row>
-  </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="A5:A10"/>
-    <mergeCell ref="A11:A16"/>
-    <mergeCell ref="A17:A22"/>
-    <mergeCell ref="A23:A28"/>
-  </mergeCells>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C25 C26 C27 C28 C5:C24">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C23 C24 C25 C26 C27 C28 C29 C30 C31 C32 C33 C34 C5:C22">
       <formula1>"未进行,进行中,已暂停,已完成"</formula1>
     </dataValidation>
   </dataValidations>
